--- a/AAPL.xlsx
+++ b/AAPL.xlsx
@@ -493,7 +493,7 @@
         <v>39.47999954223633</v>
       </c>
       <c r="F2" t="n">
-        <v>37.79377746582031</v>
+        <v>37.79378509521484</v>
       </c>
       <c r="G2" t="n">
         <v>148158800</v>
@@ -516,7 +516,7 @@
         <v>35.54750061035156</v>
       </c>
       <c r="F3" t="n">
-        <v>34.02924346923828</v>
+        <v>34.02924728393555</v>
       </c>
       <c r="G3" t="n">
         <v>365248800</v>
@@ -539,7 +539,7 @@
         <v>37.06499862670898</v>
       </c>
       <c r="F4" t="n">
-        <v>35.48193359375</v>
+        <v>35.48192596435547</v>
       </c>
       <c r="G4" t="n">
         <v>234428400</v>
@@ -585,7 +585,7 @@
         <v>37.6875</v>
       </c>
       <c r="F6" t="n">
-        <v>36.07784271240234</v>
+        <v>36.07783508300781</v>
       </c>
       <c r="G6" t="n">
         <v>164101200</v>
@@ -608,7 +608,7 @@
         <v>38.32749938964844</v>
       </c>
       <c r="F7" t="n">
-        <v>36.69050598144531</v>
+        <v>36.69050216674805</v>
       </c>
       <c r="G7" t="n">
         <v>180396400</v>
@@ -631,7 +631,7 @@
         <v>38.45000076293945</v>
       </c>
       <c r="F8" t="n">
-        <v>36.80777359008789</v>
+        <v>36.80776977539062</v>
       </c>
       <c r="G8" t="n">
         <v>143122800</v>
@@ -654,7 +654,7 @@
         <v>38.0724983215332</v>
       </c>
       <c r="F9" t="n">
-        <v>36.44638442993164</v>
+        <v>36.44639205932617</v>
       </c>
       <c r="G9" t="n">
         <v>108092800</v>
@@ -677,7 +677,7 @@
         <v>37.5</v>
       </c>
       <c r="F10" t="n">
-        <v>35.89834594726562</v>
+        <v>35.89835357666016</v>
       </c>
       <c r="G10" t="n">
         <v>129756800</v>
@@ -700,7 +700,7 @@
         <v>38.26750183105469</v>
       </c>
       <c r="F11" t="n">
-        <v>36.63307189941406</v>
+        <v>36.6330680847168</v>
       </c>
       <c r="G11" t="n">
         <v>114843600</v>
@@ -723,7 +723,7 @@
         <v>38.73500061035156</v>
       </c>
       <c r="F12" t="n">
-        <v>37.08060836791992</v>
+        <v>37.08059692382812</v>
       </c>
       <c r="G12" t="n">
         <v>122278800</v>
@@ -746,7 +746,7 @@
         <v>38.96500015258789</v>
       </c>
       <c r="F13" t="n">
-        <v>37.30077362060547</v>
+        <v>37.30078125</v>
       </c>
       <c r="G13" t="n">
         <v>119284800</v>
@@ -769,7 +769,7 @@
         <v>39.20500183105469</v>
       </c>
       <c r="F14" t="n">
-        <v>37.530517578125</v>
+        <v>37.53053283691406</v>
       </c>
       <c r="G14" t="n">
         <v>135004000</v>
@@ -792,7 +792,7 @@
         <v>38.32500076293945</v>
       </c>
       <c r="F15" t="n">
-        <v>36.68811416625977</v>
+        <v>36.68810272216797</v>
       </c>
       <c r="G15" t="n">
         <v>121576000</v>
@@ -815,7 +815,7 @@
         <v>38.47999954223633</v>
       </c>
       <c r="F16" t="n">
-        <v>36.83648300170898</v>
+        <v>36.83649826049805</v>
       </c>
       <c r="G16" t="n">
         <v>92522400</v>
@@ -838,7 +838,7 @@
         <v>38.17499923706055</v>
       </c>
       <c r="F17" t="n">
-        <v>36.54452514648438</v>
+        <v>36.54451751708984</v>
       </c>
       <c r="G17" t="n">
         <v>101766000</v>
@@ -861,7 +861,7 @@
         <v>39.43999862670898</v>
       </c>
       <c r="F18" t="n">
-        <v>37.7554931640625</v>
+        <v>37.75548553466797</v>
       </c>
       <c r="G18" t="n">
         <v>134142000</v>
@@ -884,7 +884,7 @@
         <v>39.07500076293945</v>
       </c>
       <c r="F19" t="n">
-        <v>37.40608978271484</v>
+        <v>37.40607833862305</v>
       </c>
       <c r="G19" t="n">
         <v>104768400</v>
@@ -907,7 +907,7 @@
         <v>38.66999816894531</v>
       </c>
       <c r="F20" t="n">
-        <v>37.01837539672852</v>
+        <v>37.01836776733398</v>
       </c>
       <c r="G20" t="n">
         <v>166348800</v>
@@ -930,7 +930,7 @@
         <v>41.3125</v>
       </c>
       <c r="F21" t="n">
-        <v>39.54800796508789</v>
+        <v>39.54800415039062</v>
       </c>
       <c r="G21" t="n">
         <v>244439200</v>
@@ -976,7 +976,7 @@
         <v>41.63000106811523</v>
       </c>
       <c r="F23" t="n">
-        <v>39.85195159912109</v>
+        <v>39.85194778442383</v>
       </c>
       <c r="G23" t="n">
         <v>130672400</v>
@@ -999,7 +999,7 @@
         <v>42.8125</v>
       </c>
       <c r="F24" t="n">
-        <v>40.98394393920898</v>
+        <v>40.98393630981445</v>
       </c>
       <c r="G24" t="n">
         <v>125982000</v>
@@ -1022,7 +1022,7 @@
         <v>43.54499816894531</v>
       </c>
       <c r="F25" t="n">
-        <v>41.68516540527344</v>
+        <v>41.68515396118164</v>
       </c>
       <c r="G25" t="n">
         <v>144406400</v>
@@ -1045,7 +1045,7 @@
         <v>43.56000137329102</v>
       </c>
       <c r="F26" t="n">
-        <v>41.69952392578125</v>
+        <v>41.69952011108398</v>
       </c>
       <c r="G26" t="n">
         <v>112958400</v>
@@ -1068,7 +1068,7 @@
         <v>42.73500061035156</v>
       </c>
       <c r="F27" t="n">
-        <v>40.90976715087891</v>
+        <v>40.90975952148438</v>
       </c>
       <c r="G27" t="n">
         <v>126966800</v>
@@ -1114,7 +1114,7 @@
         <v>42.35749816894531</v>
       </c>
       <c r="F29" t="n">
-        <v>40.72227096557617</v>
+        <v>40.72228240966797</v>
       </c>
       <c r="G29" t="n">
         <v>83973600</v>
@@ -1137,7 +1137,7 @@
         <v>42.72249984741211</v>
       </c>
       <c r="F30" t="n">
-        <v>41.07319259643555</v>
+        <v>41.07318496704102</v>
       </c>
       <c r="G30" t="n">
         <v>89134000</v>
@@ -1160,7 +1160,7 @@
         <v>42.54499816894531</v>
       </c>
       <c r="F31" t="n">
-        <v>40.90253829956055</v>
+        <v>40.90254592895508</v>
       </c>
       <c r="G31" t="n">
         <v>89960800</v>
@@ -1183,7 +1183,7 @@
         <v>42.70000076293945</v>
       </c>
       <c r="F32" t="n">
-        <v>41.05156707763672</v>
+        <v>41.05155944824219</v>
       </c>
       <c r="G32" t="n">
         <v>87342800</v>
@@ -1206,7 +1206,7 @@
         <v>42.60499954223633</v>
       </c>
       <c r="F33" t="n">
-        <v>40.96022796630859</v>
+        <v>40.96023178100586</v>
       </c>
       <c r="G33" t="n">
         <v>98507200</v>
@@ -1229,7 +1229,7 @@
         <v>42.73249816894531</v>
       </c>
       <c r="F34" t="n">
-        <v>41.08280563354492</v>
+        <v>41.08281326293945</v>
       </c>
       <c r="G34" t="n">
         <v>75891200</v>
@@ -1252,7 +1252,7 @@
         <v>43.00749969482422</v>
       </c>
       <c r="F35" t="n">
-        <v>41.34719848632812</v>
+        <v>41.34719085693359</v>
       </c>
       <c r="G35" t="n">
         <v>104457600</v>
@@ -1275,7 +1275,7 @@
         <v>42.76499938964844</v>
       </c>
       <c r="F36" t="n">
-        <v>41.11404418945312</v>
+        <v>41.11404800415039</v>
       </c>
       <c r="G36" t="n">
         <v>68998800</v>
@@ -1298,7 +1298,7 @@
         <v>43.24250030517578</v>
       </c>
       <c r="F37" t="n">
-        <v>41.57312393188477</v>
+        <v>41.5731201171875</v>
       </c>
       <c r="G37" t="n">
         <v>75652800</v>
@@ -1321,7 +1321,7 @@
         <v>43.55749893188477</v>
       </c>
       <c r="F38" t="n">
-        <v>41.87595367431641</v>
+        <v>41.87595748901367</v>
       </c>
       <c r="G38" t="n">
         <v>87493600</v>
@@ -1344,7 +1344,7 @@
         <v>43.58250045776367</v>
       </c>
       <c r="F39" t="n">
-        <v>41.89999008178711</v>
+        <v>41.89999389648438</v>
       </c>
       <c r="G39" t="n">
         <v>68280800</v>
@@ -1390,7 +1390,7 @@
         <v>43.28749847412109</v>
       </c>
       <c r="F41" t="n">
-        <v>41.61638259887695</v>
+        <v>41.61637496948242</v>
       </c>
       <c r="G41" t="n">
         <v>112861600</v>
@@ -1413,7 +1413,7 @@
         <v>43.74250030517578</v>
       </c>
       <c r="F42" t="n">
-        <v>42.0538215637207</v>
+        <v>42.05381393432617</v>
       </c>
       <c r="G42" t="n">
         <v>103544800</v>
@@ -1436,7 +1436,7 @@
         <v>43.96250152587891</v>
       </c>
       <c r="F43" t="n">
-        <v>42.26533126831055</v>
+        <v>42.26532363891602</v>
       </c>
       <c r="G43" t="n">
         <v>109744800</v>
@@ -1459,7 +1459,7 @@
         <v>43.88249969482422</v>
       </c>
       <c r="F44" t="n">
-        <v>42.18841171264648</v>
+        <v>42.18840026855469</v>
       </c>
       <c r="G44" t="n">
         <v>78949600</v>
@@ -1482,7 +1482,7 @@
         <v>43.63000106811523</v>
       </c>
       <c r="F45" t="n">
-        <v>41.94566345214844</v>
+        <v>41.9456672668457</v>
       </c>
       <c r="G45" t="n">
         <v>83241600</v>
@@ -1505,7 +1505,7 @@
         <v>43.125</v>
       </c>
       <c r="F46" t="n">
-        <v>41.46016311645508</v>
+        <v>41.46014785766602</v>
       </c>
       <c r="G46" t="n">
         <v>99185600</v>
@@ -1528,7 +1528,7 @@
         <v>43.22750091552734</v>
       </c>
       <c r="F47" t="n">
-        <v>41.55870056152344</v>
+        <v>41.55869674682617</v>
       </c>
       <c r="G47" t="n">
         <v>95997600</v>
@@ -1551,7 +1551,7 @@
         <v>44.72499847412109</v>
       </c>
       <c r="F48" t="n">
-        <v>42.99838638305664</v>
+        <v>42.99837493896484</v>
       </c>
       <c r="G48" t="n">
         <v>128044000</v>
@@ -1574,7 +1574,7 @@
         <v>45.22750091552734</v>
       </c>
       <c r="F49" t="n">
-        <v>43.48149490356445</v>
+        <v>43.48149108886719</v>
       </c>
       <c r="G49" t="n">
         <v>129870400</v>
@@ -1597,7 +1597,7 @@
         <v>45.4275016784668</v>
       </c>
       <c r="F50" t="n">
-        <v>43.67376708984375</v>
+        <v>43.67377090454102</v>
       </c>
       <c r="G50" t="n">
         <v>124130000</v>
@@ -1620,7 +1620,7 @@
         <v>45.93249893188477</v>
       </c>
       <c r="F51" t="n">
-        <v>44.15926361083984</v>
+        <v>44.15926742553711</v>
       </c>
       <c r="G51" t="n">
         <v>94318000</v>
@@ -1643,7 +1643,7 @@
         <v>46.52999877929688</v>
       </c>
       <c r="F52" t="n">
-        <v>44.73369979858398</v>
+        <v>44.73370742797852</v>
       </c>
       <c r="G52" t="n">
         <v>156171600</v>
@@ -1666,7 +1666,7 @@
         <v>47.00500106811523</v>
       </c>
       <c r="F53" t="n">
-        <v>45.19036102294922</v>
+        <v>45.19037246704102</v>
       </c>
       <c r="G53" t="n">
         <v>104879200</v>
@@ -1689,7 +1689,7 @@
         <v>46.63249969482422</v>
       </c>
       <c r="F54" t="n">
-        <v>44.83224105834961</v>
+        <v>44.83224487304688</v>
       </c>
       <c r="G54" t="n">
         <v>126585600</v>
@@ -1712,7 +1712,7 @@
         <v>47.04000091552734</v>
       </c>
       <c r="F55" t="n">
-        <v>45.22401809692383</v>
+        <v>45.2240104675293</v>
       </c>
       <c r="G55" t="n">
         <v>124140800</v>
@@ -1735,7 +1735,7 @@
         <v>48.77249908447266</v>
       </c>
       <c r="F56" t="n">
-        <v>46.88962936401367</v>
+        <v>46.88963317871094</v>
       </c>
       <c r="G56" t="n">
         <v>204136800</v>
@@ -1758,7 +1758,7 @@
         <v>47.76250076293945</v>
       </c>
       <c r="F57" t="n">
-        <v>45.91862487792969</v>
+        <v>45.91862869262695</v>
       </c>
       <c r="G57" t="n">
         <v>169630800</v>
@@ -1781,7 +1781,7 @@
         <v>47.18500137329102</v>
       </c>
       <c r="F58" t="n">
-        <v>45.36340713500977</v>
+        <v>45.3634147644043</v>
       </c>
       <c r="G58" t="n">
         <v>175381200</v>
@@ -1804,7 +1804,7 @@
         <v>46.6974983215332</v>
       </c>
       <c r="F59" t="n">
-        <v>44.89472579956055</v>
+        <v>44.89473724365234</v>
       </c>
       <c r="G59" t="n">
         <v>199202000</v>
@@ -1827,7 +1827,7 @@
         <v>47.11750030517578</v>
       </c>
       <c r="F60" t="n">
-        <v>45.29852294921875</v>
+        <v>45.29851913452148</v>
       </c>
       <c r="G60" t="n">
         <v>119393600</v>
@@ -1850,7 +1850,7 @@
         <v>47.18000030517578</v>
       </c>
       <c r="F61" t="n">
-        <v>45.35860443115234</v>
+        <v>45.35860824584961</v>
       </c>
       <c r="G61" t="n">
         <v>83121600</v>
@@ -1873,7 +1873,7 @@
         <v>47.48749923706055</v>
       </c>
       <c r="F62" t="n">
-        <v>45.65423965454102</v>
+        <v>45.65423583984375</v>
       </c>
       <c r="G62" t="n">
         <v>94256000</v>
@@ -1919,7 +1919,7 @@
         <v>48.50500106811523</v>
       </c>
       <c r="F64" t="n">
-        <v>46.6324577331543</v>
+        <v>46.63246154785156</v>
       </c>
       <c r="G64" t="n">
         <v>91062800</v>
@@ -1942,7 +1942,7 @@
         <v>48.83750152587891</v>
       </c>
       <c r="F65" t="n">
-        <v>46.95212554931641</v>
+        <v>46.95213317871094</v>
       </c>
       <c r="G65" t="n">
         <v>93087200</v>
@@ -2011,7 +2011,7 @@
         <v>50.02500152587891</v>
       </c>
       <c r="F68" t="n">
-        <v>48.09378051757812</v>
+        <v>48.09378433227539</v>
       </c>
       <c r="G68" t="n">
         <v>103526800</v>
@@ -2034,7 +2034,7 @@
         <v>49.875</v>
       </c>
       <c r="F69" t="n">
-        <v>47.94956207275391</v>
+        <v>47.94956970214844</v>
       </c>
       <c r="G69" t="n">
         <v>143072800</v>
@@ -2057,7 +2057,7 @@
         <v>50.15499877929688</v>
       </c>
       <c r="F70" t="n">
-        <v>48.21876525878906</v>
+        <v>48.2187614440918</v>
       </c>
       <c r="G70" t="n">
         <v>86781200</v>
@@ -2126,7 +2126,7 @@
         <v>49.80749893188477</v>
       </c>
       <c r="F73" t="n">
-        <v>47.88468170166016</v>
+        <v>47.88467788696289</v>
       </c>
       <c r="G73" t="n">
         <v>70146400</v>
@@ -2149,7 +2149,7 @@
         <v>49.8125</v>
       </c>
       <c r="F74" t="n">
-        <v>47.88948822021484</v>
+        <v>47.88947677612305</v>
       </c>
       <c r="G74" t="n">
         <v>102785600</v>
@@ -2172,7 +2172,7 @@
         <v>50.78250122070312</v>
       </c>
       <c r="F75" t="n">
-        <v>48.82203674316406</v>
+        <v>48.82204055786133</v>
       </c>
       <c r="G75" t="n">
         <v>115627200</v>
@@ -2195,7 +2195,7 @@
         <v>50.96500015258789</v>
       </c>
       <c r="F76" t="n">
-        <v>48.99749374389648</v>
+        <v>48.99747848510742</v>
       </c>
       <c r="G76" t="n">
         <v>96783200</v>
@@ -2218,7 +2218,7 @@
         <v>51.13249969482422</v>
       </c>
       <c r="F77" t="n">
-        <v>49.15851974487305</v>
+        <v>49.15852355957031</v>
       </c>
       <c r="G77" t="n">
         <v>77758000</v>
@@ -2241,7 +2241,7 @@
         <v>51.86999893188477</v>
       </c>
       <c r="F78" t="n">
-        <v>49.8675537109375</v>
+        <v>49.86754608154297</v>
       </c>
       <c r="G78" t="n">
         <v>93292000</v>
@@ -2264,7 +2264,7 @@
         <v>51.79000091552734</v>
       </c>
       <c r="F79" t="n">
-        <v>49.79064178466797</v>
+        <v>49.79064559936523</v>
       </c>
       <c r="G79" t="n">
         <v>70162400</v>
@@ -2287,7 +2287,7 @@
         <v>51.31999969482422</v>
       </c>
       <c r="F80" t="n">
-        <v>49.33877944946289</v>
+        <v>49.33878326416016</v>
       </c>
       <c r="G80" t="n">
         <v>74172800</v>
@@ -2333,7 +2333,7 @@
         <v>51.15250015258789</v>
       </c>
       <c r="F82" t="n">
-        <v>49.1777458190918</v>
+        <v>49.17774200439453</v>
       </c>
       <c r="G82" t="n">
         <v>88818800</v>
@@ -2379,7 +2379,7 @@
         <v>52.63000106811523</v>
       </c>
       <c r="F84" t="n">
-        <v>50.59821701049805</v>
+        <v>50.59820938110352</v>
       </c>
       <c r="G84" t="n">
         <v>259309200</v>
@@ -2402,7 +2402,7 @@
         <v>52.28749847412109</v>
       </c>
       <c r="F85" t="n">
-        <v>50.26893997192383</v>
+        <v>50.26893615722656</v>
       </c>
       <c r="G85" t="n">
         <v>127985200</v>
@@ -2471,7 +2471,7 @@
         <v>50.71500015258789</v>
       </c>
       <c r="F88" t="n">
-        <v>48.75713729858398</v>
+        <v>48.75714492797852</v>
       </c>
       <c r="G88" t="n">
         <v>155054800</v>
@@ -2517,7 +2517,7 @@
         <v>50.18000030517578</v>
       </c>
       <c r="F90" t="n">
-        <v>48.24279403686523</v>
+        <v>48.24280166625977</v>
       </c>
       <c r="G90" t="n">
         <v>139634400</v>
@@ -2563,7 +2563,7 @@
         <v>46.43000030517578</v>
       </c>
       <c r="F92" t="n">
-        <v>44.80945587158203</v>
+        <v>44.80946350097656</v>
       </c>
       <c r="G92" t="n">
         <v>229722400</v>
@@ -2586,7 +2586,7 @@
         <v>47.16500091552734</v>
       </c>
       <c r="F93" t="n">
-        <v>45.51880645751953</v>
+        <v>45.51881790161133</v>
       </c>
       <c r="G93" t="n">
         <v>146118800</v>
@@ -2632,7 +2632,7 @@
         <v>47.52000045776367</v>
       </c>
       <c r="F95" t="n">
-        <v>45.86142349243164</v>
+        <v>45.86142730712891</v>
       </c>
       <c r="G95" t="n">
         <v>132125600</v>
@@ -2655,7 +2655,7 @@
         <v>47.25</v>
       </c>
       <c r="F96" t="n">
-        <v>45.60083389282227</v>
+        <v>45.60084915161133</v>
       </c>
       <c r="G96" t="n">
         <v>131516400</v>
@@ -2678,7 +2678,7 @@
         <v>45.77249908447266</v>
       </c>
       <c r="F97" t="n">
-        <v>44.17490768432617</v>
+        <v>44.17491149902344</v>
       </c>
       <c r="G97" t="n">
         <v>154449200</v>
@@ -2701,7 +2701,7 @@
         <v>46.65000152587891</v>
       </c>
       <c r="F98" t="n">
-        <v>45.02178573608398</v>
+        <v>45.02179336547852</v>
       </c>
       <c r="G98" t="n">
         <v>113459200</v>
@@ -2747,7 +2747,7 @@
         <v>44.91500091552734</v>
       </c>
       <c r="F100" t="n">
-        <v>43.34734725952148</v>
+        <v>43.34733581542969</v>
       </c>
       <c r="G100" t="n">
         <v>146118800</v>
@@ -2770,7 +2770,7 @@
         <v>44.74250030517578</v>
       </c>
       <c r="F101" t="n">
-        <v>43.18085861206055</v>
+        <v>43.18086242675781</v>
       </c>
       <c r="G101" t="n">
         <v>94858800</v>
@@ -2793,7 +2793,7 @@
         <v>44.55749893188477</v>
       </c>
       <c r="F102" t="n">
-        <v>43.0023193359375</v>
+        <v>43.00231552124023</v>
       </c>
       <c r="G102" t="n">
         <v>111792800</v>
@@ -2816,7 +2816,7 @@
         <v>44.34500122070312</v>
       </c>
       <c r="F103" t="n">
-        <v>42.79723358154297</v>
+        <v>42.79724502563477</v>
       </c>
       <c r="G103" t="n">
         <v>113924800</v>
@@ -2885,7 +2885,7 @@
         <v>43.32500076293945</v>
       </c>
       <c r="F106" t="n">
-        <v>41.81284713745117</v>
+        <v>41.81284332275391</v>
       </c>
       <c r="G106" t="n">
         <v>161584400</v>
@@ -2908,7 +2908,7 @@
         <v>44.90999984741211</v>
       </c>
       <c r="F107" t="n">
-        <v>43.3425178527832</v>
+        <v>43.34251403808594</v>
       </c>
       <c r="G107" t="n">
         <v>123872000</v>
@@ -2931,7 +2931,7 @@
         <v>45.6349983215332</v>
       </c>
       <c r="F108" t="n">
-        <v>44.04220581054688</v>
+        <v>44.04220962524414</v>
       </c>
       <c r="G108" t="n">
         <v>119093600</v>
@@ -2954,7 +2954,7 @@
         <v>46.30500030517578</v>
       </c>
       <c r="F109" t="n">
-        <v>44.68881225585938</v>
+        <v>44.68882751464844</v>
       </c>
       <c r="G109" t="n">
         <v>90105200</v>
@@ -2977,7 +2977,7 @@
         <v>47.53749847412109</v>
       </c>
       <c r="F110" t="n">
-        <v>45.87830352783203</v>
+        <v>45.8783073425293</v>
       </c>
       <c r="G110" t="n">
         <v>122737600</v>
@@ -3046,7 +3046,7 @@
         <v>48.54750061035156</v>
       </c>
       <c r="F113" t="n">
-        <v>46.85305023193359</v>
+        <v>46.85306167602539</v>
       </c>
       <c r="G113" t="n">
         <v>73012800</v>
@@ -3069,7 +3069,7 @@
         <v>48.53749847412109</v>
       </c>
       <c r="F114" t="n">
-        <v>46.84340667724609</v>
+        <v>46.84339904785156</v>
       </c>
       <c r="G114" t="n">
         <v>86698400</v>
@@ -3092,7 +3092,7 @@
         <v>48.18500137329102</v>
       </c>
       <c r="F115" t="n">
-        <v>46.50321578979492</v>
+        <v>46.50320434570312</v>
       </c>
       <c r="G115" t="n">
         <v>75046000</v>
@@ -3115,7 +3115,7 @@
         <v>48.47249984741211</v>
       </c>
       <c r="F116" t="n">
-        <v>46.78067016601562</v>
+        <v>46.78067398071289</v>
       </c>
       <c r="G116" t="n">
         <v>58676400</v>
@@ -3138,7 +3138,7 @@
         <v>49.61249923706055</v>
       </c>
       <c r="F117" t="n">
-        <v>47.88087463378906</v>
+        <v>47.88088607788086</v>
       </c>
       <c r="G117" t="n">
         <v>106204000</v>
@@ -3184,7 +3184,7 @@
         <v>49.8650016784668</v>
       </c>
       <c r="F119" t="n">
-        <v>48.12458038330078</v>
+        <v>48.12457656860352</v>
       </c>
       <c r="G119" t="n">
         <v>86056000</v>
@@ -3207,7 +3207,7 @@
         <v>49.69499969482422</v>
       </c>
       <c r="F120" t="n">
-        <v>47.96051025390625</v>
+        <v>47.96050262451172</v>
       </c>
       <c r="G120" t="n">
         <v>191202400</v>
@@ -3230,7 +3230,7 @@
         <v>49.64500045776367</v>
       </c>
       <c r="F121" t="n">
-        <v>47.91225814819336</v>
+        <v>47.91225433349609</v>
       </c>
       <c r="G121" t="n">
         <v>72881600</v>
@@ -3253,7 +3253,7 @@
         <v>48.89250183105469</v>
       </c>
       <c r="F122" t="n">
-        <v>47.18601226806641</v>
+        <v>47.18601608276367</v>
       </c>
       <c r="G122" t="n">
         <v>84281200</v>
@@ -3276,7 +3276,7 @@
         <v>49.95000076293945</v>
       </c>
       <c r="F123" t="n">
-        <v>48.20660781860352</v>
+        <v>48.20659637451172</v>
       </c>
       <c r="G123" t="n">
         <v>104270000</v>
@@ -3299,7 +3299,7 @@
         <v>49.93500137329102</v>
       </c>
       <c r="F124" t="n">
-        <v>48.1921272277832</v>
+        <v>48.19213104248047</v>
       </c>
       <c r="G124" t="n">
         <v>83598800</v>
@@ -3322,7 +3322,7 @@
         <v>49.47999954223633</v>
       </c>
       <c r="F125" t="n">
-        <v>47.75300598144531</v>
+        <v>47.75302124023438</v>
       </c>
       <c r="G125" t="n">
         <v>124442400</v>
@@ -3345,7 +3345,7 @@
         <v>50.38750076293945</v>
       </c>
       <c r="F126" t="n">
-        <v>48.62883758544922</v>
+        <v>48.62884140014648</v>
       </c>
       <c r="G126" t="n">
         <v>109012000</v>
@@ -3368,7 +3368,7 @@
         <v>50.68249893188477</v>
       </c>
       <c r="F127" t="n">
-        <v>48.91353225708008</v>
+        <v>48.91353988647461</v>
       </c>
       <c r="G127" t="n">
         <v>67740800</v>
@@ -3391,7 +3391,7 @@
         <v>51.10250091552734</v>
       </c>
       <c r="F128" t="n">
-        <v>49.31887435913086</v>
+        <v>49.31888198852539</v>
       </c>
       <c r="G128" t="n">
         <v>45448000</v>
@@ -3414,7 +3414,7 @@
         <v>51.05749893188477</v>
       </c>
       <c r="F129" t="n">
-        <v>49.27545547485352</v>
+        <v>49.27545166015625</v>
       </c>
       <c r="G129" t="n">
         <v>69062000</v>
@@ -3483,7 +3483,7 @@
         <v>50.80749893188477</v>
       </c>
       <c r="F132" t="n">
-        <v>49.03417587280273</v>
+        <v>49.03417205810547</v>
       </c>
       <c r="G132" t="n">
         <v>71588400</v>
@@ -3529,7 +3529,7 @@
         <v>50.82500076293945</v>
       </c>
       <c r="F134" t="n">
-        <v>49.05107116699219</v>
+        <v>49.05106353759766</v>
       </c>
       <c r="G134" t="n">
         <v>70380800</v>
@@ -3552,7 +3552,7 @@
         <v>51.3025016784668</v>
       </c>
       <c r="F135" t="n">
-        <v>49.51190948486328</v>
+        <v>49.51189804077148</v>
       </c>
       <c r="G135" t="n">
         <v>67789600</v>
@@ -3598,7 +3598,7 @@
         <v>50.83750152587891</v>
       </c>
       <c r="F137" t="n">
-        <v>49.06312561035156</v>
+        <v>49.06312942504883</v>
       </c>
       <c r="G137" t="n">
         <v>56430000</v>
@@ -3644,7 +3644,7 @@
         <v>50.64749908447266</v>
       </c>
       <c r="F139" t="n">
-        <v>48.87975692749023</v>
+        <v>48.8797607421875</v>
       </c>
       <c r="G139" t="n">
         <v>83717200</v>
@@ -3667,7 +3667,7 @@
         <v>51.80500030517578</v>
       </c>
       <c r="F140" t="n">
-        <v>49.99686050415039</v>
+        <v>49.99686431884766</v>
       </c>
       <c r="G140" t="n">
         <v>89111600</v>
@@ -3690,7 +3690,7 @@
         <v>52.20999908447266</v>
       </c>
       <c r="F141" t="n">
-        <v>50.38772201538086</v>
+        <v>50.38772583007812</v>
       </c>
       <c r="G141" t="n">
         <v>73420800</v>
@@ -3713,7 +3713,7 @@
         <v>52.16749954223633</v>
       </c>
       <c r="F142" t="n">
-        <v>50.34671020507812</v>
+        <v>50.34670257568359</v>
       </c>
       <c r="G142" t="n">
         <v>59966400</v>
@@ -3736,7 +3736,7 @@
         <v>51.75500106811523</v>
       </c>
       <c r="F143" t="n">
-        <v>49.94861602783203</v>
+        <v>49.9486083984375</v>
       </c>
       <c r="G143" t="n">
         <v>55638400</v>
@@ -3759,7 +3759,7 @@
         <v>51.93500137329102</v>
       </c>
       <c r="F144" t="n">
-        <v>50.1223258972168</v>
+        <v>50.12232208251953</v>
       </c>
       <c r="G144" t="n">
         <v>70475600</v>
@@ -3828,7 +3828,7 @@
         <v>53.2599983215332</v>
       </c>
       <c r="F147" t="n">
-        <v>51.40107345581055</v>
+        <v>51.40108108520508</v>
       </c>
       <c r="G147" t="n">
         <v>277125600</v>
@@ -3851,7 +3851,7 @@
         <v>52.10749816894531</v>
       </c>
       <c r="F148" t="n">
-        <v>50.2888069152832</v>
+        <v>50.28880310058594</v>
       </c>
       <c r="G148" t="n">
         <v>216071600</v>
@@ -3874,7 +3874,7 @@
         <v>51.00500106811523</v>
       </c>
       <c r="F149" t="n">
-        <v>49.22477722167969</v>
+        <v>49.22478485107422</v>
       </c>
       <c r="G149" t="n">
         <v>163448400</v>
@@ -3897,7 +3897,7 @@
         <v>48.33499908447266</v>
       </c>
       <c r="F150" t="n">
-        <v>46.64796447753906</v>
+        <v>46.64797210693359</v>
       </c>
       <c r="G150" t="n">
         <v>209572000</v>
@@ -3920,7 +3920,7 @@
         <v>49.25</v>
       </c>
       <c r="F151" t="n">
-        <v>47.53103256225586</v>
+        <v>47.53103637695312</v>
       </c>
       <c r="G151" t="n">
         <v>143299200</v>
@@ -3966,7 +3966,7 @@
         <v>50.85749816894531</v>
       </c>
       <c r="F153" t="n">
-        <v>49.08242416381836</v>
+        <v>49.08243560791016</v>
       </c>
       <c r="G153" t="n">
         <v>108038000</v>
@@ -3989,7 +3989,7 @@
         <v>50.24750137329102</v>
       </c>
       <c r="F154" t="n">
-        <v>48.677978515625</v>
+        <v>48.67797470092773</v>
       </c>
       <c r="G154" t="n">
         <v>98478800</v>
@@ -4012,7 +4012,7 @@
         <v>50.11999893188477</v>
       </c>
       <c r="F155" t="n">
-        <v>48.5544548034668</v>
+        <v>48.55444717407227</v>
       </c>
       <c r="G155" t="n">
         <v>89927600</v>
@@ -4035,7 +4035,7 @@
         <v>52.24250030517578</v>
       </c>
       <c r="F156" t="n">
-        <v>50.61065292358398</v>
+        <v>50.61066055297852</v>
       </c>
       <c r="G156" t="n">
         <v>188874000</v>
@@ -4081,7 +4081,7 @@
         <v>50.43500137329102</v>
       </c>
       <c r="F158" t="n">
-        <v>48.8596076965332</v>
+        <v>48.85961532592773</v>
       </c>
       <c r="G158" t="n">
         <v>108909600</v>
@@ -4104,7 +4104,7 @@
         <v>51.625</v>
       </c>
       <c r="F159" t="n">
-        <v>50.0124397277832</v>
+        <v>50.01244354248047</v>
       </c>
       <c r="G159" t="n">
         <v>110481600</v>
@@ -4127,7 +4127,7 @@
         <v>52.58750152587891</v>
       </c>
       <c r="F160" t="n">
-        <v>50.94487762451172</v>
+        <v>50.94488906860352</v>
       </c>
       <c r="G160" t="n">
         <v>97654400</v>
@@ -4150,7 +4150,7 @@
         <v>52.59000015258789</v>
       </c>
       <c r="F161" t="n">
-        <v>50.94729614257812</v>
+        <v>50.94730377197266</v>
       </c>
       <c r="G161" t="n">
         <v>107537200</v>
@@ -4173,7 +4173,7 @@
         <v>53.15999984741211</v>
       </c>
       <c r="F162" t="n">
-        <v>51.4995002746582</v>
+        <v>51.49950790405273</v>
       </c>
       <c r="G162" t="n">
         <v>86141600</v>
@@ -4219,7 +4219,7 @@
         <v>50.65999984741211</v>
       </c>
       <c r="F164" t="n">
-        <v>49.07758712768555</v>
+        <v>49.07758331298828</v>
       </c>
       <c r="G164" t="n">
         <v>187272000</v>
@@ -4242,7 +4242,7 @@
         <v>51.62250137329102</v>
       </c>
       <c r="F165" t="n">
-        <v>50.0100212097168</v>
+        <v>50.01002502441406</v>
       </c>
       <c r="G165" t="n">
         <v>104174400</v>
@@ -4265,7 +4265,7 @@
         <v>51.04000091552734</v>
       </c>
       <c r="F166" t="n">
-        <v>49.44571304321289</v>
+        <v>49.44571685791016</v>
       </c>
       <c r="G166" t="n">
         <v>103493200</v>
@@ -4288,7 +4288,7 @@
         <v>51.38249969482422</v>
       </c>
       <c r="F167" t="n">
-        <v>49.77751922607422</v>
+        <v>49.77752304077148</v>
       </c>
       <c r="G167" t="n">
         <v>63755200</v>
@@ -4311,7 +4311,7 @@
         <v>52.25249862670898</v>
       </c>
       <c r="F168" t="n">
-        <v>50.62033843994141</v>
+        <v>50.62034225463867</v>
       </c>
       <c r="G168" t="n">
         <v>83962000</v>
@@ -4334,7 +4334,7 @@
         <v>52.18500137329102</v>
       </c>
       <c r="F169" t="n">
-        <v>50.55496597290039</v>
+        <v>50.55495452880859</v>
       </c>
       <c r="G169" t="n">
         <v>84573600</v>
@@ -4357,7 +4357,7 @@
         <v>51.42499923706055</v>
       </c>
       <c r="F170" t="n">
-        <v>49.81869125366211</v>
+        <v>49.81868743896484</v>
       </c>
       <c r="G170" t="n">
         <v>80092000</v>
@@ -4380,7 +4380,7 @@
         <v>52.29750061035156</v>
       </c>
       <c r="F171" t="n">
-        <v>50.66394424438477</v>
+        <v>50.66393280029297</v>
       </c>
       <c r="G171" t="n">
         <v>76752400</v>
@@ -4403,7 +4403,7 @@
         <v>53.31999969482422</v>
       </c>
       <c r="F172" t="n">
-        <v>51.65449905395508</v>
+        <v>51.65450668334961</v>
       </c>
       <c r="G172" t="n">
         <v>95654800</v>
@@ -4426,7 +4426,7 @@
         <v>53.31499862670898</v>
       </c>
       <c r="F173" t="n">
-        <v>51.64965438842773</v>
+        <v>51.649658203125</v>
       </c>
       <c r="G173" t="n">
         <v>77449200</v>
@@ -4472,7 +4472,7 @@
         <v>54.17499923706055</v>
       </c>
       <c r="F175" t="n">
-        <v>52.48279571533203</v>
+        <v>52.48278427124023</v>
       </c>
       <c r="G175" t="n">
         <v>127111600</v>
@@ -4495,7 +4495,7 @@
         <v>55.89749908447266</v>
       </c>
       <c r="F176" t="n">
-        <v>54.15148162841797</v>
+        <v>54.15148544311523</v>
       </c>
       <c r="G176" t="n">
         <v>177158400</v>
@@ -4518,7 +4518,7 @@
         <v>55.77249908447266</v>
       </c>
       <c r="F177" t="n">
-        <v>54.0303955078125</v>
+        <v>54.0303840637207</v>
       </c>
       <c r="G177" t="n">
         <v>128906800</v>
@@ -4541,7 +4541,7 @@
         <v>54.6875</v>
       </c>
       <c r="F178" t="n">
-        <v>52.97929000854492</v>
+        <v>52.97928237915039</v>
       </c>
       <c r="G178" t="n">
         <v>159053200</v>
@@ -4564,7 +4564,7 @@
         <v>54.97499847412109</v>
       </c>
       <c r="F179" t="n">
-        <v>53.25779724121094</v>
+        <v>53.25780487060547</v>
       </c>
       <c r="G179" t="n">
         <v>84632400</v>
@@ -4587,7 +4587,7 @@
         <v>55.17499923706055</v>
       </c>
       <c r="F180" t="n">
-        <v>53.45155715942383</v>
+        <v>53.45156478881836</v>
       </c>
       <c r="G180" t="n">
         <v>73274800</v>
@@ -4610,7 +4610,7 @@
         <v>55.69250106811523</v>
       </c>
       <c r="F181" t="n">
-        <v>53.95289611816406</v>
+        <v>53.95289993286133</v>
       </c>
       <c r="G181" t="n">
         <v>101360000</v>
@@ -4633,7 +4633,7 @@
         <v>55.2400016784668</v>
       </c>
       <c r="F182" t="n">
-        <v>53.51454162597656</v>
+        <v>53.5145263671875</v>
       </c>
       <c r="G182" t="n">
         <v>88242400</v>
@@ -4679,7 +4679,7 @@
         <v>54.68000030517578</v>
       </c>
       <c r="F184" t="n">
-        <v>52.97202682495117</v>
+        <v>52.97201538085938</v>
       </c>
       <c r="G184" t="n">
         <v>76662000</v>
@@ -4702,7 +4702,7 @@
         <v>54.41999816894531</v>
       </c>
       <c r="F185" t="n">
-        <v>52.72013473510742</v>
+        <v>52.72013854980469</v>
       </c>
       <c r="G185" t="n">
         <v>124763200</v>
@@ -4725,7 +4725,7 @@
         <v>55.25749969482422</v>
       </c>
       <c r="F186" t="n">
-        <v>53.5314826965332</v>
+        <v>53.53147888183594</v>
       </c>
       <c r="G186" t="n">
         <v>87613600</v>
@@ -4771,7 +4771,7 @@
         <v>54.70500183105469</v>
       </c>
       <c r="F188" t="n">
-        <v>52.99623870849609</v>
+        <v>52.99623489379883</v>
       </c>
       <c r="G188" t="n">
         <v>101408000</v>
@@ -4794,7 +4794,7 @@
         <v>55.99250030517578</v>
       </c>
       <c r="F189" t="n">
-        <v>54.2435188293457</v>
+        <v>54.24352264404297</v>
       </c>
       <c r="G189" t="n">
         <v>103909600</v>
@@ -4817,7 +4817,7 @@
         <v>56.14749908447266</v>
       </c>
       <c r="F190" t="n">
-        <v>54.39367294311523</v>
+        <v>54.3936767578125</v>
       </c>
       <c r="G190" t="n">
         <v>139223200</v>
@@ -4863,7 +4863,7 @@
         <v>55.20500183105469</v>
       </c>
       <c r="F192" t="n">
-        <v>53.48061752319336</v>
+        <v>53.48062133789062</v>
       </c>
       <c r="G192" t="n">
         <v>114426000</v>
@@ -4886,7 +4886,7 @@
         <v>56.75249862670898</v>
       </c>
       <c r="F193" t="n">
-        <v>54.97977828979492</v>
+        <v>54.97978591918945</v>
       </c>
       <c r="G193" t="n">
         <v>138478800</v>
@@ -4932,7 +4932,7 @@
         <v>56.09999847412109</v>
       </c>
       <c r="F195" t="n">
-        <v>54.3476676940918</v>
+        <v>54.34766006469727</v>
       </c>
       <c r="G195" t="n">
         <v>111820000</v>
@@ -4978,7 +4978,7 @@
         <v>57.52249908447266</v>
       </c>
       <c r="F197" t="n">
-        <v>55.72573089599609</v>
+        <v>55.72572708129883</v>
       </c>
       <c r="G197" t="n">
         <v>113013600</v>
@@ -5001,7 +5001,7 @@
         <v>59.0525016784668</v>
       </c>
       <c r="F198" t="n">
-        <v>57.20793533325195</v>
+        <v>57.20794296264648</v>
       </c>
       <c r="G198" t="n">
         <v>166795600</v>
@@ -5024,7 +5024,7 @@
         <v>58.96749877929688</v>
       </c>
       <c r="F199" t="n">
-        <v>57.12559127807617</v>
+        <v>57.1255989074707</v>
       </c>
       <c r="G199" t="n">
         <v>96427600</v>
@@ -5070,7 +5070,7 @@
         <v>58.59249877929688</v>
       </c>
       <c r="F201" t="n">
-        <v>56.76230621337891</v>
+        <v>56.76230239868164</v>
       </c>
       <c r="G201" t="n">
         <v>73903200</v>
@@ -5093,7 +5093,7 @@
         <v>58.81999969482422</v>
       </c>
       <c r="F202" t="n">
-        <v>56.98270034790039</v>
+        <v>56.98270416259766</v>
       </c>
       <c r="G202" t="n">
         <v>67585200</v>
@@ -5139,7 +5139,7 @@
         <v>60.12749862670898</v>
       </c>
       <c r="F204" t="n">
-        <v>58.24935150146484</v>
+        <v>58.24935531616211</v>
       </c>
       <c r="G204" t="n">
         <v>87247200</v>
@@ -5185,7 +5185,7 @@
         <v>60.79499816894531</v>
       </c>
       <c r="F206" t="n">
-        <v>58.8960075378418</v>
+        <v>58.89601135253906</v>
       </c>
       <c r="G206" t="n">
         <v>75828800</v>
@@ -5208,7 +5208,7 @@
         <v>60.89500045776367</v>
       </c>
       <c r="F207" t="n">
-        <v>58.99289703369141</v>
+        <v>58.99288558959961</v>
       </c>
       <c r="G207" t="n">
         <v>69275200</v>
@@ -5254,7 +5254,7 @@
         <v>62.26250076293945</v>
       </c>
       <c r="F209" t="n">
-        <v>60.31766510009766</v>
+        <v>60.31767272949219</v>
       </c>
       <c r="G209" t="n">
         <v>96572800</v>
@@ -5277,7 +5277,7 @@
         <v>60.8224983215332</v>
       </c>
       <c r="F210" t="n">
-        <v>58.92265319824219</v>
+        <v>58.92264556884766</v>
       </c>
       <c r="G210" t="n">
         <v>142839600</v>
@@ -5300,7 +5300,7 @@
         <v>60.81499862670898</v>
       </c>
       <c r="F211" t="n">
-        <v>58.91539001464844</v>
+        <v>58.91537857055664</v>
       </c>
       <c r="G211" t="n">
         <v>124522000</v>
@@ -5323,7 +5323,7 @@
         <v>62.18999862670898</v>
       </c>
       <c r="F212" t="n">
-        <v>60.2474365234375</v>
+        <v>60.24743270874023</v>
       </c>
       <c r="G212" t="n">
         <v>139162000</v>
@@ -5346,7 +5346,7 @@
         <v>63.95500183105469</v>
       </c>
       <c r="F213" t="n">
-        <v>61.95730209350586</v>
+        <v>61.95730972290039</v>
       </c>
       <c r="G213" t="n">
         <v>151125200</v>
@@ -5369,7 +5369,7 @@
         <v>64.375</v>
       </c>
       <c r="F214" t="n">
-        <v>62.36418533325195</v>
+        <v>62.36418151855469</v>
       </c>
       <c r="G214" t="n">
         <v>103272000</v>
@@ -5392,7 +5392,7 @@
         <v>64.28250122070312</v>
       </c>
       <c r="F215" t="n">
-        <v>62.27458190917969</v>
+        <v>62.27457046508789</v>
       </c>
       <c r="G215" t="n">
         <v>79897600</v>
@@ -5415,7 +5415,7 @@
         <v>64.30999755859375</v>
       </c>
       <c r="F216" t="n">
-        <v>62.30121994018555</v>
+        <v>62.30120849609375</v>
       </c>
       <c r="G216" t="n">
         <v>75864400</v>
@@ -5438,7 +5438,7 @@
         <v>64.85749816894531</v>
       </c>
       <c r="F217" t="n">
-        <v>63.02025985717773</v>
+        <v>63.02024841308594</v>
       </c>
       <c r="G217" t="n">
         <v>94940400</v>
@@ -5461,7 +5461,7 @@
         <v>65.03500366210938</v>
       </c>
       <c r="F218" t="n">
-        <v>63.19271087646484</v>
+        <v>63.19272994995117</v>
       </c>
       <c r="G218" t="n">
         <v>69986400</v>
@@ -5484,7 +5484,7 @@
         <v>65.55000305175781</v>
       </c>
       <c r="F219" t="n">
-        <v>63.69313049316406</v>
+        <v>63.69313812255859</v>
       </c>
       <c r="G219" t="n">
         <v>81821200</v>
@@ -5507,7 +5507,7 @@
         <v>65.48999786376953</v>
       </c>
       <c r="F220" t="n">
-        <v>63.63483810424805</v>
+        <v>63.63484191894531</v>
       </c>
       <c r="G220" t="n">
         <v>87388800</v>
@@ -5553,7 +5553,7 @@
         <v>65.66000366210938</v>
       </c>
       <c r="F222" t="n">
-        <v>63.80001831054688</v>
+        <v>63.8000373840332</v>
       </c>
       <c r="G222" t="n">
         <v>89182800</v>
@@ -5576,7 +5576,7 @@
         <v>66.44000244140625</v>
       </c>
       <c r="F223" t="n">
-        <v>64.55792999267578</v>
+        <v>64.55791473388672</v>
       </c>
       <c r="G223" t="n">
         <v>100206400</v>
@@ -5599,7 +5599,7 @@
         <v>66.77500152587891</v>
       </c>
       <c r="F224" t="n">
-        <v>64.8834228515625</v>
+        <v>64.88343811035156</v>
       </c>
       <c r="G224" t="n">
         <v>86703200</v>
@@ -5622,7 +5622,7 @@
         <v>66.57250213623047</v>
       </c>
       <c r="F225" t="n">
-        <v>64.68666839599609</v>
+        <v>64.68667602539062</v>
       </c>
       <c r="G225" t="n">
         <v>76167200</v>
@@ -5645,7 +5645,7 @@
         <v>65.79750061035156</v>
       </c>
       <c r="F226" t="n">
-        <v>63.93361282348633</v>
+        <v>63.93361663818359</v>
       </c>
       <c r="G226" t="n">
         <v>106234400</v>
@@ -5668,7 +5668,7 @@
         <v>65.50250244140625</v>
       </c>
       <c r="F227" t="n">
-        <v>63.6469841003418</v>
+        <v>63.64698791503906</v>
       </c>
       <c r="G227" t="n">
         <v>121395200</v>
@@ -5691,7 +5691,7 @@
         <v>65.44499969482422</v>
       </c>
       <c r="F228" t="n">
-        <v>63.59111022949219</v>
+        <v>63.59111404418945</v>
       </c>
       <c r="G228" t="n">
         <v>65325200</v>
@@ -5714,7 +5714,7 @@
         <v>66.59249877929688</v>
       </c>
       <c r="F229" t="n">
-        <v>64.70610809326172</v>
+        <v>64.70610046386719</v>
       </c>
       <c r="G229" t="n">
         <v>84020400</v>
@@ -5760,7 +5760,7 @@
         <v>66.95999908447266</v>
       </c>
       <c r="F231" t="n">
-        <v>65.06317901611328</v>
+        <v>65.06319427490234</v>
       </c>
       <c r="G231" t="n">
         <v>65235600</v>
@@ -5783,7 +5783,7 @@
         <v>66.8125</v>
       </c>
       <c r="F232" t="n">
-        <v>64.91986083984375</v>
+        <v>64.91988372802734</v>
       </c>
       <c r="G232" t="n">
         <v>46617600</v>
@@ -5806,7 +5806,7 @@
         <v>66.04000091552734</v>
       </c>
       <c r="F233" t="n">
-        <v>64.16926574707031</v>
+        <v>64.16925048828125</v>
       </c>
       <c r="G233" t="n">
         <v>94487200</v>
@@ -5829,7 +5829,7 @@
         <v>64.86250305175781</v>
       </c>
       <c r="F234" t="n">
-        <v>63.02511978149414</v>
+        <v>63.02511596679688</v>
       </c>
       <c r="G234" t="n">
         <v>114430400</v>
@@ -5875,7 +5875,7 @@
         <v>66.39499664306641</v>
       </c>
       <c r="F236" t="n">
-        <v>64.51419830322266</v>
+        <v>64.51419067382812</v>
       </c>
       <c r="G236" t="n">
         <v>74424400</v>
@@ -5898,7 +5898,7 @@
         <v>67.67749786376953</v>
       </c>
       <c r="F237" t="n">
-        <v>65.76036834716797</v>
+        <v>65.7603759765625</v>
       </c>
       <c r="G237" t="n">
         <v>106075600</v>
@@ -5921,7 +5921,7 @@
         <v>66.73000335693359</v>
       </c>
       <c r="F238" t="n">
-        <v>64.83970642089844</v>
+        <v>64.83969879150391</v>
       </c>
       <c r="G238" t="n">
         <v>128042400</v>
@@ -5967,7 +5967,7 @@
         <v>67.69249725341797</v>
       </c>
       <c r="F240" t="n">
-        <v>65.77494049072266</v>
+        <v>65.77494812011719</v>
       </c>
       <c r="G240" t="n">
         <v>78756800</v>
@@ -5990,7 +5990,7 @@
         <v>67.86499786376953</v>
       </c>
       <c r="F241" t="n">
-        <v>65.94254302978516</v>
+        <v>65.94255065917969</v>
       </c>
       <c r="G241" t="n">
         <v>137310400</v>
@@ -6013,7 +6013,7 @@
         <v>68.78749847412109</v>
       </c>
       <c r="F242" t="n">
-        <v>66.83892059326172</v>
+        <v>66.83892822265625</v>
       </c>
       <c r="G242" t="n">
         <v>133587600</v>
@@ -6036,7 +6036,7 @@
         <v>69.96499633789062</v>
       </c>
       <c r="F243" t="n">
-        <v>67.98305511474609</v>
+        <v>67.98307037353516</v>
       </c>
       <c r="G243" t="n">
         <v>128186000</v>
@@ -6059,7 +6059,7 @@
         <v>70.10250091552734</v>
       </c>
       <c r="F244" t="n">
-        <v>68.11668395996094</v>
+        <v>68.11666870117188</v>
       </c>
       <c r="G244" t="n">
         <v>114158400</v>
@@ -6082,7 +6082,7 @@
         <v>69.93499755859375</v>
       </c>
       <c r="F245" t="n">
-        <v>67.95391082763672</v>
+        <v>67.95392608642578</v>
       </c>
       <c r="G245" t="n">
         <v>116028400</v>
@@ -6105,7 +6105,7 @@
         <v>70.00499725341797</v>
       </c>
       <c r="F246" t="n">
-        <v>68.02194213867188</v>
+        <v>68.02195739746094</v>
       </c>
       <c r="G246" t="n">
         <v>98369200</v>
@@ -6128,7 +6128,7 @@
         <v>69.86000061035156</v>
       </c>
       <c r="F247" t="n">
-        <v>67.88104248046875</v>
+        <v>67.88105010986328</v>
       </c>
       <c r="G247" t="n">
         <v>275978000</v>
@@ -6197,7 +6197,7 @@
         <v>72.47750091552734</v>
       </c>
       <c r="F250" t="n">
-        <v>70.42439270019531</v>
+        <v>70.42437744140625</v>
       </c>
       <c r="G250" t="n">
         <v>93121200</v>
@@ -6220,7 +6220,7 @@
         <v>72.44999694824219</v>
       </c>
       <c r="F251" t="n">
-        <v>70.39766693115234</v>
+        <v>70.39768981933594</v>
       </c>
       <c r="G251" t="n">
         <v>146266000</v>
@@ -6243,7 +6243,7 @@
         <v>72.87999725341797</v>
       </c>
       <c r="F252" t="n">
-        <v>70.81550598144531</v>
+        <v>70.81547546386719</v>
       </c>
       <c r="G252" t="n">
         <v>144114400</v>
@@ -6266,7 +6266,7 @@
         <v>73.41249847412109</v>
       </c>
       <c r="F253" t="n">
-        <v>71.33290100097656</v>
+        <v>71.33289337158203</v>
       </c>
       <c r="G253" t="n">
         <v>100805600</v>
@@ -6312,7 +6312,7 @@
         <v>74.35749816894531</v>
       </c>
       <c r="F255" t="n">
-        <v>72.25113677978516</v>
+        <v>72.25112152099609</v>
       </c>
       <c r="G255" t="n">
         <v>146322800</v>
@@ -6335,7 +6335,7 @@
         <v>74.94999694824219</v>
       </c>
       <c r="F256" t="n">
-        <v>72.82685089111328</v>
+        <v>72.82684326171875</v>
       </c>
       <c r="G256" t="n">
         <v>118387200</v>
@@ -6358,7 +6358,7 @@
         <v>74.59750366210938</v>
       </c>
       <c r="F257" t="n">
-        <v>72.48434448242188</v>
+        <v>72.48435211181641</v>
       </c>
       <c r="G257" t="n">
         <v>108872000</v>
@@ -6381,7 +6381,7 @@
         <v>75.79750061035156</v>
       </c>
       <c r="F258" t="n">
-        <v>73.65032958984375</v>
+        <v>73.65035247802734</v>
       </c>
       <c r="G258" t="n">
         <v>132079200</v>
@@ -6427,7 +6427,7 @@
         <v>77.58249664306641</v>
       </c>
       <c r="F260" t="n">
-        <v>75.38478851318359</v>
+        <v>75.38478088378906</v>
       </c>
       <c r="G260" t="n">
         <v>140644800</v>
@@ -6473,7 +6473,7 @@
         <v>78.16999816894531</v>
       </c>
       <c r="F262" t="n">
-        <v>75.95563507080078</v>
+        <v>75.95565032958984</v>
       </c>
       <c r="G262" t="n">
         <v>161954400</v>
@@ -6519,7 +6519,7 @@
         <v>78.80999755859375</v>
       </c>
       <c r="F264" t="n">
-        <v>76.57750701904297</v>
+        <v>76.5775146484375</v>
       </c>
       <c r="G264" t="n">
         <v>108829200</v>
@@ -6542,7 +6542,7 @@
         <v>79.68250274658203</v>
       </c>
       <c r="F265" t="n">
-        <v>77.42527008056641</v>
+        <v>77.42529296875</v>
       </c>
       <c r="G265" t="n">
         <v>137816400</v>
@@ -6588,7 +6588,7 @@
         <v>79.42500305175781</v>
       </c>
       <c r="F267" t="n">
-        <v>77.17509460449219</v>
+        <v>77.17508697509766</v>
       </c>
       <c r="G267" t="n">
         <v>101832400</v>
@@ -6634,7 +6634,7 @@
         <v>79.57749938964844</v>
       </c>
       <c r="F269" t="n">
-        <v>77.32327270507812</v>
+        <v>77.32326507568359</v>
       </c>
       <c r="G269" t="n">
         <v>146537600</v>
@@ -6657,7 +6657,7 @@
         <v>77.23750305175781</v>
       </c>
       <c r="F270" t="n">
-        <v>75.04954528808594</v>
+        <v>75.04955291748047</v>
       </c>
       <c r="G270" t="n">
         <v>161940000</v>
@@ -6680,7 +6680,7 @@
         <v>79.42250061035156</v>
       </c>
       <c r="F271" t="n">
-        <v>77.17266845703125</v>
+        <v>77.17268371582031</v>
       </c>
       <c r="G271" t="n">
         <v>162234000</v>
@@ -6703,7 +6703,7 @@
         <v>81.08499908447266</v>
       </c>
       <c r="F272" t="n">
-        <v>78.78807830810547</v>
+        <v>78.78807067871094</v>
       </c>
       <c r="G272" t="n">
         <v>216229200</v>
@@ -6726,7 +6726,7 @@
         <v>80.96749877929688</v>
       </c>
       <c r="F273" t="n">
-        <v>78.67388916015625</v>
+        <v>78.67391204833984</v>
       </c>
       <c r="G273" t="n">
         <v>126743200</v>
@@ -6749,7 +6749,7 @@
         <v>77.37750244140625</v>
       </c>
       <c r="F274" t="n">
-        <v>75.18560028076172</v>
+        <v>75.18559265136719</v>
       </c>
       <c r="G274" t="n">
         <v>199588400</v>
@@ -6772,7 +6772,7 @@
         <v>77.16500091552734</v>
       </c>
       <c r="F275" t="n">
-        <v>74.97910308837891</v>
+        <v>74.97911071777344</v>
       </c>
       <c r="G275" t="n">
         <v>173788400</v>
@@ -6795,7 +6795,7 @@
         <v>79.71250152587891</v>
       </c>
       <c r="F276" t="n">
-        <v>77.45446014404297</v>
+        <v>77.45445251464844</v>
       </c>
       <c r="G276" t="n">
         <v>136616400</v>
@@ -6818,7 +6818,7 @@
         <v>80.36250305175781</v>
       </c>
       <c r="F277" t="n">
-        <v>78.08602142333984</v>
+        <v>78.08604431152344</v>
       </c>
       <c r="G277" t="n">
         <v>118826800</v>
@@ -6841,7 +6841,7 @@
         <v>81.30249786376953</v>
       </c>
       <c r="F278" t="n">
-        <v>78.99939727783203</v>
+        <v>78.99941253662109</v>
       </c>
       <c r="G278" t="n">
         <v>105425600</v>
@@ -6864,7 +6864,7 @@
         <v>80.00749969482422</v>
       </c>
       <c r="F279" t="n">
-        <v>77.92559051513672</v>
+        <v>77.92561340332031</v>
       </c>
       <c r="G279" t="n">
         <v>117684000</v>
@@ -6887,7 +6887,7 @@
         <v>80.38749694824219</v>
       </c>
       <c r="F280" t="n">
-        <v>78.29570770263672</v>
+        <v>78.29570007324219</v>
       </c>
       <c r="G280" t="n">
         <v>109348800</v>
@@ -6910,7 +6910,7 @@
         <v>79.90249633789062</v>
       </c>
       <c r="F281" t="n">
-        <v>77.82331085205078</v>
+        <v>77.82331848144531</v>
       </c>
       <c r="G281" t="n">
         <v>94323200</v>
@@ -6933,7 +6933,7 @@
         <v>81.80000305175781</v>
       </c>
       <c r="F282" t="n">
-        <v>79.67144775390625</v>
+        <v>79.67146301269531</v>
       </c>
       <c r="G282" t="n">
         <v>113730400</v>
@@ -6956,7 +6956,7 @@
         <v>81.21749877929688</v>
       </c>
       <c r="F283" t="n">
-        <v>79.10410308837891</v>
+        <v>79.10409545898438</v>
       </c>
       <c r="G283" t="n">
         <v>94747600</v>
@@ -6979,7 +6979,7 @@
         <v>81.23750305175781</v>
       </c>
       <c r="F284" t="n">
-        <v>79.12359619140625</v>
+        <v>79.12358093261719</v>
       </c>
       <c r="G284" t="n">
         <v>80113600</v>
@@ -7002,7 +7002,7 @@
         <v>79.75</v>
       </c>
       <c r="F285" t="n">
-        <v>77.67479705810547</v>
+        <v>77.67478942871094</v>
       </c>
       <c r="G285" t="n">
         <v>152531200</v>
@@ -7048,7 +7048,7 @@
         <v>80.07499694824219</v>
       </c>
       <c r="F287" t="n">
-        <v>77.9913330078125</v>
+        <v>77.99134063720703</v>
       </c>
       <c r="G287" t="n">
         <v>100566000</v>
@@ -7071,7 +7071,7 @@
         <v>78.26249694824219</v>
       </c>
       <c r="F288" t="n">
-        <v>76.22599792480469</v>
+        <v>76.22597503662109</v>
       </c>
       <c r="G288" t="n">
         <v>129554000</v>
@@ -7117,7 +7117,7 @@
         <v>72.01999664306641</v>
       </c>
       <c r="F290" t="n">
-        <v>70.14591979980469</v>
+        <v>70.14593505859375</v>
       </c>
       <c r="G290" t="n">
         <v>230673600</v>
@@ -7140,7 +7140,7 @@
         <v>73.16249847412109</v>
       </c>
       <c r="F291" t="n">
-        <v>71.25871276855469</v>
+        <v>71.25869750976562</v>
       </c>
       <c r="G291" t="n">
         <v>198054800</v>
@@ -7209,7 +7209,7 @@
         <v>74.70249938964844</v>
       </c>
       <c r="F294" t="n">
-        <v>72.75862121582031</v>
+        <v>72.75861358642578</v>
       </c>
       <c r="G294" t="n">
         <v>341397200</v>
@@ -7232,7 +7232,7 @@
         <v>72.33000183105469</v>
       </c>
       <c r="F295" t="n">
-        <v>70.44786834716797</v>
+        <v>70.44789123535156</v>
       </c>
       <c r="G295" t="n">
         <v>319475600</v>
@@ -7278,7 +7278,7 @@
         <v>73.23000335693359</v>
       </c>
       <c r="F297" t="n">
-        <v>71.324462890625</v>
+        <v>71.32444763183594</v>
       </c>
       <c r="G297" t="n">
         <v>187572800</v>
@@ -7324,7 +7324,7 @@
         <v>66.54250335693359</v>
       </c>
       <c r="F299" t="n">
-        <v>64.81095123291016</v>
+        <v>64.81097412109375</v>
       </c>
       <c r="G299" t="n">
         <v>286744800</v>
@@ -7370,7 +7370,7 @@
         <v>68.85749816894531</v>
       </c>
       <c r="F301" t="n">
-        <v>67.06571960449219</v>
+        <v>67.06572723388672</v>
       </c>
       <c r="G301" t="n">
         <v>255598800</v>
@@ -7439,7 +7439,7 @@
         <v>60.5525016784668</v>
       </c>
       <c r="F304" t="n">
-        <v>58.97684097290039</v>
+        <v>58.97682952880859</v>
       </c>
       <c r="G304" t="n">
         <v>322423600</v>
@@ -7462,7 +7462,7 @@
         <v>63.21500015258789</v>
       </c>
       <c r="F305" t="n">
-        <v>61.57005310058594</v>
+        <v>61.57006454467773</v>
       </c>
       <c r="G305" t="n">
         <v>324056000</v>
@@ -7485,7 +7485,7 @@
         <v>61.66749954223633</v>
       </c>
       <c r="F306" t="n">
-        <v>60.06282424926758</v>
+        <v>60.06282043457031</v>
       </c>
       <c r="G306" t="n">
         <v>300233600</v>
@@ -7508,7 +7508,7 @@
         <v>61.19499969482422</v>
       </c>
       <c r="F307" t="n">
-        <v>59.60261535644531</v>
+        <v>59.60262298583984</v>
       </c>
       <c r="G307" t="n">
         <v>271857200</v>
@@ -7554,7 +7554,7 @@
         <v>56.09249877929688</v>
       </c>
       <c r="F309" t="n">
-        <v>54.63289642333984</v>
+        <v>54.63290023803711</v>
       </c>
       <c r="G309" t="n">
         <v>336752800</v>
@@ -7577,7 +7577,7 @@
         <v>61.72000122070312</v>
       </c>
       <c r="F310" t="n">
-        <v>60.11395263671875</v>
+        <v>60.11396789550781</v>
       </c>
       <c r="G310" t="n">
         <v>287531200</v>
@@ -7600,7 +7600,7 @@
         <v>61.38000106811523</v>
       </c>
       <c r="F311" t="n">
-        <v>59.78280639648438</v>
+        <v>59.78281021118164</v>
       </c>
       <c r="G311" t="n">
         <v>303602000</v>
@@ -7669,7 +7669,7 @@
         <v>63.70249938964844</v>
       </c>
       <c r="F314" t="n">
-        <v>62.04487228393555</v>
+        <v>62.04487609863281</v>
       </c>
       <c r="G314" t="n">
         <v>167976400</v>
@@ -7692,7 +7692,7 @@
         <v>63.5724983215332</v>
       </c>
       <c r="F315" t="n">
-        <v>61.91824722290039</v>
+        <v>61.91825103759766</v>
       </c>
       <c r="G315" t="n">
         <v>197002000</v>
@@ -7715,7 +7715,7 @@
         <v>60.22750091552734</v>
       </c>
       <c r="F316" t="n">
-        <v>58.66029739379883</v>
+        <v>58.66030120849609</v>
       </c>
       <c r="G316" t="n">
         <v>176218400</v>
@@ -7738,7 +7738,7 @@
         <v>61.23249816894531</v>
       </c>
       <c r="F317" t="n">
-        <v>59.63914489746094</v>
+        <v>59.63913345336914</v>
       </c>
       <c r="G317" t="n">
         <v>165934000</v>
@@ -7784,7 +7784,7 @@
         <v>65.61750030517578</v>
       </c>
       <c r="F319" t="n">
-        <v>63.91002655029297</v>
+        <v>63.9100456237793</v>
       </c>
       <c r="G319" t="n">
         <v>201820400</v>
@@ -7807,7 +7807,7 @@
         <v>64.85749816894531</v>
       </c>
       <c r="F320" t="n">
-        <v>63.16981887817383</v>
+        <v>63.1697998046875</v>
       </c>
       <c r="G320" t="n">
         <v>202887200</v>
@@ -7830,7 +7830,7 @@
         <v>66.51750183105469</v>
       </c>
       <c r="F321" t="n">
-        <v>64.78662872314453</v>
+        <v>64.78662109375</v>
       </c>
       <c r="G321" t="n">
         <v>168895200</v>
@@ -7876,7 +7876,7 @@
         <v>68.3125</v>
       </c>
       <c r="F323" t="n">
-        <v>66.53490447998047</v>
+        <v>66.53491973876953</v>
       </c>
       <c r="G323" t="n">
         <v>131022800</v>
@@ -7922,7 +7922,7 @@
         <v>71.10749816894531</v>
       </c>
       <c r="F325" t="n">
-        <v>69.25718688964844</v>
+        <v>69.25719451904297</v>
       </c>
       <c r="G325" t="n">
         <v>131154400</v>
@@ -7968,7 +7968,7 @@
         <v>70.69999694824219</v>
       </c>
       <c r="F327" t="n">
-        <v>68.86028289794922</v>
+        <v>68.86029052734375</v>
       </c>
       <c r="G327" t="n">
         <v>215250000</v>
@@ -7991,7 +7991,7 @@
         <v>69.23249816894531</v>
       </c>
       <c r="F328" t="n">
-        <v>67.43097686767578</v>
+        <v>67.43096160888672</v>
       </c>
       <c r="G328" t="n">
         <v>130015200</v>
@@ -8014,7 +8014,7 @@
         <v>67.09249877929688</v>
       </c>
       <c r="F329" t="n">
-        <v>65.34666442871094</v>
+        <v>65.34665679931641</v>
       </c>
       <c r="G329" t="n">
         <v>180991600</v>
@@ -8037,7 +8037,7 @@
         <v>69.02500152587891</v>
       </c>
       <c r="F330" t="n">
-        <v>67.22887420654297</v>
+        <v>67.22886657714844</v>
       </c>
       <c r="G330" t="n">
         <v>116862400</v>
@@ -8060,7 +8060,7 @@
         <v>68.75749969482422</v>
       </c>
       <c r="F331" t="n">
-        <v>66.96833801269531</v>
+        <v>66.96832275390625</v>
       </c>
       <c r="G331" t="n">
         <v>124814400</v>
@@ -8083,7 +8083,7 @@
         <v>70.74250030517578</v>
       </c>
       <c r="F332" t="n">
-        <v>68.90169525146484</v>
+        <v>68.90168762207031</v>
       </c>
       <c r="G332" t="n">
         <v>126161200</v>
@@ -8106,7 +8106,7 @@
         <v>70.79250335693359</v>
       </c>
       <c r="F333" t="n">
-        <v>68.95037841796875</v>
+        <v>68.95040130615234</v>
       </c>
       <c r="G333" t="n">
         <v>117087600</v>
@@ -8129,7 +8129,7 @@
         <v>69.64499664306641</v>
       </c>
       <c r="F334" t="n">
-        <v>67.83274078369141</v>
+        <v>67.83273315429688</v>
       </c>
       <c r="G334" t="n">
         <v>112004800</v>
@@ -8175,7 +8175,7 @@
         <v>73.44999694824219</v>
       </c>
       <c r="F336" t="n">
-        <v>71.53871917724609</v>
+        <v>71.53872680664062</v>
       </c>
       <c r="G336" t="n">
         <v>183064000</v>
@@ -8198,7 +8198,7 @@
         <v>72.26750183105469</v>
       </c>
       <c r="F337" t="n">
-        <v>70.38701629638672</v>
+        <v>70.38699340820312</v>
       </c>
       <c r="G337" t="n">
         <v>240616800</v>
@@ -8221,7 +8221,7 @@
         <v>73.29000091552734</v>
       </c>
       <c r="F338" t="n">
-        <v>71.38289642333984</v>
+        <v>71.38288879394531</v>
       </c>
       <c r="G338" t="n">
         <v>133568000</v>
@@ -8267,7 +8267,7 @@
         <v>75.15750122070312</v>
       </c>
       <c r="F340" t="n">
-        <v>73.20178985595703</v>
+        <v>73.20179748535156</v>
       </c>
       <c r="G340" t="n">
         <v>142333600</v>
@@ -8290,7 +8290,7 @@
         <v>75.93499755859375</v>
       </c>
       <c r="F341" t="n">
-        <v>73.95906066894531</v>
+        <v>73.95905303955078</v>
       </c>
       <c r="G341" t="n">
         <v>115215200</v>
@@ -8336,7 +8336,7 @@
         <v>78.75250244140625</v>
       </c>
       <c r="F343" t="n">
-        <v>76.91088104248047</v>
+        <v>76.91087341308594</v>
       </c>
       <c r="G343" t="n">
         <v>145946400</v>
@@ -8359,7 +8359,7 @@
         <v>77.85250091552734</v>
       </c>
       <c r="F344" t="n">
-        <v>76.03192901611328</v>
+        <v>76.03193664550781</v>
       </c>
       <c r="G344" t="n">
         <v>162301200</v>
@@ -8382,7 +8382,7 @@
         <v>76.91249847412109</v>
       </c>
       <c r="F345" t="n">
-        <v>75.11390686035156</v>
+        <v>75.11391448974609</v>
       </c>
       <c r="G345" t="n">
         <v>200622400</v>
@@ -8428,7 +8428,7 @@
         <v>76.92749786376953</v>
       </c>
       <c r="F347" t="n">
-        <v>75.12857055664062</v>
+        <v>75.12856292724609</v>
       </c>
       <c r="G347" t="n">
         <v>166348400</v>
@@ -8474,7 +8474,7 @@
         <v>78.28500366210938</v>
       </c>
       <c r="F349" t="n">
-        <v>76.45433044433594</v>
+        <v>76.45432281494141</v>
       </c>
       <c r="G349" t="n">
         <v>101729600</v>
@@ -8497,7 +8497,7 @@
         <v>79.80750274658203</v>
       </c>
       <c r="F350" t="n">
-        <v>77.94121551513672</v>
+        <v>77.94122314453125</v>
       </c>
       <c r="G350" t="n">
         <v>111504800</v>
@@ -8543,7 +8543,7 @@
         <v>79.72250366210938</v>
       </c>
       <c r="F352" t="n">
-        <v>77.85819244384766</v>
+        <v>77.85820007324219</v>
       </c>
       <c r="G352" t="n">
         <v>81803200</v>
@@ -8566,7 +8566,7 @@
         <v>79.18250274658203</v>
       </c>
       <c r="F353" t="n">
-        <v>77.33081817626953</v>
+        <v>77.33083343505859</v>
       </c>
       <c r="G353" t="n">
         <v>125522000</v>
@@ -8589,7 +8589,7 @@
         <v>79.52749633789062</v>
       </c>
       <c r="F354" t="n">
-        <v>77.66777038574219</v>
+        <v>77.66775512695312</v>
       </c>
       <c r="G354" t="n">
         <v>112945200</v>
@@ -8612,7 +8612,7 @@
         <v>79.5625</v>
       </c>
       <c r="F355" t="n">
-        <v>77.70195770263672</v>
+        <v>77.70195007324219</v>
       </c>
       <c r="G355" t="n">
         <v>133560800</v>
@@ -8635,7 +8635,7 @@
         <v>79.48500061035156</v>
       </c>
       <c r="F356" t="n">
-        <v>77.62625122070312</v>
+        <v>77.62625885009766</v>
       </c>
       <c r="G356" t="n">
         <v>153532400</v>
@@ -8681,7 +8681,7 @@
         <v>80.83499908447266</v>
       </c>
       <c r="F358" t="n">
-        <v>78.94469451904297</v>
+        <v>78.94468688964844</v>
       </c>
       <c r="G358" t="n">
         <v>87642800</v>
@@ -8727,7 +8727,7 @@
         <v>80.58000183105469</v>
       </c>
       <c r="F360" t="n">
-        <v>78.69564056396484</v>
+        <v>78.69565582275391</v>
       </c>
       <c r="G360" t="n">
         <v>87560400</v>
@@ -8750,7 +8750,7 @@
         <v>82.875</v>
       </c>
       <c r="F361" t="n">
-        <v>80.93698883056641</v>
+        <v>80.93698120117188</v>
       </c>
       <c r="G361" t="n">
         <v>137250400</v>
@@ -8773,7 +8773,7 @@
         <v>83.36499786376953</v>
       </c>
       <c r="F362" t="n">
-        <v>81.41552734375</v>
+        <v>81.41551971435547</v>
       </c>
       <c r="G362" t="n">
         <v>95654400</v>
@@ -8842,7 +8842,7 @@
         <v>83.97499847412109</v>
       </c>
       <c r="F365" t="n">
-        <v>82.01126098632812</v>
+        <v>82.01123809814453</v>
       </c>
       <c r="G365" t="n">
         <v>201662400</v>
@@ -8865,7 +8865,7 @@
         <v>84.69999694824219</v>
       </c>
       <c r="F366" t="n">
-        <v>82.71929931640625</v>
+        <v>82.71929168701172</v>
       </c>
       <c r="G366" t="n">
         <v>200146000</v>
@@ -8888,7 +8888,7 @@
         <v>85.74749755859375</v>
       </c>
       <c r="F367" t="n">
-        <v>83.74230194091797</v>
+        <v>83.74229431152344</v>
       </c>
       <c r="G367" t="n">
         <v>138808800</v>
@@ -8934,7 +8934,7 @@
         <v>87.89749908447266</v>
       </c>
       <c r="F369" t="n">
-        <v>85.84203338623047</v>
+        <v>85.842041015625</v>
       </c>
       <c r="G369" t="n">
         <v>114406400</v>
@@ -8957,7 +8957,7 @@
         <v>87.93250274658203</v>
       </c>
       <c r="F370" t="n">
-        <v>85.876220703125</v>
+        <v>85.87621307373047</v>
       </c>
       <c r="G370" t="n">
         <v>96820400</v>
@@ -8980,7 +8980,7 @@
         <v>87.43000030517578</v>
       </c>
       <c r="F371" t="n">
-        <v>85.38546752929688</v>
+        <v>85.38545989990234</v>
       </c>
       <c r="G371" t="n">
         <v>264476000</v>
@@ -9003,7 +9003,7 @@
         <v>89.71749877929688</v>
       </c>
       <c r="F372" t="n">
-        <v>87.61946868896484</v>
+        <v>87.61947631835938</v>
       </c>
       <c r="G372" t="n">
         <v>135445200</v>
@@ -9026,7 +9026,7 @@
         <v>91.63249969482422</v>
       </c>
       <c r="F373" t="n">
-        <v>89.48970031738281</v>
+        <v>89.48967742919922</v>
       </c>
       <c r="G373" t="n">
         <v>212155600</v>
@@ -9049,7 +9049,7 @@
         <v>90.01499938964844</v>
       </c>
       <c r="F374" t="n">
-        <v>87.90999603271484</v>
+        <v>87.91001129150391</v>
       </c>
       <c r="G374" t="n">
         <v>192623200</v>
@@ -9072,7 +9072,7 @@
         <v>91.20999908447266</v>
       </c>
       <c r="F375" t="n">
-        <v>89.07707214355469</v>
+        <v>89.07704925537109</v>
       </c>
       <c r="G375" t="n">
         <v>137522400</v>
@@ -9095,7 +9095,7 @@
         <v>88.40750122070312</v>
       </c>
       <c r="F376" t="n">
-        <v>86.34010314941406</v>
+        <v>86.34011077880859</v>
       </c>
       <c r="G376" t="n">
         <v>205256800</v>
@@ -9118,7 +9118,7 @@
         <v>90.44499969482422</v>
       </c>
       <c r="F377" t="n">
-        <v>88.32993316650391</v>
+        <v>88.3299560546875</v>
       </c>
       <c r="G377" t="n">
         <v>130646000</v>
@@ -9141,7 +9141,7 @@
         <v>91.19999694824219</v>
       </c>
       <c r="F378" t="n">
-        <v>89.06730651855469</v>
+        <v>89.06729125976562</v>
       </c>
       <c r="G378" t="n">
         <v>140223200</v>
@@ -9164,7 +9164,7 @@
         <v>91.02749633789062</v>
       </c>
       <c r="F379" t="n">
-        <v>88.89881896972656</v>
+        <v>88.89882659912109</v>
       </c>
       <c r="G379" t="n">
         <v>110737200</v>
@@ -9187,7 +9187,7 @@
         <v>91.02749633789062</v>
       </c>
       <c r="F380" t="n">
-        <v>88.89881896972656</v>
+        <v>88.89882659912109</v>
       </c>
       <c r="G380" t="n">
         <v>114041600</v>
@@ -9233,7 +9233,7 @@
         <v>93.17250061035156</v>
       </c>
       <c r="F382" t="n">
-        <v>90.99368286132812</v>
+        <v>90.99367523193359</v>
       </c>
       <c r="G382" t="n">
         <v>112424400</v>
@@ -9302,7 +9302,7 @@
         <v>95.91999816894531</v>
       </c>
       <c r="F385" t="n">
-        <v>93.67691802978516</v>
+        <v>93.67692565917969</v>
       </c>
       <c r="G385" t="n">
         <v>90257200</v>
@@ -9371,7 +9371,7 @@
         <v>97.72499847412109</v>
       </c>
       <c r="F388" t="n">
-        <v>95.43971252441406</v>
+        <v>95.43972778320312</v>
       </c>
       <c r="G388" t="n">
         <v>153198000</v>
@@ -9394,7 +9394,7 @@
         <v>96.52249908447266</v>
       </c>
       <c r="F389" t="n">
-        <v>94.26533508300781</v>
+        <v>94.26532745361328</v>
       </c>
       <c r="G389" t="n">
         <v>110577600</v>
@@ -9417,7 +9417,7 @@
         <v>96.32749938964844</v>
       </c>
       <c r="F390" t="n">
-        <v>94.07488250732422</v>
+        <v>94.07489776611328</v>
       </c>
       <c r="G390" t="n">
         <v>92186800</v>
@@ -9440,7 +9440,7 @@
         <v>98.35749816894531</v>
       </c>
       <c r="F391" t="n">
-        <v>96.05741882324219</v>
+        <v>96.05743408203125</v>
       </c>
       <c r="G391" t="n">
         <v>90318000</v>
@@ -9463,7 +9463,7 @@
         <v>97</v>
       </c>
       <c r="F392" t="n">
-        <v>94.73165893554688</v>
+        <v>94.73167419433594</v>
       </c>
       <c r="G392" t="n">
         <v>103433200</v>
@@ -9486,7 +9486,7 @@
         <v>97.27249908447266</v>
       </c>
       <c r="F393" t="n">
-        <v>94.997802734375</v>
+        <v>94.99777221679688</v>
       </c>
       <c r="G393" t="n">
         <v>89001600</v>
@@ -9509,7 +9509,7 @@
         <v>92.84500122070312</v>
       </c>
       <c r="F394" t="n">
-        <v>90.67383575439453</v>
+        <v>90.673828125</v>
       </c>
       <c r="G394" t="n">
         <v>197004400</v>
@@ -9532,7 +9532,7 @@
         <v>92.61499786376953</v>
       </c>
       <c r="F395" t="n">
-        <v>90.44921875</v>
+        <v>90.44920349121094</v>
       </c>
       <c r="G395" t="n">
         <v>185438800</v>
@@ -9555,7 +9555,7 @@
         <v>94.80999755859375</v>
       </c>
       <c r="F396" t="n">
-        <v>92.5928955078125</v>
+        <v>92.59288787841797</v>
       </c>
       <c r="G396" t="n">
         <v>121214000</v>
@@ -9578,7 +9578,7 @@
         <v>93.25250244140625</v>
       </c>
       <c r="F397" t="n">
-        <v>91.07180786132812</v>
+        <v>91.07180023193359</v>
       </c>
       <c r="G397" t="n">
         <v>103625600</v>
@@ -9601,7 +9601,7 @@
         <v>95.04000091552734</v>
       </c>
       <c r="F398" t="n">
-        <v>92.81751251220703</v>
+        <v>92.8175048828125</v>
       </c>
       <c r="G398" t="n">
         <v>90329200</v>
@@ -9624,7 +9624,7 @@
         <v>96.19000244140625</v>
       </c>
       <c r="F399" t="n">
-        <v>93.94062042236328</v>
+        <v>93.94061279296875</v>
       </c>
       <c r="G399" t="n">
         <v>158130000</v>
@@ -9693,7 +9693,7 @@
         <v>109.6650009155273</v>
       </c>
       <c r="F402" t="n">
-        <v>107.1005096435547</v>
+        <v>107.1004867553711</v>
       </c>
       <c r="G402" t="n">
         <v>173071600</v>
@@ -9716,7 +9716,7 @@
         <v>110.0625</v>
       </c>
       <c r="F403" t="n">
-        <v>107.4887161254883</v>
+        <v>107.4887008666992</v>
       </c>
       <c r="G403" t="n">
         <v>121776800</v>
@@ -9739,7 +9739,7 @@
         <v>113.9024963378906</v>
       </c>
       <c r="F404" t="n">
-        <v>111.2389068603516</v>
+        <v>111.238899230957</v>
       </c>
       <c r="G404" t="n">
         <v>202428800</v>
@@ -9762,7 +9762,7 @@
         <v>111.1125030517578</v>
       </c>
       <c r="F405" t="n">
-        <v>108.7097930908203</v>
+        <v>108.7097854614258</v>
       </c>
       <c r="G405" t="n">
         <v>198045600</v>
@@ -9808,7 +9808,7 @@
         <v>109.375</v>
       </c>
       <c r="F407" t="n">
-        <v>107.0098724365234</v>
+        <v>107.009880065918</v>
       </c>
       <c r="G407" t="n">
         <v>187902400</v>
@@ -9831,7 +9831,7 @@
         <v>113.0100021362305</v>
       </c>
       <c r="F408" t="n">
-        <v>110.5662689208984</v>
+        <v>110.566276550293</v>
       </c>
       <c r="G408" t="n">
         <v>165598000</v>
@@ -9854,7 +9854,7 @@
         <v>115.0100021362305</v>
       </c>
       <c r="F409" t="n">
-        <v>112.5230255126953</v>
+        <v>112.5230178833008</v>
       </c>
       <c r="G409" t="n">
         <v>210082000</v>
@@ -9877,7 +9877,7 @@
         <v>114.9075012207031</v>
       </c>
       <c r="F410" t="n">
-        <v>112.4227294921875</v>
+        <v>112.422737121582</v>
       </c>
       <c r="G410" t="n">
         <v>165565200</v>
@@ -9900,7 +9900,7 @@
         <v>114.6074981689453</v>
       </c>
       <c r="F411" t="n">
-        <v>112.1292037963867</v>
+        <v>112.1292190551758</v>
       </c>
       <c r="G411" t="n">
         <v>119561600</v>
@@ -9923,7 +9923,7 @@
         <v>115.5625</v>
       </c>
       <c r="F412" t="n">
-        <v>113.0635681152344</v>
+        <v>113.0635833740234</v>
       </c>
       <c r="G412" t="n">
         <v>105633600</v>
@@ -9946,7 +9946,7 @@
         <v>115.7074966430664</v>
       </c>
       <c r="F413" t="n">
-        <v>113.205436706543</v>
+        <v>113.2054290771484</v>
       </c>
       <c r="G413" t="n">
         <v>145538000</v>
@@ -9969,7 +9969,7 @@
         <v>118.2750015258789</v>
       </c>
       <c r="F414" t="n">
-        <v>115.7174072265625</v>
+        <v>115.7174377441406</v>
       </c>
       <c r="G414" t="n">
         <v>126907200</v>
@@ -10015,7 +10015,7 @@
         <v>125.8574981689453</v>
       </c>
       <c r="F416" t="n">
-        <v>123.1359481811523</v>
+        <v>123.1359558105469</v>
       </c>
       <c r="G416" t="n">
         <v>345937600</v>
@@ -10038,7 +10038,7 @@
         <v>124.8249969482422</v>
       </c>
       <c r="F417" t="n">
-        <v>122.1257553100586</v>
+        <v>122.1257705688477</v>
       </c>
       <c r="G417" t="n">
         <v>211495600</v>
@@ -10061,7 +10061,7 @@
         <v>126.5224990844727</v>
       </c>
       <c r="F418" t="n">
-        <v>123.7865600585938</v>
+        <v>123.7865676879883</v>
       </c>
       <c r="G418" t="n">
         <v>163022400</v>
@@ -10130,7 +10130,7 @@
         <v>129.0399932861328</v>
       </c>
       <c r="F421" t="n">
-        <v>126.249641418457</v>
+        <v>126.2496337890625</v>
       </c>
       <c r="G421" t="n">
         <v>225702700</v>
@@ -10153,7 +10153,7 @@
         <v>134.1799926757812</v>
       </c>
       <c r="F422" t="n">
-        <v>131.2785034179688</v>
+        <v>131.2784881591797</v>
       </c>
       <c r="G422" t="n">
         <v>151948100</v>
@@ -10176,7 +10176,7 @@
         <v>131.3999938964844</v>
       </c>
       <c r="F423" t="n">
-        <v>128.5586090087891</v>
+        <v>128.55859375</v>
       </c>
       <c r="G423" t="n">
         <v>200119000</v>
@@ -10199,7 +10199,7 @@
         <v>120.879997253418</v>
       </c>
       <c r="F424" t="n">
-        <v>118.2660903930664</v>
+        <v>118.2661056518555</v>
       </c>
       <c r="G424" t="n">
         <v>257599600</v>
@@ -10222,7 +10222,7 @@
         <v>120.9599990844727</v>
       </c>
       <c r="F425" t="n">
-        <v>118.344352722168</v>
+        <v>118.3443603515625</v>
       </c>
       <c r="G425" t="n">
         <v>332607200</v>
@@ -10245,7 +10245,7 @@
         <v>112.8199996948242</v>
       </c>
       <c r="F426" t="n">
-        <v>110.38037109375</v>
+        <v>110.3803863525391</v>
       </c>
       <c r="G426" t="n">
         <v>231366600</v>
@@ -10291,7 +10291,7 @@
         <v>113.4899978637695</v>
       </c>
       <c r="F428" t="n">
-        <v>111.0358963012695</v>
+        <v>111.0358657836914</v>
       </c>
       <c r="G428" t="n">
         <v>182274400</v>
@@ -10314,7 +10314,7 @@
         <v>112</v>
       </c>
       <c r="F429" t="n">
-        <v>109.578125</v>
+        <v>109.5781021118164</v>
       </c>
       <c r="G429" t="n">
         <v>180860300</v>
@@ -10337,7 +10337,7 @@
         <v>115.3600006103516</v>
       </c>
       <c r="F430" t="n">
-        <v>112.8654479980469</v>
+        <v>112.8654556274414</v>
       </c>
       <c r="G430" t="n">
         <v>140150100</v>
@@ -10360,7 +10360,7 @@
         <v>115.5400009155273</v>
       </c>
       <c r="F431" t="n">
-        <v>113.0415573120117</v>
+        <v>113.0415649414062</v>
       </c>
       <c r="G431" t="n">
         <v>184642000</v>
@@ -10383,7 +10383,7 @@
         <v>112.129997253418</v>
       </c>
       <c r="F432" t="n">
-        <v>109.7052917480469</v>
+        <v>109.7052993774414</v>
       </c>
       <c r="G432" t="n">
         <v>154679000</v>
@@ -10406,7 +10406,7 @@
         <v>110.3399963378906</v>
       </c>
       <c r="F433" t="n">
-        <v>107.9539947509766</v>
+        <v>107.9540023803711</v>
       </c>
       <c r="G433" t="n">
         <v>178011000</v>
@@ -10429,7 +10429,7 @@
         <v>106.8399963378906</v>
       </c>
       <c r="F434" t="n">
-        <v>104.5296859741211</v>
+        <v>104.5296936035156</v>
       </c>
       <c r="G434" t="n">
         <v>287104900</v>
@@ -10452,7 +10452,7 @@
         <v>110.0800018310547</v>
       </c>
       <c r="F435" t="n">
-        <v>107.6996307373047</v>
+        <v>107.6996154785156</v>
       </c>
       <c r="G435" t="n">
         <v>195713800</v>
@@ -10475,7 +10475,7 @@
         <v>111.8099975585938</v>
       </c>
       <c r="F436" t="n">
-        <v>109.392219543457</v>
+        <v>109.3922119140625</v>
       </c>
       <c r="G436" t="n">
         <v>183055400</v>
@@ -10498,7 +10498,7 @@
         <v>107.120002746582</v>
       </c>
       <c r="F437" t="n">
-        <v>104.8036270141602</v>
+        <v>104.8036346435547</v>
       </c>
       <c r="G437" t="n">
         <v>150718700</v>
@@ -10521,7 +10521,7 @@
         <v>108.2200012207031</v>
       </c>
       <c r="F438" t="n">
-        <v>105.8798599243164</v>
+        <v>105.8798522949219</v>
       </c>
       <c r="G438" t="n">
         <v>167743300</v>
@@ -10544,7 +10544,7 @@
         <v>112.2799987792969</v>
       </c>
       <c r="F439" t="n">
-        <v>109.85205078125</v>
+        <v>109.8520431518555</v>
       </c>
       <c r="G439" t="n">
         <v>149981400</v>
@@ -10590,7 +10590,7 @@
         <v>114.0899963378906</v>
       </c>
       <c r="F441" t="n">
-        <v>111.6229400634766</v>
+        <v>111.6229095458984</v>
       </c>
       <c r="G441" t="n">
         <v>99382200</v>
@@ -10613,7 +10613,7 @@
         <v>115.8099975585938</v>
       </c>
       <c r="F442" t="n">
-        <v>113.3057174682617</v>
+        <v>113.3057098388672</v>
       </c>
       <c r="G442" t="n">
         <v>142675200</v>
@@ -10636,7 +10636,7 @@
         <v>116.7900009155273</v>
       </c>
       <c r="F443" t="n">
-        <v>114.264533996582</v>
+        <v>114.2645492553711</v>
       </c>
       <c r="G443" t="n">
         <v>116120400</v>
@@ -10659,7 +10659,7 @@
         <v>113.0199966430664</v>
       </c>
       <c r="F444" t="n">
-        <v>110.576042175293</v>
+        <v>110.5760650634766</v>
       </c>
       <c r="G444" t="n">
         <v>144712000</v>
@@ -10705,7 +10705,7 @@
         <v>113.1600036621094</v>
       </c>
       <c r="F446" t="n">
-        <v>110.713020324707</v>
+        <v>110.7130355834961</v>
       </c>
       <c r="G446" t="n">
         <v>161498200</v>
@@ -10728,7 +10728,7 @@
         <v>115.0800018310547</v>
       </c>
       <c r="F447" t="n">
-        <v>112.5915069580078</v>
+        <v>112.5914993286133</v>
       </c>
       <c r="G447" t="n">
         <v>96849000</v>
@@ -10751,7 +10751,7 @@
         <v>114.9700012207031</v>
       </c>
       <c r="F448" t="n">
-        <v>112.4838943481445</v>
+        <v>112.4838790893555</v>
       </c>
       <c r="G448" t="n">
         <v>83477200</v>
@@ -10774,7 +10774,7 @@
         <v>116.9700012207031</v>
       </c>
       <c r="F449" t="n">
-        <v>114.4406509399414</v>
+        <v>114.4406433105469</v>
       </c>
       <c r="G449" t="n">
         <v>100506900</v>
@@ -10797,7 +10797,7 @@
         <v>124.4000015258789</v>
       </c>
       <c r="F450" t="n">
-        <v>121.7099761962891</v>
+        <v>121.7099609375</v>
       </c>
       <c r="G450" t="n">
         <v>240226800</v>
@@ -10820,7 +10820,7 @@
         <v>121.0999984741211</v>
       </c>
       <c r="F451" t="n">
-        <v>118.481315612793</v>
+        <v>118.4813232421875</v>
       </c>
       <c r="G451" t="n">
         <v>262330500</v>
@@ -10843,7 +10843,7 @@
         <v>121.1900024414062</v>
       </c>
       <c r="F452" t="n">
-        <v>118.5694046020508</v>
+        <v>118.5693817138672</v>
       </c>
       <c r="G452" t="n">
         <v>150712000</v>
@@ -10866,7 +10866,7 @@
         <v>120.7099990844727</v>
       </c>
       <c r="F453" t="n">
-        <v>118.0997695922852</v>
+        <v>118.0997848510742</v>
       </c>
       <c r="G453" t="n">
         <v>112559200</v>
@@ -10889,7 +10889,7 @@
         <v>119.0199966430664</v>
       </c>
       <c r="F454" t="n">
-        <v>116.4462966918945</v>
+        <v>116.4463195800781</v>
       </c>
       <c r="G454" t="n">
         <v>115393800</v>
@@ -10935,7 +10935,7 @@
         <v>117.5100021362305</v>
       </c>
       <c r="F456" t="n">
-        <v>114.9689788818359</v>
+        <v>114.9689712524414</v>
       </c>
       <c r="G456" t="n">
         <v>124423700</v>
@@ -10958,7 +10958,7 @@
         <v>116.870002746582</v>
       </c>
       <c r="F457" t="n">
-        <v>114.3428039550781</v>
+        <v>114.3427963256836</v>
       </c>
       <c r="G457" t="n">
         <v>89946000</v>
@@ -11027,7 +11027,7 @@
         <v>115.0500030517578</v>
       </c>
       <c r="F460" t="n">
-        <v>112.5621643066406</v>
+        <v>112.5621719360352</v>
       </c>
       <c r="G460" t="n">
         <v>111850700</v>
@@ -11050,7 +11050,7 @@
         <v>116.5999984741211</v>
       </c>
       <c r="F461" t="n">
-        <v>114.0786514282227</v>
+        <v>114.0786361694336</v>
       </c>
       <c r="G461" t="n">
         <v>92276800</v>
@@ -11096,7 +11096,7 @@
         <v>115.3199996948242</v>
       </c>
       <c r="F463" t="n">
-        <v>112.8263320922852</v>
+        <v>112.826301574707</v>
       </c>
       <c r="G463" t="n">
         <v>146129200</v>
@@ -11119,7 +11119,7 @@
         <v>108.8600006103516</v>
       </c>
       <c r="F464" t="n">
-        <v>106.5060043334961</v>
+        <v>106.5059967041016</v>
       </c>
       <c r="G464" t="n">
         <v>190272600</v>
@@ -11165,7 +11165,7 @@
         <v>110.4400024414062</v>
       </c>
       <c r="F466" t="n">
-        <v>108.0518569946289</v>
+        <v>108.0518493652344</v>
       </c>
       <c r="G466" t="n">
         <v>107624400</v>
@@ -11188,7 +11188,7 @@
         <v>114.9499969482422</v>
       </c>
       <c r="F467" t="n">
-        <v>112.4643096923828</v>
+        <v>112.4643325805664</v>
       </c>
       <c r="G467" t="n">
         <v>138235500</v>
@@ -11211,7 +11211,7 @@
         <v>119.0299987792969</v>
       </c>
       <c r="F468" t="n">
-        <v>116.4561080932617</v>
+        <v>116.4561004638672</v>
       </c>
       <c r="G468" t="n">
         <v>126387100</v>
@@ -11280,7 +11280,7 @@
         <v>115.9700012207031</v>
       </c>
       <c r="F471" t="n">
-        <v>113.6580123901367</v>
+        <v>113.6580276489258</v>
       </c>
       <c r="G471" t="n">
         <v>138023400</v>
@@ -11303,7 +11303,7 @@
         <v>119.4899978637695</v>
       </c>
       <c r="F472" t="n">
-        <v>117.1078414916992</v>
+        <v>117.1078338623047</v>
       </c>
       <c r="G472" t="n">
         <v>112295000</v>
@@ -11326,7 +11326,7 @@
         <v>119.2099990844727</v>
       </c>
       <c r="F473" t="n">
-        <v>116.8334274291992</v>
+        <v>116.8334197998047</v>
       </c>
       <c r="G473" t="n">
         <v>103162300</v>
@@ -11349,7 +11349,7 @@
         <v>119.2600021362305</v>
       </c>
       <c r="F474" t="n">
-        <v>116.8824234008789</v>
+        <v>116.8824310302734</v>
       </c>
       <c r="G474" t="n">
         <v>81581900</v>
@@ -11372,7 +11372,7 @@
         <v>120.3000030517578</v>
       </c>
       <c r="F475" t="n">
-        <v>117.9017028808594</v>
+        <v>117.9016952514648</v>
       </c>
       <c r="G475" t="n">
         <v>91183000</v>
@@ -11395,7 +11395,7 @@
         <v>119.3899993896484</v>
       </c>
       <c r="F476" t="n">
-        <v>117.0098342895508</v>
+        <v>117.0098266601562</v>
       </c>
       <c r="G476" t="n">
         <v>74271000</v>
@@ -11487,7 +11487,7 @@
         <v>113.8499984741211</v>
       </c>
       <c r="F480" t="n">
-        <v>111.5802841186523</v>
+        <v>111.5802917480469</v>
       </c>
       <c r="G480" t="n">
         <v>127959300</v>
@@ -11510,7 +11510,7 @@
         <v>115.1699981689453</v>
       </c>
       <c r="F481" t="n">
-        <v>112.8739776611328</v>
+        <v>112.8739547729492</v>
       </c>
       <c r="G481" t="n">
         <v>113874200</v>
@@ -11533,7 +11533,7 @@
         <v>116.0299987792969</v>
       </c>
       <c r="F482" t="n">
-        <v>113.7168197631836</v>
+        <v>113.7168045043945</v>
       </c>
       <c r="G482" t="n">
         <v>76499200</v>
@@ -11579,7 +11579,7 @@
         <v>119.0500030517578</v>
       </c>
       <c r="F484" t="n">
-        <v>116.6766128540039</v>
+        <v>116.6766204833984</v>
       </c>
       <c r="G484" t="n">
         <v>169410200</v>
@@ -11602,7 +11602,7 @@
         <v>122.7200012207031</v>
       </c>
       <c r="F485" t="n">
-        <v>120.2734375</v>
+        <v>120.2734527587891</v>
       </c>
       <c r="G485" t="n">
         <v>127728200</v>
@@ -11625,7 +11625,7 @@
         <v>123.0800018310547</v>
       </c>
       <c r="F486" t="n">
-        <v>120.6262741088867</v>
+        <v>120.6262512207031</v>
       </c>
       <c r="G486" t="n">
         <v>89004200</v>
@@ -11648,7 +11648,7 @@
         <v>122.9400024414062</v>
       </c>
       <c r="F487" t="n">
-        <v>120.4890518188477</v>
+        <v>120.4890670776367</v>
       </c>
       <c r="G487" t="n">
         <v>78967600</v>
@@ -11671,7 +11671,7 @@
         <v>122.25</v>
       </c>
       <c r="F488" t="n">
-        <v>119.8128280639648</v>
+        <v>119.8128128051758</v>
       </c>
       <c r="G488" t="n">
         <v>78260400</v>
@@ -11694,7 +11694,7 @@
         <v>123.75</v>
       </c>
       <c r="F489" t="n">
-        <v>121.2829208374023</v>
+        <v>121.2829055786133</v>
       </c>
       <c r="G489" t="n">
         <v>86712000</v>
@@ -11717,7 +11717,7 @@
         <v>124.379997253418</v>
       </c>
       <c r="F490" t="n">
-        <v>121.9003601074219</v>
+        <v>121.9003524780273</v>
       </c>
       <c r="G490" t="n">
         <v>82225500</v>
@@ -11740,7 +11740,7 @@
         <v>121.7799987792969</v>
       </c>
       <c r="F491" t="n">
-        <v>119.3521881103516</v>
+        <v>119.352180480957</v>
       </c>
       <c r="G491" t="n">
         <v>115089200</v>
@@ -11763,7 +11763,7 @@
         <v>123.2399978637695</v>
       </c>
       <c r="F492" t="n">
-        <v>120.783073425293</v>
+        <v>120.7830657958984</v>
       </c>
       <c r="G492" t="n">
         <v>81312200</v>
@@ -11786,7 +11786,7 @@
         <v>122.4100036621094</v>
       </c>
       <c r="F493" t="n">
-        <v>119.9696350097656</v>
+        <v>119.969612121582</v>
       </c>
       <c r="G493" t="n">
         <v>86939800</v>
@@ -11809,7 +11809,7 @@
         <v>121.7799987792969</v>
       </c>
       <c r="F494" t="n">
-        <v>119.3521881103516</v>
+        <v>119.352180480957</v>
       </c>
       <c r="G494" t="n">
         <v>79184500</v>
@@ -11878,7 +11878,7 @@
         <v>128.6999969482422</v>
       </c>
       <c r="F497" t="n">
-        <v>126.1342315673828</v>
+        <v>126.1342163085938</v>
       </c>
       <c r="G497" t="n">
         <v>94359800</v>
@@ -11947,7 +11947,7 @@
         <v>131.8800048828125</v>
       </c>
       <c r="F500" t="n">
-        <v>129.2508087158203</v>
+        <v>129.2508392333984</v>
       </c>
       <c r="G500" t="n">
         <v>168904800</v>
@@ -11970,7 +11970,7 @@
         <v>130.9600067138672</v>
       </c>
       <c r="F501" t="n">
-        <v>128.3491973876953</v>
+        <v>128.3491668701172</v>
       </c>
       <c r="G501" t="n">
         <v>88223700</v>
@@ -11993,7 +11993,7 @@
         <v>131.9700012207031</v>
       </c>
       <c r="F502" t="n">
-        <v>129.3390350341797</v>
+        <v>129.3390502929688</v>
       </c>
       <c r="G502" t="n">
         <v>54930100</v>
@@ -12016,7 +12016,7 @@
         <v>136.6900024414062</v>
       </c>
       <c r="F503" t="n">
-        <v>133.9649353027344</v>
+        <v>133.9649047851562</v>
       </c>
       <c r="G503" t="n">
         <v>124486200</v>
@@ -12039,7 +12039,7 @@
         <v>134.8699951171875</v>
       </c>
       <c r="F504" t="n">
-        <v>132.1812133789062</v>
+        <v>132.1812286376953</v>
       </c>
       <c r="G504" t="n">
         <v>121047300</v>
@@ -12062,7 +12062,7 @@
         <v>133.7200012207031</v>
       </c>
       <c r="F505" t="n">
-        <v>131.0541381835938</v>
+        <v>131.0541534423828</v>
       </c>
       <c r="G505" t="n">
         <v>96452100</v>
@@ -12085,7 +12085,7 @@
         <v>132.6900024414062</v>
       </c>
       <c r="F506" t="n">
-        <v>130.044677734375</v>
+        <v>130.0446624755859</v>
       </c>
       <c r="G506" t="n">
         <v>99116600</v>
@@ -12108,7 +12108,7 @@
         <v>129.4100036621094</v>
       </c>
       <c r="F507" t="n">
-        <v>126.830078125</v>
+        <v>126.8300552368164</v>
       </c>
       <c r="G507" t="n">
         <v>143301900</v>
@@ -12131,7 +12131,7 @@
         <v>131.0099945068359</v>
       </c>
       <c r="F508" t="n">
-        <v>128.3981475830078</v>
+        <v>128.3981628417969</v>
       </c>
       <c r="G508" t="n">
         <v>97664900</v>
@@ -12154,7 +12154,7 @@
         <v>126.5999984741211</v>
       </c>
       <c r="F509" t="n">
-        <v>124.0760879516602</v>
+        <v>124.0760803222656</v>
       </c>
       <c r="G509" t="n">
         <v>155088000</v>
@@ -12177,7 +12177,7 @@
         <v>130.9199981689453</v>
       </c>
       <c r="F510" t="n">
-        <v>128.3099365234375</v>
+        <v>128.3099670410156</v>
       </c>
       <c r="G510" t="n">
         <v>109578200</v>
@@ -12200,7 +12200,7 @@
         <v>132.0500030517578</v>
       </c>
       <c r="F511" t="n">
-        <v>129.4174194335938</v>
+        <v>129.4174499511719</v>
       </c>
       <c r="G511" t="n">
         <v>105158200</v>
@@ -12223,7 +12223,7 @@
         <v>128.9799957275391</v>
       </c>
       <c r="F512" t="n">
-        <v>126.4086532592773</v>
+        <v>126.4086456298828</v>
       </c>
       <c r="G512" t="n">
         <v>100384500</v>
@@ -12246,7 +12246,7 @@
         <v>128.8000030517578</v>
       </c>
       <c r="F513" t="n">
-        <v>126.2322235107422</v>
+        <v>126.2322311401367</v>
       </c>
       <c r="G513" t="n">
         <v>91951100</v>
@@ -12269,7 +12269,7 @@
         <v>130.8899993896484</v>
       </c>
       <c r="F514" t="n">
-        <v>128.2805633544922</v>
+        <v>128.2805786132812</v>
       </c>
       <c r="G514" t="n">
         <v>88636800</v>
@@ -12292,7 +12292,7 @@
         <v>128.9100036621094</v>
       </c>
       <c r="F515" t="n">
-        <v>126.3400497436523</v>
+        <v>126.3400421142578</v>
       </c>
       <c r="G515" t="n">
         <v>90221800</v>
@@ -12338,7 +12338,7 @@
         <v>127.8300018310547</v>
       </c>
       <c r="F517" t="n">
-        <v>125.2815551757812</v>
+        <v>125.2815628051758</v>
       </c>
       <c r="G517" t="n">
         <v>90757300</v>
@@ -12361,7 +12361,7 @@
         <v>132.0299987792969</v>
       </c>
       <c r="F518" t="n">
-        <v>129.3978271484375</v>
+        <v>129.3978424072266</v>
       </c>
       <c r="G518" t="n">
         <v>104319500</v>
@@ -12384,7 +12384,7 @@
         <v>136.8699951171875</v>
       </c>
       <c r="F519" t="n">
-        <v>134.1413421630859</v>
+        <v>134.141357421875</v>
       </c>
       <c r="G519" t="n">
         <v>120150900</v>
@@ -12407,7 +12407,7 @@
         <v>139.0700073242188</v>
       </c>
       <c r="F520" t="n">
-        <v>136.2974853515625</v>
+        <v>136.2974700927734</v>
       </c>
       <c r="G520" t="n">
         <v>114459400</v>
@@ -12430,7 +12430,7 @@
         <v>142.9199981689453</v>
       </c>
       <c r="F521" t="n">
-        <v>140.0707397460938</v>
+        <v>140.0707244873047</v>
       </c>
       <c r="G521" t="n">
         <v>157611700</v>
@@ -12453,7 +12453,7 @@
         <v>143.1600036621094</v>
       </c>
       <c r="F522" t="n">
-        <v>140.3059844970703</v>
+        <v>140.3059692382812</v>
       </c>
       <c r="G522" t="n">
         <v>98390600</v>
@@ -12476,7 +12476,7 @@
         <v>142.0599975585938</v>
       </c>
       <c r="F523" t="n">
-        <v>139.2278594970703</v>
+        <v>139.2278747558594</v>
       </c>
       <c r="G523" t="n">
         <v>140843800</v>
@@ -12522,7 +12522,7 @@
         <v>131.9600067138672</v>
       </c>
       <c r="F525" t="n">
-        <v>129.3292388916016</v>
+        <v>129.3292694091797</v>
       </c>
       <c r="G525" t="n">
         <v>177523800</v>
@@ -12545,7 +12545,7 @@
         <v>134.1399993896484</v>
       </c>
       <c r="F526" t="n">
-        <v>131.4657592773438</v>
+        <v>131.4657897949219</v>
       </c>
       <c r="G526" t="n">
         <v>106239800</v>
@@ -12568,7 +12568,7 @@
         <v>134.9900054931641</v>
       </c>
       <c r="F527" t="n">
-        <v>132.298828125</v>
+        <v>132.2988433837891</v>
       </c>
       <c r="G527" t="n">
         <v>83305400</v>
@@ -12591,7 +12591,7 @@
         <v>133.9400024414062</v>
       </c>
       <c r="F528" t="n">
-        <v>131.2697601318359</v>
+        <v>131.2697143554688</v>
       </c>
       <c r="G528" t="n">
         <v>89880900</v>
@@ -12660,7 +12660,7 @@
         <v>136.9100036621094</v>
       </c>
       <c r="F531" t="n">
-        <v>134.3810577392578</v>
+        <v>134.3810729980469</v>
       </c>
       <c r="G531" t="n">
         <v>71297200</v>
@@ -12683,7 +12683,7 @@
         <v>136.0099945068359</v>
       </c>
       <c r="F532" t="n">
-        <v>133.4976806640625</v>
+        <v>133.4976654052734</v>
       </c>
       <c r="G532" t="n">
         <v>76774200</v>
@@ -12706,7 +12706,7 @@
         <v>135.3899993896484</v>
       </c>
       <c r="F533" t="n">
-        <v>132.8891448974609</v>
+        <v>132.8891143798828</v>
       </c>
       <c r="G533" t="n">
         <v>73046600</v>
@@ -12729,7 +12729,7 @@
         <v>135.1300048828125</v>
       </c>
       <c r="F534" t="n">
-        <v>132.6339416503906</v>
+        <v>132.6339569091797</v>
       </c>
       <c r="G534" t="n">
         <v>64280000</v>
@@ -12752,7 +12752,7 @@
         <v>135.3699951171875</v>
       </c>
       <c r="F535" t="n">
-        <v>132.8695220947266</v>
+        <v>132.8694915771484</v>
       </c>
       <c r="G535" t="n">
         <v>60145100</v>
@@ -12775,7 +12775,7 @@
         <v>133.1900024414062</v>
       </c>
       <c r="F536" t="n">
-        <v>130.7297668457031</v>
+        <v>130.7297821044922</v>
       </c>
       <c r="G536" t="n">
         <v>80576300</v>
@@ -12798,7 +12798,7 @@
         <v>130.8399963378906</v>
       </c>
       <c r="F537" t="n">
-        <v>128.4232025146484</v>
+        <v>128.4231719970703</v>
       </c>
       <c r="G537" t="n">
         <v>97918500</v>
@@ -12867,7 +12867,7 @@
         <v>126</v>
       </c>
       <c r="F540" t="n">
-        <v>123.6725769042969</v>
+        <v>123.6725845336914</v>
       </c>
       <c r="G540" t="n">
         <v>103916400</v>
@@ -12890,7 +12890,7 @@
         <v>125.8600006103516</v>
       </c>
       <c r="F541" t="n">
-        <v>123.5351638793945</v>
+        <v>123.5351715087891</v>
       </c>
       <c r="G541" t="n">
         <v>158273000</v>
@@ -12913,7 +12913,7 @@
         <v>125.3499984741211</v>
       </c>
       <c r="F542" t="n">
-        <v>123.0345916748047</v>
+        <v>123.0345840454102</v>
       </c>
       <c r="G542" t="n">
         <v>111039900</v>
@@ -12959,7 +12959,7 @@
         <v>121.2600021362305</v>
       </c>
       <c r="F544" t="n">
-        <v>119.0201187133789</v>
+        <v>119.0201568603516</v>
       </c>
       <c r="G544" t="n">
         <v>164560400</v>
@@ -12982,7 +12982,7 @@
         <v>127.7900009155273</v>
       </c>
       <c r="F545" t="n">
-        <v>125.4295196533203</v>
+        <v>125.4295272827148</v>
       </c>
       <c r="G545" t="n">
         <v>116307900</v>
@@ -13005,7 +13005,7 @@
         <v>125.120002746582</v>
       </c>
       <c r="F546" t="n">
-        <v>122.8088455200195</v>
+        <v>122.8088607788086</v>
       </c>
       <c r="G546" t="n">
         <v>102260900</v>
@@ -13051,7 +13051,7 @@
         <v>120.129997253418</v>
       </c>
       <c r="F548" t="n">
-        <v>117.9110107421875</v>
+        <v>117.911018371582</v>
       </c>
       <c r="G548" t="n">
         <v>178155000</v>
@@ -13074,7 +13074,7 @@
         <v>121.4199981689453</v>
       </c>
       <c r="F549" t="n">
-        <v>119.1771774291992</v>
+        <v>119.1771850585938</v>
       </c>
       <c r="G549" t="n">
         <v>153766600</v>
@@ -13120,7 +13120,7 @@
         <v>121.0899963378906</v>
       </c>
       <c r="F551" t="n">
-        <v>118.853271484375</v>
+        <v>118.8532867431641</v>
       </c>
       <c r="G551" t="n">
         <v>129525800</v>
@@ -13143,7 +13143,7 @@
         <v>119.9800033569336</v>
       </c>
       <c r="F552" t="n">
-        <v>117.763786315918</v>
+        <v>117.7637786865234</v>
       </c>
       <c r="G552" t="n">
         <v>111943300</v>
@@ -13166,7 +13166,7 @@
         <v>121.9599990844727</v>
       </c>
       <c r="F553" t="n">
-        <v>119.7072219848633</v>
+        <v>119.7072067260742</v>
       </c>
       <c r="G553" t="n">
         <v>103026500</v>
@@ -13189,7 +13189,7 @@
         <v>121.0299987792969</v>
       </c>
       <c r="F554" t="n">
-        <v>118.7943878173828</v>
+        <v>118.7943801879883</v>
       </c>
       <c r="G554" t="n">
         <v>88105100</v>
@@ -13235,7 +13235,7 @@
         <v>125.5699996948242</v>
       </c>
       <c r="F556" t="n">
-        <v>123.2505264282227</v>
+        <v>123.2505187988281</v>
       </c>
       <c r="G556" t="n">
         <v>115227900</v>
@@ -13258,7 +13258,7 @@
         <v>124.7600021362305</v>
       </c>
       <c r="F557" t="n">
-        <v>122.4555053710938</v>
+        <v>122.4554901123047</v>
       </c>
       <c r="G557" t="n">
         <v>111932600</v>
@@ -13281,7 +13281,7 @@
         <v>120.5299987792969</v>
       </c>
       <c r="F558" t="n">
-        <v>118.3036117553711</v>
+        <v>118.3036270141602</v>
       </c>
       <c r="G558" t="n">
         <v>121229700</v>
@@ -13304,7 +13304,7 @@
         <v>119.9899978637695</v>
       </c>
       <c r="F559" t="n">
-        <v>117.7735977172852</v>
+        <v>117.7735824584961</v>
       </c>
       <c r="G559" t="n">
         <v>185549500</v>
@@ -13327,7 +13327,7 @@
         <v>123.3899993896484</v>
       </c>
       <c r="F560" t="n">
-        <v>121.1108093261719</v>
+        <v>121.1107864379883</v>
       </c>
       <c r="G560" t="n">
         <v>111912300</v>
@@ -13350,7 +13350,7 @@
         <v>122.5400009155273</v>
       </c>
       <c r="F561" t="n">
-        <v>120.2765045166016</v>
+        <v>120.2764892578125</v>
       </c>
       <c r="G561" t="n">
         <v>95467100</v>
@@ -13373,7 +13373,7 @@
         <v>120.0899963378906</v>
       </c>
       <c r="F562" t="n">
-        <v>117.8717498779297</v>
+        <v>117.8717422485352</v>
       </c>
       <c r="G562" t="n">
         <v>88530500</v>
@@ -13419,7 +13419,7 @@
         <v>121.2099990844727</v>
       </c>
       <c r="F564" t="n">
-        <v>118.9710540771484</v>
+        <v>118.971061706543</v>
       </c>
       <c r="G564" t="n">
         <v>94071200</v>
@@ -13465,7 +13465,7 @@
         <v>119.9000015258789</v>
       </c>
       <c r="F566" t="n">
-        <v>117.6852645874023</v>
+        <v>117.6852493286133</v>
       </c>
       <c r="G566" t="n">
         <v>85671900</v>
@@ -13488,7 +13488,7 @@
         <v>122.1500015258789</v>
       </c>
       <c r="F567" t="n">
-        <v>119.8937149047852</v>
+        <v>119.8936996459961</v>
       </c>
       <c r="G567" t="n">
         <v>118323800</v>
@@ -13511,7 +13511,7 @@
         <v>123</v>
       </c>
       <c r="F568" t="n">
-        <v>120.7279968261719</v>
+        <v>120.7280197143555</v>
       </c>
       <c r="G568" t="n">
         <v>75089100</v>
@@ -13534,7 +13534,7 @@
         <v>125.9000015258789</v>
       </c>
       <c r="F569" t="n">
-        <v>123.5744400024414</v>
+        <v>123.5744476318359</v>
       </c>
       <c r="G569" t="n">
         <v>88651200</v>
@@ -13557,7 +13557,7 @@
         <v>126.2099990844727</v>
       </c>
       <c r="F570" t="n">
-        <v>123.8787002563477</v>
+        <v>123.8787078857422</v>
       </c>
       <c r="G570" t="n">
         <v>80171300</v>
@@ -13580,7 +13580,7 @@
         <v>127.9000015258789</v>
       </c>
       <c r="F571" t="n">
-        <v>125.5375137329102</v>
+        <v>125.537483215332</v>
       </c>
       <c r="G571" t="n">
         <v>83466700</v>
@@ -13603,7 +13603,7 @@
         <v>130.3600006103516</v>
       </c>
       <c r="F572" t="n">
-        <v>127.952033996582</v>
+        <v>127.9520645141602</v>
       </c>
       <c r="G572" t="n">
         <v>88844600</v>
@@ -13626,7 +13626,7 @@
         <v>133</v>
       </c>
       <c r="F573" t="n">
-        <v>130.5433044433594</v>
+        <v>130.5432891845703</v>
       </c>
       <c r="G573" t="n">
         <v>106686700</v>
@@ -13649,7 +13649,7 @@
         <v>131.2400054931641</v>
       </c>
       <c r="F574" t="n">
-        <v>128.8157958984375</v>
+        <v>128.8158111572266</v>
       </c>
       <c r="G574" t="n">
         <v>91420000</v>
@@ -13672,7 +13672,7 @@
         <v>134.4299926757812</v>
       </c>
       <c r="F575" t="n">
-        <v>131.9468536376953</v>
+        <v>131.9468688964844</v>
       </c>
       <c r="G575" t="n">
         <v>91266500</v>
@@ -13695,7 +13695,7 @@
         <v>132.0299987792969</v>
       </c>
       <c r="F576" t="n">
-        <v>129.5911865234375</v>
+        <v>129.5912322998047</v>
       </c>
       <c r="G576" t="n">
         <v>87222800</v>
@@ -13718,7 +13718,7 @@
         <v>134.5</v>
       </c>
       <c r="F577" t="n">
-        <v>132.0155639648438</v>
+        <v>132.0155792236328</v>
       </c>
       <c r="G577" t="n">
         <v>89347100</v>
@@ -13741,7 +13741,7 @@
         <v>134.1600036621094</v>
       </c>
       <c r="F578" t="n">
-        <v>131.681884765625</v>
+        <v>131.6818695068359</v>
       </c>
       <c r="G578" t="n">
         <v>84922400</v>
@@ -13764,7 +13764,7 @@
         <v>134.8399963378906</v>
       </c>
       <c r="F579" t="n">
-        <v>132.3492889404297</v>
+        <v>132.3493194580078</v>
       </c>
       <c r="G579" t="n">
         <v>94264200</v>
@@ -13787,7 +13787,7 @@
         <v>133.1100006103516</v>
       </c>
       <c r="F580" t="n">
-        <v>130.6512298583984</v>
+        <v>130.6512145996094</v>
       </c>
       <c r="G580" t="n">
         <v>94812300</v>
@@ -13810,7 +13810,7 @@
         <v>133.5</v>
       </c>
       <c r="F581" t="n">
-        <v>131.0340270996094</v>
+        <v>131.0340423583984</v>
       </c>
       <c r="G581" t="n">
         <v>68847100</v>
@@ -13856,7 +13856,7 @@
         <v>134.3200073242188</v>
       </c>
       <c r="F583" t="n">
-        <v>131.8389129638672</v>
+        <v>131.8388977050781</v>
       </c>
       <c r="G583" t="n">
         <v>78657500</v>
@@ -13879,7 +13879,7 @@
         <v>134.7200012207031</v>
       </c>
       <c r="F584" t="n">
-        <v>132.2315216064453</v>
+        <v>132.2315063476562</v>
       </c>
       <c r="G584" t="n">
         <v>66905100</v>
@@ -13902,7 +13902,7 @@
         <v>134.3899993896484</v>
       </c>
       <c r="F585" t="n">
-        <v>131.9076080322266</v>
+        <v>131.9075927734375</v>
       </c>
       <c r="G585" t="n">
         <v>66015800</v>
@@ -13948,7 +13948,7 @@
         <v>133.4799957275391</v>
       </c>
       <c r="F587" t="n">
-        <v>131.0144195556641</v>
+        <v>131.0144348144531</v>
       </c>
       <c r="G587" t="n">
         <v>151101000</v>
@@ -13994,7 +13994,7 @@
         <v>132.5399932861328</v>
       </c>
       <c r="F589" t="n">
-        <v>130.0917816162109</v>
+        <v>130.0917663574219</v>
       </c>
       <c r="G589" t="n">
         <v>75135100</v>
@@ -14040,7 +14040,7 @@
         <v>128.1000061035156</v>
       </c>
       <c r="F591" t="n">
-        <v>125.7338027954102</v>
+        <v>125.7337951660156</v>
       </c>
       <c r="G591" t="n">
         <v>84000900</v>
@@ -14063,7 +14063,7 @@
         <v>129.7400054931641</v>
       </c>
       <c r="F592" t="n">
-        <v>127.3434906005859</v>
+        <v>127.343505859375</v>
       </c>
       <c r="G592" t="n">
         <v>78128300</v>
@@ -14086,7 +14086,7 @@
         <v>130.2100067138672</v>
       </c>
       <c r="F593" t="n">
-        <v>128.0219421386719</v>
+        <v>128.0219116210938</v>
       </c>
       <c r="G593" t="n">
         <v>78973300</v>
@@ -14132,7 +14132,7 @@
         <v>125.9100036621094</v>
       </c>
       <c r="F595" t="n">
-        <v>123.7941741943359</v>
+        <v>123.7941665649414</v>
       </c>
       <c r="G595" t="n">
         <v>126142800</v>
@@ -14178,7 +14178,7 @@
         <v>124.9700012207031</v>
       </c>
       <c r="F597" t="n">
-        <v>122.8699645996094</v>
+        <v>122.8699569702148</v>
       </c>
       <c r="G597" t="n">
         <v>105861300</v>
@@ -14201,7 +14201,7 @@
         <v>127.4499969482422</v>
       </c>
       <c r="F598" t="n">
-        <v>125.3082809448242</v>
+        <v>125.3082885742188</v>
       </c>
       <c r="G598" t="n">
         <v>81918000</v>
@@ -14293,7 +14293,7 @@
         <v>127.3099975585938</v>
       </c>
       <c r="F602" t="n">
-        <v>125.1706390380859</v>
+        <v>125.1706466674805</v>
       </c>
       <c r="G602" t="n">
         <v>76857100</v>
@@ -14316,7 +14316,7 @@
         <v>125.4300003051758</v>
       </c>
       <c r="F603" t="n">
-        <v>123.3222427368164</v>
+        <v>123.3222198486328</v>
       </c>
       <c r="G603" t="n">
         <v>79295400</v>
@@ -14339,7 +14339,7 @@
         <v>127.0999984741211</v>
       </c>
       <c r="F604" t="n">
-        <v>124.9641723632812</v>
+        <v>124.9641799926758</v>
       </c>
       <c r="G604" t="n">
         <v>63092900</v>
@@ -14362,7 +14362,7 @@
         <v>126.9000015258789</v>
       </c>
       <c r="F605" t="n">
-        <v>124.7675323486328</v>
+        <v>124.7675399780273</v>
       </c>
       <c r="G605" t="n">
         <v>72009500</v>
@@ -14408,7 +14408,7 @@
         <v>125.2799987792969</v>
       </c>
       <c r="F607" t="n">
-        <v>123.1747589111328</v>
+        <v>123.1747436523438</v>
       </c>
       <c r="G607" t="n">
         <v>94625600</v>
@@ -14431,7 +14431,7 @@
         <v>124.6100006103516</v>
       </c>
       <c r="F608" t="n">
-        <v>122.5160217285156</v>
+        <v>122.5160140991211</v>
       </c>
       <c r="G608" t="n">
         <v>71311100</v>
@@ -14477,7 +14477,7 @@
         <v>125.0599975585938</v>
       </c>
       <c r="F610" t="n">
-        <v>122.9584579467773</v>
+        <v>122.9584350585938</v>
       </c>
       <c r="G610" t="n">
         <v>59278900</v>
@@ -14523,7 +14523,7 @@
         <v>125.8899993896484</v>
       </c>
       <c r="F612" t="n">
-        <v>123.7744903564453</v>
+        <v>123.7745132446289</v>
       </c>
       <c r="G612" t="n">
         <v>75169300</v>
@@ -14546,7 +14546,7 @@
         <v>125.9000015258789</v>
       </c>
       <c r="F613" t="n">
-        <v>123.7843322753906</v>
+        <v>123.7843475341797</v>
       </c>
       <c r="G613" t="n">
         <v>71057600</v>
@@ -14569,7 +14569,7 @@
         <v>126.7399978637695</v>
       </c>
       <c r="F614" t="n">
-        <v>124.6102142333984</v>
+        <v>124.6102066040039</v>
       </c>
       <c r="G614" t="n">
         <v>74403800</v>
@@ -14592,7 +14592,7 @@
         <v>127.129997253418</v>
       </c>
       <c r="F615" t="n">
-        <v>124.9936676025391</v>
+        <v>124.99365234375</v>
       </c>
       <c r="G615" t="n">
         <v>56877900</v>
@@ -14638,7 +14638,7 @@
         <v>127.3499984741211</v>
       </c>
       <c r="F617" t="n">
-        <v>125.2099838256836</v>
+        <v>125.2099685668945</v>
       </c>
       <c r="G617" t="n">
         <v>53522400</v>
@@ -14661,7 +14661,7 @@
         <v>130.4799957275391</v>
       </c>
       <c r="F618" t="n">
-        <v>128.287353515625</v>
+        <v>128.2873687744141</v>
       </c>
       <c r="G618" t="n">
         <v>96906500</v>
@@ -14684,7 +14684,7 @@
         <v>129.6399993896484</v>
       </c>
       <c r="F619" t="n">
-        <v>127.4615097045898</v>
+        <v>127.4614868164062</v>
       </c>
       <c r="G619" t="n">
         <v>62746300</v>
@@ -14707,7 +14707,7 @@
         <v>130.1499938964844</v>
       </c>
       <c r="F620" t="n">
-        <v>127.9628829956055</v>
+        <v>127.9628982543945</v>
       </c>
       <c r="G620" t="n">
         <v>91815000</v>
@@ -14730,7 +14730,7 @@
         <v>131.7899932861328</v>
       </c>
       <c r="F621" t="n">
-        <v>129.5753784179688</v>
+        <v>129.5753479003906</v>
       </c>
       <c r="G621" t="n">
         <v>96721700</v>
@@ -14753,7 +14753,7 @@
         <v>130.4600067138672</v>
       </c>
       <c r="F622" t="n">
-        <v>128.2677154541016</v>
+        <v>128.2677307128906</v>
       </c>
       <c r="G622" t="n">
         <v>108953300</v>
@@ -14776,7 +14776,7 @@
         <v>132.3000030517578</v>
       </c>
       <c r="F623" t="n">
-        <v>130.0767974853516</v>
+        <v>130.0767822265625</v>
       </c>
       <c r="G623" t="n">
         <v>79663300</v>
@@ -14799,7 +14799,7 @@
         <v>133.9799957275391</v>
       </c>
       <c r="F624" t="n">
-        <v>131.7285614013672</v>
+        <v>131.7285766601562</v>
       </c>
       <c r="G624" t="n">
         <v>74783600</v>
@@ -14845,7 +14845,7 @@
         <v>133.4100036621094</v>
       </c>
       <c r="F626" t="n">
-        <v>131.1681365966797</v>
+        <v>131.1681518554688</v>
       </c>
       <c r="G626" t="n">
         <v>68711000</v>
@@ -14868,7 +14868,7 @@
         <v>133.1100006103516</v>
       </c>
       <c r="F627" t="n">
-        <v>130.8731842041016</v>
+        <v>130.8731384277344</v>
       </c>
       <c r="G627" t="n">
         <v>70783700</v>
@@ -14891,7 +14891,7 @@
         <v>134.7799987792969</v>
       </c>
       <c r="F628" t="n">
-        <v>132.5150909423828</v>
+        <v>132.5151062011719</v>
       </c>
       <c r="G628" t="n">
         <v>62111300</v>
@@ -14937,7 +14937,7 @@
         <v>136.9600067138672</v>
       </c>
       <c r="F630" t="n">
-        <v>134.6584625244141</v>
+        <v>134.6584930419922</v>
       </c>
       <c r="G630" t="n">
         <v>63261400</v>
@@ -14983,7 +14983,7 @@
         <v>139.9600067138672</v>
       </c>
       <c r="F632" t="n">
-        <v>137.6080627441406</v>
+        <v>137.6080932617188</v>
       </c>
       <c r="G632" t="n">
         <v>78852600</v>
@@ -15006,7 +15006,7 @@
         <v>142.0200042724609</v>
       </c>
       <c r="F633" t="n">
-        <v>139.6334686279297</v>
+        <v>139.6334381103516</v>
       </c>
       <c r="G633" t="n">
         <v>108181800</v>
@@ -15029,7 +15029,7 @@
         <v>144.5700073242188</v>
       </c>
       <c r="F634" t="n">
-        <v>142.1406097412109</v>
+        <v>142.1405792236328</v>
       </c>
       <c r="G634" t="n">
         <v>104911600</v>
@@ -15052,7 +15052,7 @@
         <v>143.2400054931641</v>
       </c>
       <c r="F635" t="n">
-        <v>140.8329772949219</v>
+        <v>140.8329620361328</v>
       </c>
       <c r="G635" t="n">
         <v>105575500</v>
@@ -15075,7 +15075,7 @@
         <v>145.1100006103516</v>
       </c>
       <c r="F636" t="n">
-        <v>142.6715240478516</v>
+        <v>142.6715393066406</v>
       </c>
       <c r="G636" t="n">
         <v>99890800</v>
@@ -15098,7 +15098,7 @@
         <v>144.5</v>
       </c>
       <c r="F637" t="n">
-        <v>142.0717468261719</v>
+        <v>142.07177734375</v>
       </c>
       <c r="G637" t="n">
         <v>76299700</v>
@@ -15121,7 +15121,7 @@
         <v>145.6399993896484</v>
       </c>
       <c r="F638" t="n">
-        <v>143.1925964355469</v>
+        <v>143.192626953125</v>
       </c>
       <c r="G638" t="n">
         <v>100827100</v>
@@ -15144,7 +15144,7 @@
         <v>149.1499938964844</v>
       </c>
       <c r="F639" t="n">
-        <v>146.6436309814453</v>
+        <v>146.6436157226562</v>
       </c>
       <c r="G639" t="n">
         <v>127050800</v>
@@ -15190,7 +15190,7 @@
         <v>146.3899993896484</v>
       </c>
       <c r="F641" t="n">
-        <v>143.9299926757812</v>
+        <v>143.9300079345703</v>
       </c>
       <c r="G641" t="n">
         <v>93251400</v>
@@ -15213,7 +15213,7 @@
         <v>142.4499969482422</v>
       </c>
       <c r="F642" t="n">
-        <v>140.0562286376953</v>
+        <v>140.0562133789062</v>
       </c>
       <c r="G642" t="n">
         <v>121434600</v>
@@ -15236,7 +15236,7 @@
         <v>146.1499938964844</v>
       </c>
       <c r="F643" t="n">
-        <v>143.6940460205078</v>
+        <v>143.6940307617188</v>
       </c>
       <c r="G643" t="n">
         <v>96350000</v>
@@ -15259,7 +15259,7 @@
         <v>145.3999938964844</v>
       </c>
       <c r="F644" t="n">
-        <v>142.9566497802734</v>
+        <v>142.9566192626953</v>
       </c>
       <c r="G644" t="n">
         <v>74993500</v>
@@ -15282,7 +15282,7 @@
         <v>146.8000030517578</v>
       </c>
       <c r="F645" t="n">
-        <v>144.3331298828125</v>
+        <v>144.3331451416016</v>
       </c>
       <c r="G645" t="n">
         <v>77338200</v>
@@ -15305,7 +15305,7 @@
         <v>148.5599975585938</v>
       </c>
       <c r="F646" t="n">
-        <v>146.0635223388672</v>
+        <v>146.0635375976562</v>
       </c>
       <c r="G646" t="n">
         <v>71447400</v>
@@ -15351,7 +15351,7 @@
         <v>146.7700042724609</v>
       </c>
       <c r="F648" t="n">
-        <v>144.3036346435547</v>
+        <v>144.3036499023438</v>
       </c>
       <c r="G648" t="n">
         <v>104818600</v>
@@ -15374,7 +15374,7 @@
         <v>144.9799957275391</v>
       </c>
       <c r="F649" t="n">
-        <v>142.543701171875</v>
+        <v>142.5436706542969</v>
       </c>
       <c r="G649" t="n">
         <v>118931200</v>
@@ -15397,7 +15397,7 @@
         <v>145.6399993896484</v>
       </c>
       <c r="F650" t="n">
-        <v>143.1925964355469</v>
+        <v>143.192626953125</v>
       </c>
       <c r="G650" t="n">
         <v>56699500</v>
@@ -15443,7 +15443,7 @@
         <v>145.5200042724609</v>
       </c>
       <c r="F652" t="n">
-        <v>143.0746612548828</v>
+        <v>143.0746459960938</v>
       </c>
       <c r="G652" t="n">
         <v>62880000</v>
@@ -15466,7 +15466,7 @@
         <v>147.3600006103516</v>
       </c>
       <c r="F653" t="n">
-        <v>144.8837127685547</v>
+        <v>144.8837432861328</v>
       </c>
       <c r="G653" t="n">
         <v>64786600</v>
@@ -15489,7 +15489,7 @@
         <v>146.9499969482422</v>
       </c>
       <c r="F654" t="n">
-        <v>144.4805908203125</v>
+        <v>144.4806060791016</v>
       </c>
       <c r="G654" t="n">
         <v>56368300</v>
@@ -15535,7 +15535,7 @@
         <v>146.1399993896484</v>
       </c>
       <c r="F656" t="n">
-        <v>143.8994903564453</v>
+        <v>143.8994750976562</v>
       </c>
       <c r="G656" t="n">
         <v>54126800</v>
@@ -15558,7 +15558,7 @@
         <v>146.0899963378906</v>
       </c>
       <c r="F657" t="n">
-        <v>143.8502502441406</v>
+        <v>143.8502807617188</v>
       </c>
       <c r="G657" t="n">
         <v>48908700</v>
@@ -15604,7 +15604,7 @@
         <v>145.8600006103516</v>
       </c>
       <c r="F659" t="n">
-        <v>143.623779296875</v>
+        <v>143.6238250732422</v>
       </c>
       <c r="G659" t="n">
         <v>48493500</v>
@@ -15650,7 +15650,7 @@
         <v>149.1000061035156</v>
       </c>
       <c r="F661" t="n">
-        <v>146.8141174316406</v>
+        <v>146.8141021728516</v>
       </c>
       <c r="G661" t="n">
         <v>59375000</v>
@@ -15673,7 +15673,7 @@
         <v>151.1199951171875</v>
       </c>
       <c r="F662" t="n">
-        <v>148.8031311035156</v>
+        <v>148.8031158447266</v>
       </c>
       <c r="G662" t="n">
         <v>103296000</v>
@@ -15696,7 +15696,7 @@
         <v>150.1900024414062</v>
       </c>
       <c r="F663" t="n">
-        <v>147.8873901367188</v>
+        <v>147.8874206542969</v>
       </c>
       <c r="G663" t="n">
         <v>92229700</v>
@@ -15742,7 +15742,7 @@
         <v>146.6999969482422</v>
       </c>
       <c r="F665" t="n">
-        <v>144.450927734375</v>
+        <v>144.4508972167969</v>
       </c>
       <c r="G665" t="n">
         <v>86960300</v>
@@ -15788,7 +15788,7 @@
         <v>149.7100067138672</v>
       </c>
       <c r="F667" t="n">
-        <v>147.4147644042969</v>
+        <v>147.4147491455078</v>
       </c>
       <c r="G667" t="n">
         <v>60131800</v>
@@ -15811,7 +15811,7 @@
         <v>149.6199951171875</v>
       </c>
       <c r="F668" t="n">
-        <v>147.3261413574219</v>
+        <v>147.3261566162109</v>
       </c>
       <c r="G668" t="n">
         <v>48606400</v>
@@ -15834,7 +15834,7 @@
         <v>148.3600006103516</v>
       </c>
       <c r="F669" t="n">
-        <v>146.0854339599609</v>
+        <v>146.0854644775391</v>
       </c>
       <c r="G669" t="n">
         <v>58991300</v>
@@ -15926,7 +15926,7 @@
         <v>151.8300018310547</v>
       </c>
       <c r="F673" t="n">
-        <v>149.5022277832031</v>
+        <v>149.5022430419922</v>
       </c>
       <c r="G673" t="n">
         <v>86453100</v>
@@ -15949,7 +15949,7 @@
         <v>152.5099945068359</v>
       </c>
       <c r="F674" t="n">
-        <v>150.1718139648438</v>
+        <v>150.1718597412109</v>
       </c>
       <c r="G674" t="n">
         <v>80313700</v>
@@ -15972,7 +15972,7 @@
         <v>153.6499938964844</v>
       </c>
       <c r="F675" t="n">
-        <v>151.2943420410156</v>
+        <v>151.2943267822266</v>
       </c>
       <c r="G675" t="n">
         <v>71115500</v>
@@ -15995,7 +15995,7 @@
         <v>154.3000030517578</v>
       </c>
       <c r="F676" t="n">
-        <v>151.9343719482422</v>
+        <v>151.9343872070312</v>
       </c>
       <c r="G676" t="n">
         <v>57808700</v>
@@ -16018,7 +16018,7 @@
         <v>156.6900024414062</v>
       </c>
       <c r="F677" t="n">
-        <v>154.2877502441406</v>
+        <v>154.2877655029297</v>
       </c>
       <c r="G677" t="n">
         <v>82278300</v>
@@ -16041,7 +16041,7 @@
         <v>155.1100006103516</v>
       </c>
       <c r="F678" t="n">
-        <v>152.7319488525391</v>
+        <v>152.7319793701172</v>
       </c>
       <c r="G678" t="n">
         <v>74420200</v>
@@ -16064,7 +16064,7 @@
         <v>154.0700073242188</v>
       </c>
       <c r="F679" t="n">
-        <v>151.7079162597656</v>
+        <v>151.7079315185547</v>
       </c>
       <c r="G679" t="n">
         <v>57305700</v>
@@ -16087,7 +16087,7 @@
         <v>148.9700012207031</v>
       </c>
       <c r="F680" t="n">
-        <v>146.6861114501953</v>
+        <v>146.6860961914062</v>
       </c>
       <c r="G680" t="n">
         <v>140893200</v>
@@ -16110,7 +16110,7 @@
         <v>149.5500030517578</v>
       </c>
       <c r="F681" t="n">
-        <v>147.2572021484375</v>
+        <v>147.2572174072266</v>
       </c>
       <c r="G681" t="n">
         <v>102404300</v>
@@ -16133,7 +16133,7 @@
         <v>148.1199951171875</v>
       </c>
       <c r="F682" t="n">
-        <v>145.8491058349609</v>
+        <v>145.8491516113281</v>
       </c>
       <c r="G682" t="n">
         <v>109296300</v>
@@ -16156,7 +16156,7 @@
         <v>149.0299987792969</v>
       </c>
       <c r="F683" t="n">
-        <v>146.7451782226562</v>
+        <v>146.7451934814453</v>
       </c>
       <c r="G683" t="n">
         <v>83281300</v>
@@ -16202,7 +16202,7 @@
         <v>146.0599975585938</v>
       </c>
       <c r="F685" t="n">
-        <v>143.8207092285156</v>
+        <v>143.8207244873047</v>
       </c>
       <c r="G685" t="n">
         <v>129868800</v>
@@ -16225,7 +16225,7 @@
         <v>142.9400024414062</v>
       </c>
       <c r="F686" t="n">
-        <v>140.7485504150391</v>
+        <v>140.74853515625</v>
       </c>
       <c r="G686" t="n">
         <v>123478900</v>
@@ -16271,7 +16271,7 @@
         <v>145.8500061035156</v>
       </c>
       <c r="F688" t="n">
-        <v>143.6139373779297</v>
+        <v>143.6139678955078</v>
       </c>
       <c r="G688" t="n">
         <v>76404300</v>
@@ -16294,7 +16294,7 @@
         <v>146.8300018310547</v>
       </c>
       <c r="F689" t="n">
-        <v>144.5789184570312</v>
+        <v>144.5789031982422</v>
       </c>
       <c r="G689" t="n">
         <v>64838200</v>
@@ -16317,7 +16317,7 @@
         <v>146.9199981689453</v>
       </c>
       <c r="F690" t="n">
-        <v>144.6675415039062</v>
+        <v>144.6675262451172</v>
       </c>
       <c r="G690" t="n">
         <v>53477900</v>
@@ -16340,7 +16340,7 @@
         <v>145.3699951171875</v>
       </c>
       <c r="F691" t="n">
-        <v>143.1412811279297</v>
+        <v>143.1413269042969</v>
       </c>
       <c r="G691" t="n">
         <v>74150700</v>
@@ -16363,7 +16363,7 @@
         <v>141.9100036621094</v>
       </c>
       <c r="F692" t="n">
-        <v>139.7343292236328</v>
+        <v>139.7343597412109</v>
       </c>
       <c r="G692" t="n">
         <v>108972300</v>
@@ -16409,7 +16409,7 @@
         <v>141.5</v>
       </c>
       <c r="F694" t="n">
-        <v>139.3305969238281</v>
+        <v>139.3306274414062</v>
       </c>
       <c r="G694" t="n">
         <v>89056700</v>
@@ -16432,7 +16432,7 @@
         <v>142.6499938964844</v>
       </c>
       <c r="F695" t="n">
-        <v>140.4629974365234</v>
+        <v>140.4629821777344</v>
       </c>
       <c r="G695" t="n">
         <v>94639600</v>
@@ -16455,7 +16455,7 @@
         <v>139.1399993896484</v>
       </c>
       <c r="F696" t="n">
-        <v>137.0067901611328</v>
+        <v>137.0068206787109</v>
       </c>
       <c r="G696" t="n">
         <v>98322000</v>
@@ -16478,7 +16478,7 @@
         <v>141.1100006103516</v>
       </c>
       <c r="F697" t="n">
-        <v>138.9466247558594</v>
+        <v>138.9465942382812</v>
       </c>
       <c r="G697" t="n">
         <v>80861100</v>
@@ -16501,7 +16501,7 @@
         <v>142</v>
       </c>
       <c r="F698" t="n">
-        <v>139.8229370117188</v>
+        <v>139.8229522705078</v>
       </c>
       <c r="G698" t="n">
         <v>83221100</v>
@@ -16524,7 +16524,7 @@
         <v>143.2899932861328</v>
       </c>
       <c r="F699" t="n">
-        <v>141.0931701660156</v>
+        <v>141.0931549072266</v>
       </c>
       <c r="G699" t="n">
         <v>61732700</v>
@@ -16593,7 +16593,7 @@
         <v>141.5099945068359</v>
       </c>
       <c r="F702" t="n">
-        <v>139.3404846191406</v>
+        <v>139.3404541015625</v>
       </c>
       <c r="G702" t="n">
         <v>73035900</v>
@@ -16616,7 +16616,7 @@
         <v>140.9100036621094</v>
       </c>
       <c r="F703" t="n">
-        <v>138.7496795654297</v>
+        <v>138.7496643066406</v>
       </c>
       <c r="G703" t="n">
         <v>78762700</v>
@@ -16685,7 +16685,7 @@
         <v>146.5500030517578</v>
       </c>
       <c r="F706" t="n">
-        <v>144.3031921386719</v>
+        <v>144.3032531738281</v>
       </c>
       <c r="G706" t="n">
         <v>85589200</v>
@@ -16731,7 +16731,7 @@
         <v>149.2599945068359</v>
       </c>
       <c r="F708" t="n">
-        <v>146.9716491699219</v>
+        <v>146.9716339111328</v>
       </c>
       <c r="G708" t="n">
         <v>58418800</v>
@@ -16800,7 +16800,7 @@
         <v>148.6399993896484</v>
       </c>
       <c r="F711" t="n">
-        <v>146.3611755371094</v>
+        <v>146.3611602783203</v>
       </c>
       <c r="G711" t="n">
         <v>50720600</v>
@@ -16823,7 +16823,7 @@
         <v>149.3200073242188</v>
       </c>
       <c r="F712" t="n">
-        <v>147.0307159423828</v>
+        <v>147.0307312011719</v>
       </c>
       <c r="G712" t="n">
         <v>60893400</v>
@@ -16869,7 +16869,7 @@
         <v>152.5700073242188</v>
       </c>
       <c r="F714" t="n">
-        <v>150.2308959960938</v>
+        <v>150.2309265136719</v>
       </c>
       <c r="G714" t="n">
         <v>100077900</v>
@@ -16892,7 +16892,7 @@
         <v>149.8000030517578</v>
       </c>
       <c r="F715" t="n">
-        <v>147.5034027099609</v>
+        <v>147.5033874511719</v>
       </c>
       <c r="G715" t="n">
         <v>124953200</v>
@@ -16915,7 +16915,7 @@
         <v>148.9600067138672</v>
       </c>
       <c r="F716" t="n">
-        <v>146.6762542724609</v>
+        <v>146.67626953125</v>
       </c>
       <c r="G716" t="n">
         <v>74588300</v>
@@ -16938,7 +16938,7 @@
         <v>150.0200042724609</v>
       </c>
       <c r="F717" t="n">
-        <v>147.7200164794922</v>
+        <v>147.7200317382812</v>
       </c>
       <c r="G717" t="n">
         <v>69122000</v>
@@ -16961,7 +16961,7 @@
         <v>151.4900054931641</v>
       </c>
       <c r="F718" t="n">
-        <v>149.16748046875</v>
+        <v>149.1674652099609</v>
       </c>
       <c r="G718" t="n">
         <v>54511500</v>
@@ -16984,7 +16984,7 @@
         <v>150.9600067138672</v>
       </c>
       <c r="F719" t="n">
-        <v>148.6456146240234</v>
+        <v>148.6455841064453</v>
       </c>
       <c r="G719" t="n">
         <v>60394600</v>
@@ -17007,7 +17007,7 @@
         <v>151.2799987792969</v>
       </c>
       <c r="F720" t="n">
-        <v>149.1781005859375</v>
+        <v>149.1780853271484</v>
       </c>
       <c r="G720" t="n">
         <v>65463900</v>
@@ -17030,7 +17030,7 @@
         <v>150.4400024414062</v>
       </c>
       <c r="F721" t="n">
-        <v>148.3497314453125</v>
+        <v>148.3497772216797</v>
       </c>
       <c r="G721" t="n">
         <v>55020900</v>
@@ -17076,7 +17076,7 @@
         <v>147.9199981689453</v>
       </c>
       <c r="F723" t="n">
-        <v>145.8647766113281</v>
+        <v>145.8647613525391</v>
       </c>
       <c r="G723" t="n">
         <v>65187100</v>
@@ -17099,7 +17099,7 @@
         <v>147.8699951171875</v>
       </c>
       <c r="F724" t="n">
-        <v>145.8154449462891</v>
+        <v>145.8154754638672</v>
       </c>
       <c r="G724" t="n">
         <v>41000000</v>
@@ -17122,7 +17122,7 @@
         <v>149.9900054931641</v>
       </c>
       <c r="F725" t="n">
-        <v>147.9059906005859</v>
+        <v>147.906005859375</v>
       </c>
       <c r="G725" t="n">
         <v>63804000</v>
@@ -17145,7 +17145,7 @@
         <v>150</v>
       </c>
       <c r="F726" t="n">
-        <v>147.9158477783203</v>
+        <v>147.9158782958984</v>
       </c>
       <c r="G726" t="n">
         <v>59222800</v>
@@ -17168,7 +17168,7 @@
         <v>151</v>
       </c>
       <c r="F727" t="n">
-        <v>148.9019775390625</v>
+        <v>148.9019622802734</v>
       </c>
       <c r="G727" t="n">
         <v>59256200</v>
@@ -17191,7 +17191,7 @@
         <v>153.4900054931641</v>
       </c>
       <c r="F728" t="n">
-        <v>151.3573760986328</v>
+        <v>151.357421875</v>
       </c>
       <c r="G728" t="n">
         <v>88807000</v>
@@ -17214,7 +17214,7 @@
         <v>157.8699951171875</v>
       </c>
       <c r="F729" t="n">
-        <v>155.676513671875</v>
+        <v>155.6765289306641</v>
       </c>
       <c r="G729" t="n">
         <v>137827700</v>
@@ -17237,7 +17237,7 @@
         <v>160.5500030517578</v>
       </c>
       <c r="F730" t="n">
-        <v>158.3193054199219</v>
+        <v>158.3192901611328</v>
       </c>
       <c r="G730" t="n">
         <v>117305600</v>
@@ -17260,7 +17260,7 @@
         <v>161.0200042724609</v>
       </c>
       <c r="F731" t="n">
-        <v>158.7827758789062</v>
+        <v>158.7827606201172</v>
       </c>
       <c r="G731" t="n">
         <v>117467900</v>
@@ -17306,7 +17306,7 @@
         <v>161.9400024414062</v>
       </c>
       <c r="F733" t="n">
-        <v>159.6899719238281</v>
+        <v>159.6899871826172</v>
       </c>
       <c r="G733" t="n">
         <v>69463600</v>
@@ -17329,7 +17329,7 @@
         <v>156.8099975585938</v>
       </c>
       <c r="F734" t="n">
-        <v>154.6312255859375</v>
+        <v>154.6312408447266</v>
       </c>
       <c r="G734" t="n">
         <v>76959800</v>
@@ -17352,7 +17352,7 @@
         <v>160.2400054931641</v>
       </c>
       <c r="F735" t="n">
-        <v>158.0135955810547</v>
+        <v>158.0136260986328</v>
       </c>
       <c r="G735" t="n">
         <v>88748200</v>
@@ -17375,7 +17375,7 @@
         <v>165.3000030517578</v>
       </c>
       <c r="F736" t="n">
-        <v>163.0032958984375</v>
+        <v>163.0032806396484</v>
       </c>
       <c r="G736" t="n">
         <v>174048100</v>
@@ -17398,7 +17398,7 @@
         <v>164.7700042724609</v>
       </c>
       <c r="F737" t="n">
-        <v>162.4806671142578</v>
+        <v>162.4806518554688</v>
       </c>
       <c r="G737" t="n">
         <v>152052500</v>
@@ -17421,7 +17421,7 @@
         <v>163.7599945068359</v>
       </c>
       <c r="F738" t="n">
-        <v>161.4846954345703</v>
+        <v>161.4846649169922</v>
       </c>
       <c r="G738" t="n">
         <v>136739200</v>
@@ -17467,7 +17467,7 @@
         <v>165.3200073242188</v>
       </c>
       <c r="F740" t="n">
-        <v>163.0230255126953</v>
+        <v>163.0230102539062</v>
       </c>
       <c r="G740" t="n">
         <v>107497000</v>
@@ -17490,7 +17490,7 @@
         <v>171.1799926757812</v>
       </c>
       <c r="F741" t="n">
-        <v>168.8016052246094</v>
+        <v>168.8015899658203</v>
       </c>
       <c r="G741" t="n">
         <v>120405400</v>
@@ -17513,7 +17513,7 @@
         <v>175.0800018310547</v>
       </c>
       <c r="F742" t="n">
-        <v>172.6474304199219</v>
+        <v>172.6473693847656</v>
       </c>
       <c r="G742" t="n">
         <v>116998900</v>
@@ -17536,7 +17536,7 @@
         <v>174.5599975585938</v>
       </c>
       <c r="F743" t="n">
-        <v>172.1346588134766</v>
+        <v>172.1346282958984</v>
       </c>
       <c r="G743" t="n">
         <v>108923700</v>
@@ -17559,7 +17559,7 @@
         <v>179.4499969482422</v>
       </c>
       <c r="F744" t="n">
-        <v>176.9566955566406</v>
+        <v>176.9566802978516</v>
       </c>
       <c r="G744" t="n">
         <v>115402700</v>
@@ -17582,7 +17582,7 @@
         <v>175.7400054931641</v>
       </c>
       <c r="F745" t="n">
-        <v>173.2982330322266</v>
+        <v>173.2982482910156</v>
       </c>
       <c r="G745" t="n">
         <v>153237000</v>
@@ -17628,7 +17628,7 @@
         <v>179.3000030517578</v>
       </c>
       <c r="F747" t="n">
-        <v>176.8087615966797</v>
+        <v>176.8087768554688</v>
       </c>
       <c r="G747" t="n">
         <v>131063300</v>
@@ -17651,7 +17651,7 @@
         <v>172.2599945068359</v>
       </c>
       <c r="F748" t="n">
-        <v>169.8665924072266</v>
+        <v>169.8665771484375</v>
       </c>
       <c r="G748" t="n">
         <v>150185800</v>
@@ -17743,7 +17743,7 @@
         <v>175.6399993896484</v>
       </c>
       <c r="F752" t="n">
-        <v>173.1996307373047</v>
+        <v>173.1996459960938</v>
       </c>
       <c r="G752" t="n">
         <v>92135300</v>
@@ -17789,7 +17789,7 @@
         <v>180.3300018310547</v>
       </c>
       <c r="F754" t="n">
-        <v>177.824462890625</v>
+        <v>177.8244323730469</v>
       </c>
       <c r="G754" t="n">
         <v>74919600</v>
@@ -17812,7 +17812,7 @@
         <v>179.2899932861328</v>
       </c>
       <c r="F755" t="n">
-        <v>176.7989044189453</v>
+        <v>176.7989196777344</v>
       </c>
       <c r="G755" t="n">
         <v>79144300</v>
@@ -17835,7 +17835,7 @@
         <v>179.3800048828125</v>
       </c>
       <c r="F756" t="n">
-        <v>176.8876953125</v>
+        <v>176.8876647949219</v>
       </c>
       <c r="G756" t="n">
         <v>62348900</v>
@@ -17881,7 +17881,7 @@
         <v>177.5700073242188</v>
       </c>
       <c r="F758" t="n">
-        <v>175.1027984619141</v>
+        <v>175.1028137207031</v>
       </c>
       <c r="G758" t="n">
         <v>64062300</v>
@@ -17904,7 +17904,7 @@
         <v>182.0099945068359</v>
       </c>
       <c r="F759" t="n">
-        <v>179.4811248779297</v>
+        <v>179.4811096191406</v>
       </c>
       <c r="G759" t="n">
         <v>104487900</v>
@@ -17927,7 +17927,7 @@
         <v>179.6999969482422</v>
       </c>
       <c r="F760" t="n">
-        <v>177.2032012939453</v>
+        <v>177.2032318115234</v>
       </c>
       <c r="G760" t="n">
         <v>99310400</v>
@@ -17950,7 +17950,7 @@
         <v>174.9199981689453</v>
       </c>
       <c r="F761" t="n">
-        <v>172.4896392822266</v>
+        <v>172.4896087646484</v>
       </c>
       <c r="G761" t="n">
         <v>94537600</v>
@@ -17973,7 +17973,7 @@
         <v>172</v>
       </c>
       <c r="F762" t="n">
-        <v>169.6101989746094</v>
+        <v>169.6102142333984</v>
       </c>
       <c r="G762" t="n">
         <v>96904000</v>
@@ -17996,7 +17996,7 @@
         <v>172.1699981689453</v>
       </c>
       <c r="F763" t="n">
-        <v>169.7778167724609</v>
+        <v>169.7778625488281</v>
       </c>
       <c r="G763" t="n">
         <v>86709100</v>
@@ -18019,7 +18019,7 @@
         <v>172.1900024414062</v>
       </c>
       <c r="F764" t="n">
-        <v>169.7975311279297</v>
+        <v>169.7975769042969</v>
       </c>
       <c r="G764" t="n">
         <v>106765600</v>
@@ -18042,7 +18042,7 @@
         <v>175.0800018310547</v>
       </c>
       <c r="F765" t="n">
-        <v>172.6474304199219</v>
+        <v>172.6473693847656</v>
       </c>
       <c r="G765" t="n">
         <v>76138300</v>
@@ -18065,7 +18065,7 @@
         <v>175.5299987792969</v>
       </c>
       <c r="F766" t="n">
-        <v>173.0911560058594</v>
+        <v>173.0911712646484</v>
       </c>
       <c r="G766" t="n">
         <v>74805200</v>
@@ -18088,7 +18088,7 @@
         <v>172.1900024414062</v>
       </c>
       <c r="F767" t="n">
-        <v>169.7975311279297</v>
+        <v>169.7975769042969</v>
       </c>
       <c r="G767" t="n">
         <v>84505800</v>
@@ -18134,7 +18134,7 @@
         <v>169.8000030517578</v>
       </c>
       <c r="F769" t="n">
-        <v>167.4407501220703</v>
+        <v>167.4407653808594</v>
       </c>
       <c r="G769" t="n">
         <v>90956700</v>
@@ -18203,7 +18203,7 @@
         <v>162.4100036621094</v>
       </c>
       <c r="F772" t="n">
-        <v>160.1534423828125</v>
+        <v>160.1534729003906</v>
       </c>
       <c r="G772" t="n">
         <v>122848900</v>
@@ -18226,7 +18226,7 @@
         <v>161.6199951171875</v>
       </c>
       <c r="F773" t="n">
-        <v>159.3744049072266</v>
+        <v>159.3744201660156</v>
       </c>
       <c r="G773" t="n">
         <v>162294600</v>
@@ -18272,7 +18272,7 @@
         <v>159.6900024414062</v>
       </c>
       <c r="F775" t="n">
-        <v>157.4712677001953</v>
+        <v>157.4712066650391</v>
       </c>
       <c r="G775" t="n">
         <v>108275300</v>
@@ -18318,7 +18318,7 @@
         <v>170.3300018310547</v>
       </c>
       <c r="F777" t="n">
-        <v>167.9633941650391</v>
+        <v>167.9634246826172</v>
       </c>
       <c r="G777" t="n">
         <v>179935700</v>
@@ -18364,7 +18364,7 @@
         <v>174.6100006103516</v>
       </c>
       <c r="F779" t="n">
-        <v>172.1839294433594</v>
+        <v>172.1839447021484</v>
       </c>
       <c r="G779" t="n">
         <v>86213900</v>
@@ -18387,7 +18387,7 @@
         <v>175.8399963378906</v>
       </c>
       <c r="F780" t="n">
-        <v>173.3968200683594</v>
+        <v>173.3968353271484</v>
       </c>
       <c r="G780" t="n">
         <v>84914300</v>
@@ -18410,7 +18410,7 @@
         <v>172.8999938964844</v>
       </c>
       <c r="F781" t="n">
-        <v>170.4977111816406</v>
+        <v>170.4976806640625</v>
       </c>
       <c r="G781" t="n">
         <v>89418100</v>
@@ -18433,7 +18433,7 @@
         <v>172.3899993896484</v>
       </c>
       <c r="F782" t="n">
-        <v>170.2113494873047</v>
+        <v>170.2113800048828</v>
       </c>
       <c r="G782" t="n">
         <v>82465400</v>
@@ -18525,7 +18525,7 @@
         <v>172.1199951171875</v>
       </c>
       <c r="F786" t="n">
-        <v>169.9447784423828</v>
+        <v>169.9447631835938</v>
       </c>
       <c r="G786" t="n">
         <v>90865900</v>
@@ -18548,7 +18548,7 @@
         <v>168.6399993896484</v>
       </c>
       <c r="F787" t="n">
-        <v>166.5087738037109</v>
+        <v>166.5087585449219</v>
       </c>
       <c r="G787" t="n">
         <v>98670700</v>
@@ -18571,7 +18571,7 @@
         <v>168.8800048828125</v>
       </c>
       <c r="F788" t="n">
-        <v>166.7457580566406</v>
+        <v>166.7457122802734</v>
       </c>
       <c r="G788" t="n">
         <v>86185500</v>
@@ -18594,7 +18594,7 @@
         <v>172.7899932861328</v>
       </c>
       <c r="F789" t="n">
-        <v>170.6063079833984</v>
+        <v>170.6063232421875</v>
       </c>
       <c r="G789" t="n">
         <v>62527400</v>
@@ -18617,7 +18617,7 @@
         <v>172.5500030517578</v>
       </c>
       <c r="F790" t="n">
-        <v>170.3693695068359</v>
+        <v>170.3693237304688</v>
       </c>
       <c r="G790" t="n">
         <v>61177400</v>
@@ -18640,7 +18640,7 @@
         <v>168.8800048828125</v>
       </c>
       <c r="F791" t="n">
-        <v>166.7457580566406</v>
+        <v>166.7457122802734</v>
       </c>
       <c r="G791" t="n">
         <v>69589300</v>
@@ -18709,7 +18709,7 @@
         <v>160.0700073242188</v>
       </c>
       <c r="F794" t="n">
-        <v>158.0470428466797</v>
+        <v>158.0470733642578</v>
       </c>
       <c r="G794" t="n">
         <v>90009200</v>
@@ -18732,7 +18732,7 @@
         <v>162.7400054931641</v>
       </c>
       <c r="F795" t="n">
-        <v>160.6833190917969</v>
+        <v>160.6833343505859</v>
       </c>
       <c r="G795" t="n">
         <v>141147500</v>
@@ -18755,7 +18755,7 @@
         <v>164.8500061035156</v>
       </c>
       <c r="F796" t="n">
-        <v>162.7666473388672</v>
+        <v>162.7666625976562</v>
       </c>
       <c r="G796" t="n">
         <v>91974200</v>
@@ -18778,7 +18778,7 @@
         <v>165.1199951171875</v>
       </c>
       <c r="F797" t="n">
-        <v>163.0332336425781</v>
+        <v>163.0332183837891</v>
       </c>
       <c r="G797" t="n">
         <v>95056600</v>
@@ -18824,7 +18824,7 @@
         <v>166.5599975585938</v>
       </c>
       <c r="F799" t="n">
-        <v>164.4550323486328</v>
+        <v>164.4550476074219</v>
       </c>
       <c r="G799" t="n">
         <v>79724800</v>
@@ -18870,7 +18870,7 @@
         <v>163.1699981689453</v>
       </c>
       <c r="F801" t="n">
-        <v>161.1078796386719</v>
+        <v>161.1078948974609</v>
       </c>
       <c r="G801" t="n">
         <v>83737200</v>
@@ -18893,7 +18893,7 @@
         <v>159.3000030517578</v>
       </c>
       <c r="F802" t="n">
-        <v>157.2868041992188</v>
+        <v>157.2868194580078</v>
       </c>
       <c r="G802" t="n">
         <v>96418800</v>
@@ -18916,7 +18916,7 @@
         <v>157.4400024414062</v>
       </c>
       <c r="F803" t="n">
-        <v>155.4503021240234</v>
+        <v>155.4502868652344</v>
       </c>
       <c r="G803" t="n">
         <v>131148300</v>
@@ -18939,7 +18939,7 @@
         <v>162.9499969482422</v>
       </c>
       <c r="F804" t="n">
-        <v>160.8906555175781</v>
+        <v>160.8906707763672</v>
       </c>
       <c r="G804" t="n">
         <v>91454900</v>
@@ -18962,7 +18962,7 @@
         <v>158.5200042724609</v>
       </c>
       <c r="F805" t="n">
-        <v>156.5166778564453</v>
+        <v>156.5166473388672</v>
       </c>
       <c r="G805" t="n">
         <v>105342000</v>
@@ -18985,7 +18985,7 @@
         <v>154.7299957275391</v>
       </c>
       <c r="F806" t="n">
-        <v>152.7745513916016</v>
+        <v>152.7745208740234</v>
       </c>
       <c r="G806" t="n">
         <v>96970100</v>
@@ -19008,7 +19008,7 @@
         <v>150.6199951171875</v>
       </c>
       <c r="F807" t="n">
-        <v>148.7164764404297</v>
+        <v>148.7164916992188</v>
       </c>
       <c r="G807" t="n">
         <v>108732100</v>
@@ -19031,7 +19031,7 @@
         <v>155.0899963378906</v>
       </c>
       <c r="F808" t="n">
-        <v>153.1299743652344</v>
+        <v>153.1299896240234</v>
       </c>
       <c r="G808" t="n">
         <v>92964300</v>
@@ -19054,7 +19054,7 @@
         <v>159.5899963378906</v>
       </c>
       <c r="F809" t="n">
-        <v>157.5731506347656</v>
+        <v>157.5731201171875</v>
       </c>
       <c r="G809" t="n">
         <v>102300200</v>
@@ -19100,7 +19100,7 @@
         <v>163.9799957275391</v>
       </c>
       <c r="F811" t="n">
-        <v>161.9076690673828</v>
+        <v>161.9076538085938</v>
       </c>
       <c r="G811" t="n">
         <v>123511700</v>
@@ -19123,7 +19123,7 @@
         <v>165.3800048828125</v>
       </c>
       <c r="F812" t="n">
-        <v>163.2899627685547</v>
+        <v>163.2899780273438</v>
       </c>
       <c r="G812" t="n">
         <v>95811400</v>
@@ -19146,7 +19146,7 @@
         <v>168.8200073242188</v>
       </c>
       <c r="F813" t="n">
-        <v>166.6865234375</v>
+        <v>166.6865081787109</v>
       </c>
       <c r="G813" t="n">
         <v>81532000</v>
@@ -19192,7 +19192,7 @@
         <v>174.0700073242188</v>
       </c>
       <c r="F815" t="n">
-        <v>171.8701477050781</v>
+        <v>171.8701324462891</v>
       </c>
       <c r="G815" t="n">
         <v>90131400</v>
@@ -19238,7 +19238,7 @@
         <v>175.6000061035156</v>
       </c>
       <c r="F817" t="n">
-        <v>173.3808135986328</v>
+        <v>173.3807983398438</v>
       </c>
       <c r="G817" t="n">
         <v>90371900</v>
@@ -19261,7 +19261,7 @@
         <v>178.9600067138672</v>
       </c>
       <c r="F818" t="n">
-        <v>176.6983489990234</v>
+        <v>176.6983337402344</v>
       </c>
       <c r="G818" t="n">
         <v>100589400</v>
@@ -19284,7 +19284,7 @@
         <v>177.7700042724609</v>
       </c>
       <c r="F819" t="n">
-        <v>175.5233917236328</v>
+        <v>175.5233764648438</v>
       </c>
       <c r="G819" t="n">
         <v>92633200</v>
@@ -19307,7 +19307,7 @@
         <v>174.6100006103516</v>
       </c>
       <c r="F820" t="n">
-        <v>172.4033050537109</v>
+        <v>172.4033203125</v>
       </c>
       <c r="G820" t="n">
         <v>103049300</v>
@@ -19399,7 +19399,7 @@
         <v>171.8300018310547</v>
       </c>
       <c r="F824" t="n">
-        <v>169.658447265625</v>
+        <v>169.6584625244141</v>
       </c>
       <c r="G824" t="n">
         <v>89058800</v>
@@ -19422,7 +19422,7 @@
         <v>172.1399993896484</v>
       </c>
       <c r="F825" t="n">
-        <v>169.9645233154297</v>
+        <v>169.9645080566406</v>
       </c>
       <c r="G825" t="n">
         <v>77594700</v>
@@ -19468,7 +19468,7 @@
         <v>165.75</v>
       </c>
       <c r="F827" t="n">
-        <v>163.6552581787109</v>
+        <v>163.6552734375</v>
       </c>
       <c r="G827" t="n">
         <v>72246700</v>
@@ -19514,7 +19514,7 @@
         <v>170.3999938964844</v>
       </c>
       <c r="F829" t="n">
-        <v>168.2465209960938</v>
+        <v>168.2465362548828</v>
       </c>
       <c r="G829" t="n">
         <v>70618900</v>
@@ -19537,7 +19537,7 @@
         <v>165.2899932861328</v>
       </c>
       <c r="F830" t="n">
-        <v>163.2010803222656</v>
+        <v>163.2011108398438</v>
       </c>
       <c r="G830" t="n">
         <v>75329400</v>
@@ -19560,7 +19560,7 @@
         <v>165.0700073242188</v>
       </c>
       <c r="F831" t="n">
-        <v>162.98388671875</v>
+        <v>162.9839019775391</v>
       </c>
       <c r="G831" t="n">
         <v>69023900</v>
@@ -19629,7 +19629,7 @@
         <v>166.4199981689453</v>
       </c>
       <c r="F834" t="n">
-        <v>164.3168182373047</v>
+        <v>164.3168029785156</v>
       </c>
       <c r="G834" t="n">
         <v>87227800</v>
@@ -19652,7 +19652,7 @@
         <v>161.7899932861328</v>
       </c>
       <c r="F835" t="n">
-        <v>159.7453002929688</v>
+        <v>159.7453155517578</v>
       </c>
       <c r="G835" t="n">
         <v>84882400</v>
@@ -19698,7 +19698,7 @@
         <v>156.8000030517578</v>
       </c>
       <c r="F837" t="n">
-        <v>154.8183746337891</v>
+        <v>154.8183898925781</v>
       </c>
       <c r="G837" t="n">
         <v>95623200</v>
@@ -19721,7 +19721,7 @@
         <v>156.5700073242188</v>
       </c>
       <c r="F838" t="n">
-        <v>154.59130859375</v>
+        <v>154.5912933349609</v>
       </c>
       <c r="G838" t="n">
         <v>88063200</v>
@@ -19790,7 +19790,7 @@
         <v>157.9600067138672</v>
       </c>
       <c r="F841" t="n">
-        <v>155.9637298583984</v>
+        <v>155.9637451171875</v>
       </c>
       <c r="G841" t="n">
         <v>123055300</v>
@@ -19813,7 +19813,7 @@
         <v>159.4799957275391</v>
       </c>
       <c r="F842" t="n">
-        <v>157.4645080566406</v>
+        <v>157.4645233154297</v>
       </c>
       <c r="G842" t="n">
         <v>88966500</v>
@@ -19836,7 +19836,7 @@
         <v>166.0200042724609</v>
       </c>
       <c r="F843" t="n">
-        <v>163.921875</v>
+        <v>163.9218597412109</v>
       </c>
       <c r="G843" t="n">
         <v>108256500</v>
@@ -19882,7 +19882,7 @@
         <v>157.2799987792969</v>
       </c>
       <c r="F845" t="n">
-        <v>155.5205078125</v>
+        <v>155.5204772949219</v>
       </c>
       <c r="G845" t="n">
         <v>116124600</v>
@@ -19974,7 +19974,7 @@
         <v>142.5599975585938</v>
       </c>
       <c r="F849" t="n">
-        <v>140.9651794433594</v>
+        <v>140.9651641845703</v>
       </c>
       <c r="G849" t="n">
         <v>182602000</v>
@@ -19997,7 +19997,7 @@
         <v>147.1100006103516</v>
       </c>
       <c r="F850" t="n">
-        <v>145.4642639160156</v>
+        <v>145.4642486572266</v>
       </c>
       <c r="G850" t="n">
         <v>113990900</v>
@@ -20020,7 +20020,7 @@
         <v>145.5399932861328</v>
       </c>
       <c r="F851" t="n">
-        <v>143.9118194580078</v>
+        <v>143.9118041992188</v>
       </c>
       <c r="G851" t="n">
         <v>86643800</v>
@@ -20043,7 +20043,7 @@
         <v>149.2400054931641</v>
       </c>
       <c r="F852" t="n">
-        <v>147.5704345703125</v>
+        <v>147.5704498291016</v>
       </c>
       <c r="G852" t="n">
         <v>78336300</v>
@@ -20066,7 +20066,7 @@
         <v>140.8200073242188</v>
       </c>
       <c r="F853" t="n">
-        <v>139.2446441650391</v>
+        <v>139.24462890625</v>
       </c>
       <c r="G853" t="n">
         <v>109742900</v>
@@ -20089,7 +20089,7 @@
         <v>137.3500061035156</v>
       </c>
       <c r="F854" t="n">
-        <v>135.8134460449219</v>
+        <v>135.8134765625</v>
       </c>
       <c r="G854" t="n">
         <v>136095600</v>
@@ -20158,7 +20158,7 @@
         <v>140.3600006103516</v>
       </c>
       <c r="F857" t="n">
-        <v>138.7897796630859</v>
+        <v>138.7897644042969</v>
       </c>
       <c r="G857" t="n">
         <v>104132700</v>
@@ -20181,7 +20181,7 @@
         <v>140.5200042724609</v>
       </c>
       <c r="F858" t="n">
-        <v>138.9479827880859</v>
+        <v>138.9479675292969</v>
       </c>
       <c r="G858" t="n">
         <v>92482700</v>
@@ -20227,7 +20227,7 @@
         <v>149.6399993896484</v>
       </c>
       <c r="F860" t="n">
-        <v>147.9659423828125</v>
+        <v>147.9659729003906</v>
       </c>
       <c r="G860" t="n">
         <v>90978500</v>
@@ -20273,7 +20273,7 @@
         <v>148.7100067138672</v>
       </c>
       <c r="F862" t="n">
-        <v>147.0463562011719</v>
+        <v>147.04638671875</v>
       </c>
       <c r="G862" t="n">
         <v>74286600</v>
@@ -20296,7 +20296,7 @@
         <v>151.2100067138672</v>
       </c>
       <c r="F863" t="n">
-        <v>149.5183868408203</v>
+        <v>149.5184020996094</v>
       </c>
       <c r="G863" t="n">
         <v>72348100</v>
@@ -20319,7 +20319,7 @@
         <v>145.3800048828125</v>
       </c>
       <c r="F864" t="n">
-        <v>143.7536010742188</v>
+        <v>143.7536468505859</v>
       </c>
       <c r="G864" t="n">
         <v>88570300</v>
@@ -20342,7 +20342,7 @@
         <v>146.1399993896484</v>
       </c>
       <c r="F865" t="n">
-        <v>144.505126953125</v>
+        <v>144.5051116943359</v>
       </c>
       <c r="G865" t="n">
         <v>71598400</v>
@@ -20365,7 +20365,7 @@
         <v>148.7100067138672</v>
       </c>
       <c r="F866" t="n">
-        <v>147.0463562011719</v>
+        <v>147.04638671875</v>
       </c>
       <c r="G866" t="n">
         <v>67808200</v>
@@ -20411,7 +20411,7 @@
         <v>142.6399993896484</v>
       </c>
       <c r="F868" t="n">
-        <v>141.0442962646484</v>
+        <v>141.0442810058594</v>
       </c>
       <c r="G868" t="n">
         <v>69473000</v>
@@ -20434,7 +20434,7 @@
         <v>137.1300048828125</v>
       </c>
       <c r="F869" t="n">
-        <v>135.5959167480469</v>
+        <v>135.5959320068359</v>
       </c>
       <c r="G869" t="n">
         <v>91437900</v>
@@ -20480,7 +20480,7 @@
         <v>132.7599945068359</v>
       </c>
       <c r="F871" t="n">
-        <v>131.2747802734375</v>
+        <v>131.2747650146484</v>
       </c>
       <c r="G871" t="n">
         <v>84784300</v>
@@ -20503,7 +20503,7 @@
         <v>135.4299926757812</v>
       </c>
       <c r="F872" t="n">
-        <v>133.9149322509766</v>
+        <v>133.9149169921875</v>
       </c>
       <c r="G872" t="n">
         <v>91533000</v>
@@ -20526,7 +20526,7 @@
         <v>130.0599975585938</v>
       </c>
       <c r="F873" t="n">
-        <v>128.60498046875</v>
+        <v>128.6049957275391</v>
       </c>
       <c r="G873" t="n">
         <v>108123900</v>
@@ -20549,7 +20549,7 @@
         <v>131.5599975585938</v>
       </c>
       <c r="F874" t="n">
-        <v>130.0882263183594</v>
+        <v>130.0881958007812</v>
       </c>
       <c r="G874" t="n">
         <v>134520300</v>
@@ -20595,7 +20595,7 @@
         <v>135.3500061035156</v>
       </c>
       <c r="F876" t="n">
-        <v>133.8358306884766</v>
+        <v>133.8358459472656</v>
       </c>
       <c r="G876" t="n">
         <v>73409200</v>
@@ -20618,7 +20618,7 @@
         <v>138.2700042724609</v>
       </c>
       <c r="F877" t="n">
-        <v>136.7231750488281</v>
+        <v>136.7231597900391</v>
       </c>
       <c r="G877" t="n">
         <v>72433800</v>
@@ -20641,7 +20641,7 @@
         <v>141.6600036621094</v>
       </c>
       <c r="F878" t="n">
-        <v>140.0752258300781</v>
+        <v>140.0752410888672</v>
       </c>
       <c r="G878" t="n">
         <v>89116800</v>
@@ -20664,7 +20664,7 @@
         <v>141.6600036621094</v>
       </c>
       <c r="F879" t="n">
-        <v>140.0752258300781</v>
+        <v>140.0752410888672</v>
       </c>
       <c r="G879" t="n">
         <v>70207900</v>
@@ -20687,7 +20687,7 @@
         <v>137.4400024414062</v>
       </c>
       <c r="F880" t="n">
-        <v>135.9024200439453</v>
+        <v>135.9024658203125</v>
       </c>
       <c r="G880" t="n">
         <v>67083400</v>
@@ -20710,7 +20710,7 @@
         <v>139.2299957275391</v>
       </c>
       <c r="F881" t="n">
-        <v>137.6724243164062</v>
+        <v>137.6724090576172</v>
       </c>
       <c r="G881" t="n">
         <v>66242400</v>
@@ -20733,7 +20733,7 @@
         <v>136.7200012207031</v>
       </c>
       <c r="F882" t="n">
-        <v>135.1905059814453</v>
+        <v>135.1904602050781</v>
       </c>
       <c r="G882" t="n">
         <v>98964500</v>
@@ -20756,7 +20756,7 @@
         <v>138.9299926757812</v>
       </c>
       <c r="F883" t="n">
-        <v>137.3757781982422</v>
+        <v>137.3757629394531</v>
       </c>
       <c r="G883" t="n">
         <v>71051600</v>
@@ -20779,7 +20779,7 @@
         <v>141.5599975585938</v>
       </c>
       <c r="F884" t="n">
-        <v>139.9763336181641</v>
+        <v>139.9763641357422</v>
       </c>
       <c r="G884" t="n">
         <v>73353800</v>
@@ -20825,7 +20825,7 @@
         <v>146.3500061035156</v>
       </c>
       <c r="F886" t="n">
-        <v>144.7127685546875</v>
+        <v>144.7127838134766</v>
       </c>
       <c r="G886" t="n">
         <v>66253700</v>
@@ -20848,7 +20848,7 @@
         <v>147.0399932861328</v>
       </c>
       <c r="F887" t="n">
-        <v>145.39501953125</v>
+        <v>145.3950347900391</v>
       </c>
       <c r="G887" t="n">
         <v>64547800</v>
@@ -20917,7 +20917,7 @@
         <v>145.4900054931641</v>
       </c>
       <c r="F890" t="n">
-        <v>143.8623809814453</v>
+        <v>143.8624114990234</v>
       </c>
       <c r="G890" t="n">
         <v>71185600</v>
@@ -20940,7 +20940,7 @@
         <v>148.4700012207031</v>
       </c>
       <c r="F891" t="n">
-        <v>146.8090209960938</v>
+        <v>146.8090515136719</v>
       </c>
       <c r="G891" t="n">
         <v>78140700</v>
@@ -20986,7 +20986,7 @@
         <v>147.0700073242188</v>
       </c>
       <c r="F893" t="n">
-        <v>145.4247131347656</v>
+        <v>145.4246978759766</v>
       </c>
       <c r="G893" t="n">
         <v>81420900</v>
@@ -21055,7 +21055,7 @@
         <v>155.3500061035156</v>
       </c>
       <c r="F896" t="n">
-        <v>153.6120910644531</v>
+        <v>153.6121063232422</v>
       </c>
       <c r="G896" t="n">
         <v>65086600</v>
@@ -21078,7 +21078,7 @@
         <v>154.0899963378906</v>
       </c>
       <c r="F897" t="n">
-        <v>152.3661651611328</v>
+        <v>152.3661804199219</v>
       </c>
       <c r="G897" t="n">
         <v>66675400</v>
@@ -21101,7 +21101,7 @@
         <v>152.9499969482422</v>
       </c>
       <c r="F898" t="n">
-        <v>151.2389068603516</v>
+        <v>151.2389221191406</v>
       </c>
       <c r="G898" t="n">
         <v>53623900</v>
@@ -21147,7 +21147,7 @@
         <v>156.7899932861328</v>
       </c>
       <c r="F900" t="n">
-        <v>155.0359802246094</v>
+        <v>155.0359649658203</v>
       </c>
       <c r="G900" t="n">
         <v>78620700</v>
@@ -21170,7 +21170,7 @@
         <v>157.3500061035156</v>
       </c>
       <c r="F901" t="n">
-        <v>155.5897216796875</v>
+        <v>155.5897064208984</v>
       </c>
       <c r="G901" t="n">
         <v>81378700</v>
@@ -21216,7 +21216,7 @@
         <v>161.5099945068359</v>
       </c>
       <c r="F903" t="n">
-        <v>159.7031555175781</v>
+        <v>159.7031707763672</v>
       </c>
       <c r="G903" t="n">
         <v>67829400</v>
@@ -21239,7 +21239,7 @@
         <v>160.0099945068359</v>
       </c>
       <c r="F904" t="n">
-        <v>158.2199401855469</v>
+        <v>158.2199554443359</v>
       </c>
       <c r="G904" t="n">
         <v>59907000</v>
@@ -21262,7 +21262,7 @@
         <v>166.1300048828125</v>
       </c>
       <c r="F905" t="n">
-        <v>164.271484375</v>
+        <v>164.2714996337891</v>
       </c>
       <c r="G905" t="n">
         <v>82507500</v>
@@ -21285,7 +21285,7 @@
         <v>165.8099975585938</v>
       </c>
       <c r="F906" t="n">
-        <v>163.9550628662109</v>
+        <v>163.9550476074219</v>
       </c>
       <c r="G906" t="n">
         <v>55474100</v>
@@ -21308,7 +21308,7 @@
         <v>165.3500061035156</v>
       </c>
       <c r="F907" t="n">
-        <v>163.7273406982422</v>
+        <v>163.7273254394531</v>
       </c>
       <c r="G907" t="n">
         <v>56697000</v>
@@ -21331,7 +21331,7 @@
         <v>164.8699951171875</v>
       </c>
       <c r="F908" t="n">
-        <v>163.2520294189453</v>
+        <v>163.2520446777344</v>
       </c>
       <c r="G908" t="n">
         <v>60276900</v>
@@ -21354,7 +21354,7 @@
         <v>164.9199981689453</v>
       </c>
       <c r="F909" t="n">
-        <v>163.3015594482422</v>
+        <v>163.3015289306641</v>
       </c>
       <c r="G909" t="n">
         <v>63135500</v>
@@ -21377,7 +21377,7 @@
         <v>169.2400054931641</v>
       </c>
       <c r="F910" t="n">
-        <v>167.5791473388672</v>
+        <v>167.5791625976562</v>
       </c>
       <c r="G910" t="n">
         <v>70170500</v>
@@ -21423,7 +21423,7 @@
         <v>172.1000061035156</v>
       </c>
       <c r="F912" t="n">
-        <v>170.4110565185547</v>
+        <v>170.4110870361328</v>
       </c>
       <c r="G912" t="n">
         <v>68039400</v>
@@ -21446,7 +21446,7 @@
         <v>173.1900024414062</v>
       </c>
       <c r="F913" t="n">
-        <v>171.4904022216797</v>
+        <v>171.4903717041016</v>
       </c>
       <c r="G913" t="n">
         <v>54091700</v>
@@ -21469,7 +21469,7 @@
         <v>173.0299987792969</v>
       </c>
       <c r="F914" t="n">
-        <v>171.3319549560547</v>
+        <v>171.3319396972656</v>
       </c>
       <c r="G914" t="n">
         <v>56377100</v>
@@ -21561,7 +21561,7 @@
         <v>167.5700073242188</v>
       </c>
       <c r="F918" t="n">
-        <v>165.9255065917969</v>
+        <v>165.925537109375</v>
       </c>
       <c r="G918" t="n">
         <v>69026800</v>
@@ -21607,7 +21607,7 @@
         <v>167.5299987792969</v>
       </c>
       <c r="F920" t="n">
-        <v>165.8859252929688</v>
+        <v>165.8859100341797</v>
       </c>
       <c r="G920" t="n">
         <v>53841500</v>
@@ -21653,7 +21653,7 @@
         <v>163.6199951171875</v>
       </c>
       <c r="F922" t="n">
-        <v>162.0142822265625</v>
+        <v>162.0142974853516</v>
       </c>
       <c r="G922" t="n">
         <v>78961000</v>
@@ -21676,7 +21676,7 @@
         <v>161.3800048828125</v>
       </c>
       <c r="F923" t="n">
-        <v>159.7962951660156</v>
+        <v>159.7962646484375</v>
       </c>
       <c r="G923" t="n">
         <v>73314000</v>
@@ -21745,7 +21745,7 @@
         <v>157.9600067138672</v>
       </c>
       <c r="F926" t="n">
-        <v>156.4098358154297</v>
+        <v>156.4098510742188</v>
       </c>
       <c r="G926" t="n">
         <v>74229900</v>
@@ -21791,7 +21791,7 @@
         <v>154.5299987792969</v>
       </c>
       <c r="F928" t="n">
-        <v>153.0135040283203</v>
+        <v>153.0134887695312</v>
       </c>
       <c r="G928" t="n">
         <v>73714800</v>
@@ -21814,7 +21814,7 @@
         <v>155.9600067138672</v>
       </c>
       <c r="F929" t="n">
-        <v>154.4294738769531</v>
+        <v>154.4294891357422</v>
       </c>
       <c r="G929" t="n">
         <v>87449600</v>
@@ -21837,7 +21837,7 @@
         <v>154.4600067138672</v>
       </c>
       <c r="F930" t="n">
-        <v>152.9441833496094</v>
+        <v>152.9441986083984</v>
       </c>
       <c r="G930" t="n">
         <v>84923800</v>
@@ -21883,7 +21883,7 @@
         <v>163.4299926757812</v>
       </c>
       <c r="F932" t="n">
-        <v>161.8261566162109</v>
+        <v>161.8261413574219</v>
       </c>
       <c r="G932" t="n">
         <v>104956000</v>
@@ -21929,7 +21929,7 @@
         <v>155.3099975585938</v>
       </c>
       <c r="F934" t="n">
-        <v>153.7858428955078</v>
+        <v>153.7858276367188</v>
       </c>
       <c r="G934" t="n">
         <v>87965400</v>
@@ -21998,7 +21998,7 @@
         <v>154.4799957275391</v>
       </c>
       <c r="F937" t="n">
-        <v>152.9639739990234</v>
+        <v>152.9639892578125</v>
       </c>
       <c r="G937" t="n">
         <v>81474200</v>
@@ -22044,7 +22044,7 @@
         <v>153.7200012207031</v>
       </c>
       <c r="F939" t="n">
-        <v>152.2114562988281</v>
+        <v>152.2114410400391</v>
       </c>
       <c r="G939" t="n">
         <v>101696800</v>
@@ -22067,7 +22067,7 @@
         <v>152.7400054931641</v>
       </c>
       <c r="F940" t="n">
-        <v>151.2410736083984</v>
+        <v>151.2410583496094</v>
       </c>
       <c r="G940" t="n">
         <v>86652500</v>
@@ -22090,7 +22090,7 @@
         <v>150.4299926757812</v>
       </c>
       <c r="F941" t="n">
-        <v>148.9537353515625</v>
+        <v>148.9537048339844</v>
       </c>
       <c r="G941" t="n">
         <v>96029900</v>
@@ -22113,7 +22113,7 @@
         <v>150.7700042724609</v>
       </c>
       <c r="F942" t="n">
-        <v>149.2904052734375</v>
+        <v>149.2903900146484</v>
       </c>
       <c r="G942" t="n">
         <v>93339400</v>
@@ -22136,7 +22136,7 @@
         <v>151.7599945068359</v>
       </c>
       <c r="F943" t="n">
-        <v>150.2706604003906</v>
+        <v>150.2706756591797</v>
       </c>
       <c r="G943" t="n">
         <v>84442700</v>
@@ -22159,7 +22159,7 @@
         <v>149.8399963378906</v>
       </c>
       <c r="F944" t="n">
-        <v>148.3694915771484</v>
+        <v>148.3695220947266</v>
       </c>
       <c r="G944" t="n">
         <v>146691400</v>
@@ -22205,7 +22205,7 @@
         <v>138.1999969482422</v>
       </c>
       <c r="F946" t="n">
-        <v>136.8437652587891</v>
+        <v>136.84375</v>
       </c>
       <c r="G946" t="n">
         <v>124925300</v>
@@ -22251,7 +22251,7 @@
         <v>146.1000061035156</v>
       </c>
       <c r="F948" t="n">
-        <v>144.6662445068359</v>
+        <v>144.6662292480469</v>
       </c>
       <c r="G948" t="n">
         <v>87830100</v>
@@ -22343,7 +22343,7 @@
         <v>140.4199981689453</v>
       </c>
       <c r="F952" t="n">
-        <v>139.0419616699219</v>
+        <v>139.0419769287109</v>
       </c>
       <c r="G952" t="n">
         <v>74899000</v>
@@ -22366,7 +22366,7 @@
         <v>138.9799957275391</v>
       </c>
       <c r="F953" t="n">
-        <v>137.6161041259766</v>
+        <v>137.6160888671875</v>
       </c>
       <c r="G953" t="n">
         <v>77033700</v>
@@ -22389,7 +22389,7 @@
         <v>138.3399963378906</v>
       </c>
       <c r="F954" t="n">
-        <v>136.9823913574219</v>
+        <v>136.9823760986328</v>
       </c>
       <c r="G954" t="n">
         <v>70433700</v>
@@ -22412,7 +22412,7 @@
         <v>142.9900054931641</v>
       </c>
       <c r="F955" t="n">
-        <v>141.5867767333984</v>
+        <v>141.5867614746094</v>
       </c>
       <c r="G955" t="n">
         <v>113224000</v>
@@ -22435,7 +22435,7 @@
         <v>138.3800048828125</v>
       </c>
       <c r="F956" t="n">
-        <v>137.0220031738281</v>
+        <v>137.0219879150391</v>
       </c>
       <c r="G956" t="n">
         <v>88598000</v>
@@ -22481,7 +22481,7 @@
         <v>143.75</v>
       </c>
       <c r="F958" t="n">
-        <v>142.3392944335938</v>
+        <v>142.3392791748047</v>
       </c>
       <c r="G958" t="n">
         <v>99136600</v>
@@ -22504,7 +22504,7 @@
         <v>143.8600006103516</v>
       </c>
       <c r="F959" t="n">
-        <v>142.4482269287109</v>
+        <v>142.4482116699219</v>
       </c>
       <c r="G959" t="n">
         <v>61758300</v>
@@ -22527,7 +22527,7 @@
         <v>143.3899993896484</v>
       </c>
       <c r="F960" t="n">
-        <v>141.9828338623047</v>
+        <v>141.9828186035156</v>
       </c>
       <c r="G960" t="n">
         <v>64522000</v>
@@ -22550,7 +22550,7 @@
         <v>147.2700042724609</v>
       </c>
       <c r="F961" t="n">
-        <v>145.8247528076172</v>
+        <v>145.8247680664062</v>
       </c>
       <c r="G961" t="n">
         <v>86548600</v>
@@ -22573,7 +22573,7 @@
         <v>149.4499969482422</v>
       </c>
       <c r="F962" t="n">
-        <v>147.9833679199219</v>
+        <v>147.9833526611328</v>
       </c>
       <c r="G962" t="n">
         <v>75981900</v>
@@ -22619,7 +22619,7 @@
         <v>149.3500061035156</v>
       </c>
       <c r="F964" t="n">
-        <v>147.8843536376953</v>
+        <v>147.8843231201172</v>
       </c>
       <c r="G964" t="n">
         <v>88194300</v>
@@ -22642,7 +22642,7 @@
         <v>144.8000030517578</v>
       </c>
       <c r="F965" t="n">
-        <v>143.3789978027344</v>
+        <v>143.3789825439453</v>
       </c>
       <c r="G965" t="n">
         <v>109180200</v>
@@ -22665,7 +22665,7 @@
         <v>155.7400054931641</v>
       </c>
       <c r="F966" t="n">
-        <v>154.2116241455078</v>
+        <v>154.2116394042969</v>
       </c>
       <c r="G966" t="n">
         <v>164762400</v>
@@ -22688,7 +22688,7 @@
         <v>153.3399963378906</v>
       </c>
       <c r="F967" t="n">
-        <v>151.8351745605469</v>
+        <v>151.8351898193359</v>
       </c>
       <c r="G967" t="n">
         <v>97943200</v>
@@ -22711,7 +22711,7 @@
         <v>150.6499938964844</v>
       </c>
       <c r="F968" t="n">
-        <v>149.1715545654297</v>
+        <v>149.1715698242188</v>
       </c>
       <c r="G968" t="n">
         <v>80379300</v>
@@ -22757,7 +22757,7 @@
         <v>138.8800048828125</v>
       </c>
       <c r="F970" t="n">
-        <v>137.5171051025391</v>
+        <v>137.51708984375</v>
       </c>
       <c r="G970" t="n">
         <v>97918500</v>
@@ -22941,7 +22941,7 @@
         <v>150.0399932861328</v>
       </c>
       <c r="F978" t="n">
-        <v>148.8139953613281</v>
+        <v>148.8140258789062</v>
       </c>
       <c r="G978" t="n">
         <v>89868300</v>
@@ -23010,7 +23010,7 @@
         <v>151.2899932861328</v>
       </c>
       <c r="F981" t="n">
-        <v>150.0538024902344</v>
+        <v>150.0537872314453</v>
       </c>
       <c r="G981" t="n">
         <v>74829600</v>
@@ -23056,7 +23056,7 @@
         <v>150.1799926757812</v>
       </c>
       <c r="F983" t="n">
-        <v>148.9528656005859</v>
+        <v>148.9528503417969</v>
       </c>
       <c r="G983" t="n">
         <v>51804100</v>
@@ -23102,7 +23102,7 @@
         <v>148.1100006103516</v>
       </c>
       <c r="F985" t="n">
-        <v>146.8997650146484</v>
+        <v>146.8997802734375</v>
       </c>
       <c r="G985" t="n">
         <v>35195900</v>
@@ -23148,7 +23148,7 @@
         <v>141.1699981689453</v>
       </c>
       <c r="F987" t="n">
-        <v>140.0165100097656</v>
+        <v>140.0164794921875</v>
       </c>
       <c r="G987" t="n">
         <v>83763800</v>
@@ -23194,7 +23194,7 @@
         <v>148.3099975585938</v>
       </c>
       <c r="F989" t="n">
-        <v>147.0981597900391</v>
+        <v>147.09814453125</v>
       </c>
       <c r="G989" t="n">
         <v>71250400</v>
@@ -23240,7 +23240,7 @@
         <v>146.6300048828125</v>
       </c>
       <c r="F991" t="n">
-        <v>145.431884765625</v>
+        <v>145.4319152832031</v>
       </c>
       <c r="G991" t="n">
         <v>68826400</v>
@@ -23286,7 +23286,7 @@
         <v>140.9400024414062</v>
       </c>
       <c r="F993" t="n">
-        <v>139.7883911132812</v>
+        <v>139.7883758544922</v>
       </c>
       <c r="G993" t="n">
         <v>69721100</v>
@@ -23355,7 +23355,7 @@
         <v>144.4900054931641</v>
       </c>
       <c r="F996" t="n">
-        <v>143.3093872070312</v>
+        <v>143.3093719482422</v>
       </c>
       <c r="G996" t="n">
         <v>70462700</v>
@@ -23378,7 +23378,7 @@
         <v>145.4700012207031</v>
       </c>
       <c r="F997" t="n">
-        <v>144.2813568115234</v>
+        <v>144.2813720703125</v>
       </c>
       <c r="G997" t="n">
         <v>93886200</v>
@@ -23424,7 +23424,7 @@
         <v>136.5</v>
       </c>
       <c r="F999" t="n">
-        <v>135.3846435546875</v>
+        <v>135.3846588134766</v>
       </c>
       <c r="G999" t="n">
         <v>98931900</v>
@@ -23447,7 +23447,7 @@
         <v>134.5099945068359</v>
       </c>
       <c r="F1000" t="n">
-        <v>133.4109039306641</v>
+        <v>133.4109191894531</v>
       </c>
       <c r="G1000" t="n">
         <v>160156900</v>
@@ -23562,7 +23562,7 @@
         <v>131.8600006103516</v>
       </c>
       <c r="F1005" t="n">
-        <v>130.7825469970703</v>
+        <v>130.7825775146484</v>
       </c>
       <c r="G1005" t="n">
         <v>63814900</v>
@@ -23608,7 +23608,7 @@
         <v>126.0400009155273</v>
       </c>
       <c r="F1007" t="n">
-        <v>125.0101165771484</v>
+        <v>125.010124206543</v>
       </c>
       <c r="G1007" t="n">
         <v>85438400</v>
@@ -23631,7 +23631,7 @@
         <v>129.6100006103516</v>
       </c>
       <c r="F1008" t="n">
-        <v>128.5509338378906</v>
+        <v>128.5509490966797</v>
       </c>
       <c r="G1008" t="n">
         <v>75703700</v>
@@ -23654,7 +23654,7 @@
         <v>129.9299926757812</v>
       </c>
       <c r="F1009" t="n">
-        <v>128.8683319091797</v>
+        <v>128.8683166503906</v>
       </c>
       <c r="G1009" t="n">
         <v>77034200</v>
@@ -23677,7 +23677,7 @@
         <v>125.0699996948242</v>
       </c>
       <c r="F1010" t="n">
-        <v>124.0480422973633</v>
+        <v>124.0480499267578</v>
       </c>
       <c r="G1010" t="n">
         <v>112117500</v>
@@ -23723,7 +23723,7 @@
         <v>125.0199966430664</v>
       </c>
       <c r="F1012" t="n">
-        <v>123.9984512329102</v>
+        <v>123.9984588623047</v>
       </c>
       <c r="G1012" t="n">
         <v>80962700</v>
@@ -23746,7 +23746,7 @@
         <v>129.6199951171875</v>
       </c>
       <c r="F1013" t="n">
-        <v>128.5608367919922</v>
+        <v>128.5608825683594</v>
       </c>
       <c r="G1013" t="n">
         <v>87754700</v>
@@ -23769,7 +23769,7 @@
         <v>130.1499938964844</v>
       </c>
       <c r="F1014" t="n">
-        <v>129.0865325927734</v>
+        <v>129.0865478515625</v>
       </c>
       <c r="G1014" t="n">
         <v>70790800</v>
@@ -23838,7 +23838,7 @@
         <v>133.4100036621094</v>
       </c>
       <c r="F1017" t="n">
-        <v>132.3199157714844</v>
+        <v>132.3199005126953</v>
       </c>
       <c r="G1017" t="n">
         <v>71379600</v>
@@ -23861,7 +23861,7 @@
         <v>134.7599945068359</v>
       </c>
       <c r="F1018" t="n">
-        <v>133.6588745117188</v>
+        <v>133.6588592529297</v>
       </c>
       <c r="G1018" t="n">
         <v>57809700</v>
@@ -23907,7 +23907,7 @@
         <v>135.2100067138672</v>
       </c>
       <c r="F1020" t="n">
-        <v>134.1051788330078</v>
+        <v>134.1051940917969</v>
       </c>
       <c r="G1020" t="n">
         <v>69672800</v>
@@ -23930,7 +23930,7 @@
         <v>135.2700042724609</v>
       </c>
       <c r="F1021" t="n">
-        <v>134.1647033691406</v>
+        <v>134.1647186279297</v>
       </c>
       <c r="G1021" t="n">
         <v>58280400</v>
@@ -23953,7 +23953,7 @@
         <v>137.8699951171875</v>
       </c>
       <c r="F1022" t="n">
-        <v>136.7434692382812</v>
+        <v>136.7434387207031</v>
       </c>
       <c r="G1022" t="n">
         <v>80223600</v>
@@ -23999,7 +23999,7 @@
         <v>142.5299987792969</v>
       </c>
       <c r="F1024" t="n">
-        <v>141.3653717041016</v>
+        <v>141.3653869628906</v>
       </c>
       <c r="G1024" t="n">
         <v>66435100</v>
@@ -24022,7 +24022,7 @@
         <v>141.8600006103516</v>
       </c>
       <c r="F1025" t="n">
-        <v>140.7008666992188</v>
+        <v>140.7008514404297</v>
       </c>
       <c r="G1025" t="n">
         <v>65799300</v>
@@ -24045,7 +24045,7 @@
         <v>143.9600067138672</v>
       </c>
       <c r="F1026" t="n">
-        <v>142.7837219238281</v>
+        <v>142.7837066650391</v>
       </c>
       <c r="G1026" t="n">
         <v>54105100</v>
@@ -24091,7 +24091,7 @@
         <v>143</v>
       </c>
       <c r="F1028" t="n">
-        <v>141.83154296875</v>
+        <v>141.8315582275391</v>
       </c>
       <c r="G1028" t="n">
         <v>64015300</v>
@@ -24114,7 +24114,7 @@
         <v>144.2899932861328</v>
       </c>
       <c r="F1029" t="n">
-        <v>143.1110076904297</v>
+        <v>143.1109771728516</v>
       </c>
       <c r="G1029" t="n">
         <v>65874500</v>
@@ -24160,7 +24160,7 @@
         <v>150.8200073242188</v>
       </c>
       <c r="F1031" t="n">
-        <v>149.5876617431641</v>
+        <v>149.587646484375</v>
       </c>
       <c r="G1031" t="n">
         <v>118339000</v>
@@ -24183,7 +24183,7 @@
         <v>154.5</v>
       </c>
       <c r="F1032" t="n">
-        <v>153.2375640869141</v>
+        <v>153.2375793457031</v>
       </c>
       <c r="G1032" t="n">
         <v>154357300</v>
@@ -24229,7 +24229,7 @@
         <v>154.6499938964844</v>
       </c>
       <c r="F1034" t="n">
-        <v>153.3863372802734</v>
+        <v>153.3863677978516</v>
       </c>
       <c r="G1034" t="n">
         <v>83322600</v>
@@ -24252,7 +24252,7 @@
         <v>151.9199981689453</v>
       </c>
       <c r="F1035" t="n">
-        <v>150.6786346435547</v>
+        <v>150.6786651611328</v>
       </c>
       <c r="G1035" t="n">
         <v>64120100</v>
@@ -24275,7 +24275,7 @@
         <v>150.8699951171875</v>
       </c>
       <c r="F1036" t="n">
-        <v>149.6372375488281</v>
+        <v>149.6372222900391</v>
       </c>
       <c r="G1036" t="n">
         <v>56007100</v>
@@ -24298,7 +24298,7 @@
         <v>151.0099945068359</v>
       </c>
       <c r="F1037" t="n">
-        <v>150.0047760009766</v>
+        <v>150.0047607421875</v>
       </c>
       <c r="G1037" t="n">
         <v>57450700</v>
@@ -24344,7 +24344,7 @@
         <v>153.1999969482422</v>
       </c>
       <c r="F1039" t="n">
-        <v>152.1801910400391</v>
+        <v>152.1802062988281</v>
       </c>
       <c r="G1039" t="n">
         <v>61707600</v>
@@ -24367,7 +24367,7 @@
         <v>155.3300018310547</v>
       </c>
       <c r="F1040" t="n">
-        <v>154.2960052490234</v>
+        <v>154.2960205078125</v>
       </c>
       <c r="G1040" t="n">
         <v>65573800</v>
@@ -24390,7 +24390,7 @@
         <v>153.7100067138672</v>
       </c>
       <c r="F1041" t="n">
-        <v>152.6867980957031</v>
+        <v>152.6868133544922</v>
       </c>
       <c r="G1041" t="n">
         <v>68167900</v>
@@ -24482,7 +24482,7 @@
         <v>149.3999938964844</v>
       </c>
       <c r="F1045" t="n">
-        <v>148.4054718017578</v>
+        <v>148.4054870605469</v>
       </c>
       <c r="G1045" t="n">
         <v>48394200</v>
@@ -24505,7 +24505,7 @@
         <v>146.7100067138672</v>
       </c>
       <c r="F1046" t="n">
-        <v>145.7334136962891</v>
+        <v>145.7333984375</v>
       </c>
       <c r="G1046" t="n">
         <v>55469600</v>
@@ -24551,7 +24551,7 @@
         <v>147.4100036621094</v>
       </c>
       <c r="F1048" t="n">
-        <v>146.4287261962891</v>
+        <v>146.4287414550781</v>
       </c>
       <c r="G1048" t="n">
         <v>50547000</v>
@@ -24620,7 +24620,7 @@
         <v>151.0299987792969</v>
       </c>
       <c r="F1051" t="n">
-        <v>150.0246429443359</v>
+        <v>150.0246276855469</v>
       </c>
       <c r="G1051" t="n">
         <v>70732300</v>
@@ -24666,7 +24666,7 @@
         <v>151.6000061035156</v>
       </c>
       <c r="F1053" t="n">
-        <v>150.5908660888672</v>
+        <v>150.5908508300781</v>
       </c>
       <c r="G1053" t="n">
         <v>56182000</v>
@@ -24689,7 +24689,7 @@
         <v>152.8699951171875</v>
       </c>
       <c r="F1054" t="n">
-        <v>151.8523864746094</v>
+        <v>151.8524017333984</v>
       </c>
       <c r="G1054" t="n">
         <v>47204800</v>
@@ -24712,7 +24712,7 @@
         <v>150.5899963378906</v>
       </c>
       <c r="F1055" t="n">
-        <v>149.5875854492188</v>
+        <v>149.5875549316406</v>
       </c>
       <c r="G1055" t="n">
         <v>53833600</v>
@@ -24781,7 +24781,7 @@
         <v>152.5899963378906</v>
       </c>
       <c r="F1058" t="n">
-        <v>151.5742340087891</v>
+        <v>151.5742645263672</v>
       </c>
       <c r="G1058" t="n">
         <v>73695900</v>
@@ -24804,7 +24804,7 @@
         <v>152.9900054931641</v>
       </c>
       <c r="F1059" t="n">
-        <v>151.9715881347656</v>
+        <v>151.9716033935547</v>
       </c>
       <c r="G1059" t="n">
         <v>77167900</v>
@@ -24827,7 +24827,7 @@
         <v>155.8500061035156</v>
       </c>
       <c r="F1060" t="n">
-        <v>154.8125762939453</v>
+        <v>154.8125610351562</v>
       </c>
       <c r="G1060" t="n">
         <v>76161100</v>
@@ -24850,7 +24850,7 @@
         <v>155</v>
       </c>
       <c r="F1061" t="n">
-        <v>153.9682006835938</v>
+        <v>153.9682159423828</v>
       </c>
       <c r="G1061" t="n">
         <v>98944600</v>
@@ -24873,7 +24873,7 @@
         <v>157.3999938964844</v>
       </c>
       <c r="F1062" t="n">
-        <v>156.3522338867188</v>
+        <v>156.3522491455078</v>
       </c>
       <c r="G1062" t="n">
         <v>73641400</v>
@@ -24896,7 +24896,7 @@
         <v>159.2799987792969</v>
       </c>
       <c r="F1063" t="n">
-        <v>158.2197113037109</v>
+        <v>158.2197265625</v>
       </c>
       <c r="G1063" t="n">
         <v>73938300</v>
@@ -24919,7 +24919,7 @@
         <v>157.8300018310547</v>
       </c>
       <c r="F1064" t="n">
-        <v>156.7793731689453</v>
+        <v>156.7793884277344</v>
       </c>
       <c r="G1064" t="n">
         <v>75701800</v>
@@ -24942,7 +24942,7 @@
         <v>158.9299926757812</v>
       </c>
       <c r="F1065" t="n">
-        <v>157.8720397949219</v>
+        <v>157.8720550537109</v>
       </c>
       <c r="G1065" t="n">
         <v>67622100</v>
@@ -24988,7 +24988,7 @@
         <v>158.2799987792969</v>
       </c>
       <c r="F1067" t="n">
-        <v>157.2263641357422</v>
+        <v>157.2263946533203</v>
       </c>
       <c r="G1067" t="n">
         <v>52390300</v>
@@ -25011,7 +25011,7 @@
         <v>157.6499938964844</v>
       </c>
       <c r="F1068" t="n">
-        <v>156.6005706787109</v>
+        <v>156.6005554199219</v>
       </c>
       <c r="G1068" t="n">
         <v>45992200</v>
@@ -25057,7 +25057,7 @@
         <v>162.3600006103516</v>
       </c>
       <c r="F1070" t="n">
-        <v>161.2792358398438</v>
+        <v>161.2792053222656</v>
       </c>
       <c r="G1070" t="n">
         <v>49501700</v>
@@ -25080,7 +25080,7 @@
         <v>164.8999938964844</v>
       </c>
       <c r="F1071" t="n">
-        <v>163.8023071289062</v>
+        <v>163.8023223876953</v>
       </c>
       <c r="G1071" t="n">
         <v>68749800</v>
@@ -25172,7 +25172,7 @@
         <v>164.6600036621094</v>
       </c>
       <c r="F1075" t="n">
-        <v>163.5639190673828</v>
+        <v>163.5639038085938</v>
       </c>
       <c r="G1075" t="n">
         <v>45390100</v>
@@ -25218,7 +25218,7 @@
         <v>160.8000030517578</v>
       </c>
       <c r="F1077" t="n">
-        <v>159.7295989990234</v>
+        <v>159.7296142578125</v>
       </c>
       <c r="G1077" t="n">
         <v>47644200</v>
@@ -25241,7 +25241,7 @@
         <v>160.1000061035156</v>
       </c>
       <c r="F1078" t="n">
-        <v>159.0342864990234</v>
+        <v>159.0342712402344</v>
       </c>
       <c r="G1078" t="n">
         <v>50133100</v>
@@ -25356,7 +25356,7 @@
         <v>167.6300048828125</v>
       </c>
       <c r="F1083" t="n">
-        <v>166.5141296386719</v>
+        <v>166.51416015625</v>
       </c>
       <c r="G1083" t="n">
         <v>47720200</v>
@@ -25402,7 +25402,7 @@
         <v>165.0200042724609</v>
       </c>
       <c r="F1085" t="n">
-        <v>163.9215240478516</v>
+        <v>163.9215087890625</v>
       </c>
       <c r="G1085" t="n">
         <v>58337300</v>
@@ -25425,7 +25425,7 @@
         <v>165.3300018310547</v>
       </c>
       <c r="F1086" t="n">
-        <v>164.2294464111328</v>
+        <v>164.2294616699219</v>
       </c>
       <c r="G1086" t="n">
         <v>41949600</v>
@@ -25517,7 +25517,7 @@
         <v>169.6799926757812</v>
       </c>
       <c r="F1090" t="n">
-        <v>168.5505065917969</v>
+        <v>168.5504913330078</v>
       </c>
       <c r="G1090" t="n">
         <v>55209200</v>
@@ -25540,7 +25540,7 @@
         <v>169.5899963378906</v>
       </c>
       <c r="F1091" t="n">
-        <v>168.4611053466797</v>
+        <v>168.4610900878906</v>
       </c>
       <c r="G1091" t="n">
         <v>52472900</v>
@@ -25563,7 +25563,7 @@
         <v>168.5399932861328</v>
       </c>
       <c r="F1092" t="n">
-        <v>167.4180755615234</v>
+        <v>167.4180908203125</v>
       </c>
       <c r="G1092" t="n">
         <v>48425700</v>
@@ -25655,7 +25655,7 @@
         <v>173.5</v>
       </c>
       <c r="F1096" t="n">
-        <v>172.3450469970703</v>
+        <v>172.3450622558594</v>
       </c>
       <c r="G1096" t="n">
         <v>55962800</v>
@@ -25701,7 +25701,7 @@
         <v>173.5599975585938</v>
       </c>
       <c r="F1098" t="n">
-        <v>172.4046630859375</v>
+        <v>172.4046783447266</v>
       </c>
       <c r="G1098" t="n">
         <v>53724500</v>
@@ -25724,7 +25724,7 @@
         <v>173.75</v>
       </c>
       <c r="F1099" t="n">
-        <v>172.5933990478516</v>
+        <v>172.5934143066406</v>
       </c>
       <c r="G1099" t="n">
         <v>49514700</v>
@@ -25770,7 +25770,7 @@
         <v>172.0700073242188</v>
       </c>
       <c r="F1101" t="n">
-        <v>171.1610107421875</v>
+        <v>171.1609954833984</v>
       </c>
       <c r="G1101" t="n">
         <v>37266700</v>
@@ -25793,7 +25793,7 @@
         <v>172.0700073242188</v>
       </c>
       <c r="F1102" t="n">
-        <v>171.1610107421875</v>
+        <v>171.1609954833984</v>
       </c>
       <c r="G1102" t="n">
         <v>42110300</v>
@@ -25839,7 +25839,7 @@
         <v>175.0500030517578</v>
       </c>
       <c r="F1104" t="n">
-        <v>174.1252593994141</v>
+        <v>174.1252746582031</v>
       </c>
       <c r="G1104" t="n">
         <v>65496700</v>
@@ -25862,7 +25862,7 @@
         <v>175.1600036621094</v>
       </c>
       <c r="F1105" t="n">
-        <v>174.2346954345703</v>
+        <v>174.2346801757812</v>
       </c>
       <c r="G1105" t="n">
         <v>55772400</v>
@@ -25885,7 +25885,7 @@
         <v>174.1999969482422</v>
       </c>
       <c r="F1106" t="n">
-        <v>173.2797546386719</v>
+        <v>173.2797393798828</v>
       </c>
       <c r="G1106" t="n">
         <v>43570900</v>
@@ -25931,7 +25931,7 @@
         <v>171.8399963378906</v>
       </c>
       <c r="F1108" t="n">
-        <v>170.9322204589844</v>
+        <v>170.9322357177734</v>
       </c>
       <c r="G1108" t="n">
         <v>45143500</v>
@@ -25977,7 +25977,7 @@
         <v>175.4299926757812</v>
       </c>
       <c r="F1110" t="n">
-        <v>174.5032653808594</v>
+        <v>174.5032501220703</v>
       </c>
       <c r="G1110" t="n">
         <v>54835000</v>
@@ -26023,7 +26023,7 @@
         <v>177.25</v>
       </c>
       <c r="F1112" t="n">
-        <v>176.3136444091797</v>
+        <v>176.3136596679688</v>
       </c>
       <c r="G1112" t="n">
         <v>99625300</v>
@@ -26046,7 +26046,7 @@
         <v>180.0899963378906</v>
       </c>
       <c r="F1113" t="n">
-        <v>179.1386260986328</v>
+        <v>179.1386108398438</v>
       </c>
       <c r="G1113" t="n">
         <v>68901800</v>
@@ -26069,7 +26069,7 @@
         <v>180.9499969482422</v>
       </c>
       <c r="F1114" t="n">
-        <v>179.9940948486328</v>
+        <v>179.9940795898438</v>
       </c>
       <c r="G1114" t="n">
         <v>61945900</v>
@@ -26138,7 +26138,7 @@
         <v>177.8200073242188</v>
       </c>
       <c r="F1117" t="n">
-        <v>176.8806304931641</v>
+        <v>176.8806457519531</v>
       </c>
       <c r="G1117" t="n">
         <v>61944600</v>
@@ -26184,7 +26184,7 @@
         <v>180.9600067138672</v>
       </c>
       <c r="F1119" t="n">
-        <v>180.0040435791016</v>
+        <v>180.0040588378906</v>
       </c>
       <c r="G1119" t="n">
         <v>48870700</v>
@@ -26230,7 +26230,7 @@
         <v>183.3099975585938</v>
       </c>
       <c r="F1121" t="n">
-        <v>182.3416137695312</v>
+        <v>182.3416290283203</v>
       </c>
       <c r="G1121" t="n">
         <v>54929100</v>
@@ -26276,7 +26276,7 @@
         <v>186.0099945068359</v>
       </c>
       <c r="F1123" t="n">
-        <v>185.0273742675781</v>
+        <v>185.0273590087891</v>
       </c>
       <c r="G1123" t="n">
         <v>65433200</v>
@@ -26299,7 +26299,7 @@
         <v>184.9199981689453</v>
       </c>
       <c r="F1124" t="n">
-        <v>183.943115234375</v>
+        <v>183.9431304931641</v>
       </c>
       <c r="G1124" t="n">
         <v>101235600</v>
@@ -26345,7 +26345,7 @@
         <v>183.9600067138672</v>
       </c>
       <c r="F1126" t="n">
-        <v>182.9881896972656</v>
+        <v>182.9882049560547</v>
       </c>
       <c r="G1126" t="n">
         <v>49515700</v>
@@ -26368,7 +26368,7 @@
         <v>187</v>
       </c>
       <c r="F1127" t="n">
-        <v>186.0121307373047</v>
+        <v>186.0121459960938</v>
       </c>
       <c r="G1127" t="n">
         <v>51245300</v>
@@ -26391,7 +26391,7 @@
         <v>186.6799926757812</v>
       </c>
       <c r="F1128" t="n">
-        <v>185.6938171386719</v>
+        <v>185.6938323974609</v>
       </c>
       <c r="G1128" t="n">
         <v>53079300</v>
@@ -26414,7 +26414,7 @@
         <v>185.2700042724609</v>
       </c>
       <c r="F1129" t="n">
-        <v>184.291259765625</v>
+        <v>184.2912750244141</v>
       </c>
       <c r="G1129" t="n">
         <v>48088700</v>
@@ -26437,7 +26437,7 @@
         <v>188.0599975585938</v>
       </c>
       <c r="F1130" t="n">
-        <v>187.0665130615234</v>
+        <v>187.0665283203125</v>
       </c>
       <c r="G1130" t="n">
         <v>50730800</v>
@@ -26575,7 +26575,7 @@
         <v>191.8099975585938</v>
       </c>
       <c r="F1136" t="n">
-        <v>190.7967071533203</v>
+        <v>190.7967224121094</v>
       </c>
       <c r="G1136" t="n">
         <v>45094300</v>
@@ -26598,7 +26598,7 @@
         <v>190.6799926757812</v>
       </c>
       <c r="F1137" t="n">
-        <v>189.6726684570312</v>
+        <v>189.6726837158203</v>
       </c>
       <c r="G1137" t="n">
         <v>46778000</v>
@@ -26621,7 +26621,7 @@
         <v>188.6100006103516</v>
       </c>
       <c r="F1138" t="n">
-        <v>187.6136474609375</v>
+        <v>187.6136322021484</v>
       </c>
       <c r="G1138" t="n">
         <v>59922200</v>
@@ -26644,7 +26644,7 @@
         <v>188.0800018310547</v>
       </c>
       <c r="F1139" t="n">
-        <v>187.0864410400391</v>
+        <v>187.08642578125</v>
       </c>
       <c r="G1139" t="n">
         <v>46638100</v>
@@ -26736,7 +26736,7 @@
         <v>193.9900054931641</v>
       </c>
       <c r="F1143" t="n">
-        <v>192.9651947021484</v>
+        <v>192.9652252197266</v>
       </c>
       <c r="G1143" t="n">
         <v>50520200</v>
@@ -26759,7 +26759,7 @@
         <v>193.7299957275391</v>
       </c>
       <c r="F1144" t="n">
-        <v>192.7065734863281</v>
+        <v>192.7065887451172</v>
       </c>
       <c r="G1144" t="n">
         <v>48353800</v>
@@ -26782,7 +26782,7 @@
         <v>195.1000061035156</v>
       </c>
       <c r="F1145" t="n">
-        <v>194.0693511962891</v>
+        <v>194.0693664550781</v>
       </c>
       <c r="G1145" t="n">
         <v>80507300</v>
@@ -26851,7 +26851,7 @@
         <v>192.75</v>
       </c>
       <c r="F1148" t="n">
-        <v>191.7317504882812</v>
+        <v>191.7317657470703</v>
       </c>
       <c r="G1148" t="n">
         <v>45377800</v>
@@ -26943,7 +26943,7 @@
         <v>195.8300018310547</v>
       </c>
       <c r="F1152" t="n">
-        <v>194.7955017089844</v>
+        <v>194.7954864501953</v>
       </c>
       <c r="G1152" t="n">
         <v>48291400</v>
@@ -26966,7 +26966,7 @@
         <v>196.4499969482422</v>
       </c>
       <c r="F1153" t="n">
-        <v>195.4122161865234</v>
+        <v>195.4122009277344</v>
       </c>
       <c r="G1153" t="n">
         <v>38824100</v>
@@ -26989,7 +26989,7 @@
         <v>195.6100006103516</v>
       </c>
       <c r="F1154" t="n">
-        <v>194.5766448974609</v>
+        <v>194.57666015625</v>
       </c>
       <c r="G1154" t="n">
         <v>35175100</v>
@@ -27081,7 +27081,7 @@
         <v>178.8500061035156</v>
       </c>
       <c r="F1158" t="n">
-        <v>177.9051818847656</v>
+        <v>177.9051971435547</v>
       </c>
       <c r="G1158" t="n">
         <v>97576100</v>
@@ -27150,7 +27150,7 @@
         <v>177.9700012207031</v>
       </c>
       <c r="F1161" t="n">
-        <v>177.0298461914062</v>
+        <v>177.0298614501953</v>
       </c>
       <c r="G1161" t="n">
         <v>54686900</v>
@@ -27173,7 +27173,7 @@
         <v>177.7899932861328</v>
       </c>
       <c r="F1162" t="n">
-        <v>177.089599609375</v>
+        <v>177.0896148681641</v>
       </c>
       <c r="G1162" t="n">
         <v>51988100</v>
@@ -27288,7 +27288,7 @@
         <v>174.4900054931641</v>
       </c>
       <c r="F1167" t="n">
-        <v>173.8026123046875</v>
+        <v>173.8026275634766</v>
       </c>
       <c r="G1167" t="n">
         <v>61114200</v>
@@ -27380,7 +27380,7 @@
         <v>176.3800048828125</v>
       </c>
       <c r="F1171" t="n">
-        <v>175.6851501464844</v>
+        <v>175.6851654052734</v>
       </c>
       <c r="G1171" t="n">
         <v>54945800</v>
@@ -27541,7 +27541,7 @@
         <v>189.6999969482422</v>
       </c>
       <c r="F1178" t="n">
-        <v>188.9526977539062</v>
+        <v>188.9526824951172</v>
       </c>
       <c r="G1178" t="n">
         <v>45280000</v>
@@ -27587,7 +27587,7 @@
         <v>177.5599975585938</v>
       </c>
       <c r="F1180" t="n">
-        <v>176.8605194091797</v>
+        <v>176.8605041503906</v>
       </c>
       <c r="G1180" t="n">
         <v>112488800</v>
@@ -27748,7 +27748,7 @@
         <v>177.9700012207031</v>
       </c>
       <c r="F1187" t="n">
-        <v>177.2688903808594</v>
+        <v>177.2689056396484</v>
       </c>
       <c r="G1187" t="n">
         <v>67257600</v>
@@ -27794,7 +27794,7 @@
         <v>175.4900054931641</v>
       </c>
       <c r="F1189" t="n">
-        <v>174.7986602783203</v>
+        <v>174.7986755371094</v>
       </c>
       <c r="G1189" t="n">
         <v>58436200</v>
@@ -27817,7 +27817,7 @@
         <v>173.9299926757812</v>
       </c>
       <c r="F1190" t="n">
-        <v>173.2448120117188</v>
+        <v>173.2447967529297</v>
       </c>
       <c r="G1190" t="n">
         <v>63047900</v>
@@ -27840,7 +27840,7 @@
         <v>174.7899932861328</v>
       </c>
       <c r="F1191" t="n">
-        <v>174.1014099121094</v>
+        <v>174.1014251708984</v>
       </c>
       <c r="G1191" t="n">
         <v>56725400</v>
@@ -27886,7 +27886,7 @@
         <v>171.9600067138672</v>
       </c>
       <c r="F1193" t="n">
-        <v>171.2825622558594</v>
+        <v>171.2825775146484</v>
       </c>
       <c r="G1193" t="n">
         <v>64588900</v>
@@ -27978,7 +27978,7 @@
         <v>173.75</v>
       </c>
       <c r="F1197" t="n">
-        <v>173.0655212402344</v>
+        <v>173.0655059814453</v>
       </c>
       <c r="G1197" t="n">
         <v>52164500</v>
@@ -28024,7 +28024,7 @@
         <v>173.6600036621094</v>
       </c>
       <c r="F1199" t="n">
-        <v>172.9758911132812</v>
+        <v>172.9758758544922</v>
       </c>
       <c r="G1199" t="n">
         <v>53020300</v>
@@ -28070,7 +28070,7 @@
         <v>177.4900054931641</v>
       </c>
       <c r="F1201" t="n">
-        <v>176.7908020019531</v>
+        <v>176.7907867431641</v>
       </c>
       <c r="G1201" t="n">
         <v>57224100</v>
@@ -28162,7 +28162,7 @@
         <v>180.7100067138672</v>
       </c>
       <c r="F1205" t="n">
-        <v>179.9981079101562</v>
+        <v>179.9980926513672</v>
       </c>
       <c r="G1205" t="n">
         <v>56743100</v>
@@ -28185,7 +28185,7 @@
         <v>178.8500061035156</v>
       </c>
       <c r="F1206" t="n">
-        <v>178.1454162597656</v>
+        <v>178.1454315185547</v>
       </c>
       <c r="G1206" t="n">
         <v>51427100</v>
@@ -28208,7 +28208,7 @@
         <v>178.7200012207031</v>
       </c>
       <c r="F1207" t="n">
-        <v>178.0159454345703</v>
+        <v>178.0159301757812</v>
       </c>
       <c r="G1207" t="n">
         <v>52517000</v>
@@ -28277,7 +28277,7 @@
         <v>175.4600067138672</v>
       </c>
       <c r="F1210" t="n">
-        <v>174.768798828125</v>
+        <v>174.7687835693359</v>
       </c>
       <c r="G1210" t="n">
         <v>59302900</v>
@@ -28392,7 +28392,7 @@
         <v>166.8899993896484</v>
       </c>
       <c r="F1215" t="n">
-        <v>166.2325592041016</v>
+        <v>166.2325439453125</v>
       </c>
       <c r="G1215" t="n">
         <v>70625300</v>
@@ -28507,7 +28507,7 @@
         <v>177.5700073242188</v>
       </c>
       <c r="F1220" t="n">
-        <v>176.8704833984375</v>
+        <v>176.8704681396484</v>
       </c>
       <c r="G1220" t="n">
         <v>77334800</v>
@@ -28530,7 +28530,7 @@
         <v>176.6499938964844</v>
       </c>
       <c r="F1221" t="n">
-        <v>175.9540863037109</v>
+        <v>175.9541015625</v>
       </c>
       <c r="G1221" t="n">
         <v>79763700</v>
@@ -28576,7 +28576,7 @@
         <v>181.8200073242188</v>
       </c>
       <c r="F1223" t="n">
-        <v>181.1037292480469</v>
+        <v>181.1037445068359</v>
       </c>
       <c r="G1223" t="n">
         <v>70530000</v>
@@ -28622,7 +28622,7 @@
         <v>182.4100036621094</v>
       </c>
       <c r="F1225" t="n">
-        <v>181.69140625</v>
+        <v>181.6914215087891</v>
       </c>
       <c r="G1225" t="n">
         <v>53763500</v>
